--- a/data/RawData/ObsData/2001-2009/01-12-2006.xlsx
+++ b/data/RawData/ObsData/2001-2009/01-12-2006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2001-2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E57745-214E-4CDB-93D2-B32B504AEF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B7EB86-C35E-4B01-92D2-6FD3A9CA4CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{62E47A96-C147-4ED7-A676-27C07D47686F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="1121">
   <si>
     <t>Mico</t>
   </si>
@@ -2094,9 +2094,6 @@
     <t>E11</t>
   </si>
   <si>
-    <t>E12</t>
-  </si>
-  <si>
     <t>E13</t>
   </si>
   <si>
@@ -4050,6 +4047,9 @@
   </si>
   <si>
     <t>08/03</t>
+  </si>
+  <si>
+    <t>PI4</t>
   </si>
 </sst>
 </file>
@@ -5072,8 +5072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD0B457-D9AE-4B60-82BF-D74F14089D78}">
   <dimension ref="A1:P500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F501" sqref="F501"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="L224" sqref="L224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5097,7 +5097,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -5323,7 +5323,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>20</v>
@@ -5360,7 +5360,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>20</v>
@@ -5397,7 +5397,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>20</v>
@@ -5434,7 +5434,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>20</v>
@@ -5471,7 +5471,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>32</v>
@@ -6478,7 +6478,7 @@
         <v>123</v>
       </c>
       <c r="F43" s="122" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G43" s="50"/>
       <c r="H43" s="5"/>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="91" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B100" s="95" t="s">
         <v>415</v>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="N131" s="108"/>
       <c r="O131" s="108" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="N132" s="108"/>
       <c r="O132" s="108" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -9222,14 +9222,14 @@
       </c>
       <c r="K133" s="59"/>
       <c r="L133" s="59" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M133" s="108" t="s">
         <v>32</v>
       </c>
       <c r="N133" s="59"/>
       <c r="O133" s="59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -9254,7 +9254,7 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B135" s="59"/>
       <c r="C135" s="59"/>
@@ -9276,14 +9276,14 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="108" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B136" s="66" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C136" s="59"/>
       <c r="D136" s="66" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E136" s="108" t="s">
         <v>20</v>
@@ -9291,27 +9291,25 @@
       <c r="F136" s="59"/>
       <c r="G136" s="59"/>
       <c r="H136" s="115"/>
-      <c r="I136" s="59"/>
-      <c r="J136" s="108" t="s">
-        <v>480</v>
-      </c>
-      <c r="K136" s="59"/>
-      <c r="L136" s="59"/>
-      <c r="M136" s="59"/>
-      <c r="N136" s="59"/>
-      <c r="O136" s="59"/>
+      <c r="I136" s="115"/>
+      <c r="J136" s="115"/>
+      <c r="K136" s="115"/>
+      <c r="L136" s="115"/>
+      <c r="M136" s="115"/>
+      <c r="N136" s="115"/>
+      <c r="O136" s="115"/>
       <c r="P136" s="115"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="108" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B137" s="66" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C137" s="59"/>
       <c r="D137" s="66" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E137" s="108" t="s">
         <v>20</v>
@@ -9319,19 +9317,27 @@
       <c r="F137" s="59"/>
       <c r="G137" s="59"/>
       <c r="H137" s="115"/>
-      <c r="I137" s="115"/>
-      <c r="J137" s="115"/>
-      <c r="K137" s="115"/>
-      <c r="L137" s="115"/>
-      <c r="M137" s="115"/>
-      <c r="N137" s="115"/>
-      <c r="O137" s="115"/>
+      <c r="I137" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="J137" s="108" t="s">
+        <v>484</v>
+      </c>
+      <c r="K137" s="59"/>
+      <c r="L137" s="108" t="s">
+        <v>484</v>
+      </c>
+      <c r="M137" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="N137" s="59"/>
+      <c r="O137" s="59"/>
       <c r="P137" s="115"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="59"/>
       <c r="B138" s="66" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C138" s="59"/>
       <c r="D138" s="66">
@@ -9345,9 +9351,7 @@
         <v>4612</v>
       </c>
       <c r="H138" s="115"/>
-      <c r="I138" s="59" t="s">
-        <v>485</v>
-      </c>
+      <c r="I138" s="59"/>
       <c r="J138" s="108" t="s">
         <v>485</v>
       </c>
@@ -9356,7 +9360,7 @@
         <v>485</v>
       </c>
       <c r="M138" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N138" s="59"/>
       <c r="O138" s="59"/>
@@ -9365,11 +9369,11 @@
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="59"/>
       <c r="B139" s="66" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C139" s="59"/>
       <c r="D139" s="66" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E139" s="108" t="s">
         <v>32</v>
@@ -9386,7 +9390,7 @@
         <v>486</v>
       </c>
       <c r="M139" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N139" s="59"/>
       <c r="O139" s="59"/>
@@ -9395,11 +9399,11 @@
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="59"/>
       <c r="B140" s="59" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C140" s="59"/>
       <c r="D140" s="59" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E140" s="59" t="s">
         <v>20</v>
@@ -9416,7 +9420,7 @@
         <v>487</v>
       </c>
       <c r="M140" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N140" s="59"/>
       <c r="O140" s="59"/>
@@ -9425,11 +9429,11 @@
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="59"/>
       <c r="B141" s="59" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C141" s="59"/>
       <c r="D141" s="59" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E141" s="59" t="s">
         <v>20</v>
@@ -9442,12 +9446,8 @@
         <v>488</v>
       </c>
       <c r="K141" s="59"/>
-      <c r="L141" s="108" t="s">
-        <v>488</v>
-      </c>
-      <c r="M141" s="59" t="s">
-        <v>20</v>
-      </c>
+      <c r="L141" s="59"/>
+      <c r="M141" s="59"/>
       <c r="N141" s="59"/>
       <c r="O141" s="59"/>
       <c r="P141" s="115"/>
@@ -9455,7 +9455,7 @@
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="59"/>
       <c r="B142" s="59" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C142" s="59"/>
       <c r="D142" s="59"/>
@@ -9477,7 +9477,7 @@
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="59"/>
       <c r="B143" s="59" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C143" s="59"/>
       <c r="D143" s="59"/>
@@ -9505,15 +9505,13 @@
       <c r="F144" s="115"/>
       <c r="G144" s="115"/>
       <c r="H144" s="115"/>
-      <c r="I144" s="59"/>
-      <c r="J144" s="108" t="s">
-        <v>491</v>
-      </c>
-      <c r="K144" s="59"/>
-      <c r="L144" s="59"/>
-      <c r="M144" s="59"/>
-      <c r="N144" s="59"/>
-      <c r="O144" s="59"/>
+      <c r="I144" s="115"/>
+      <c r="J144" s="115"/>
+      <c r="K144" s="115"/>
+      <c r="L144" s="115"/>
+      <c r="M144" s="115"/>
+      <c r="N144" s="115"/>
+      <c r="O144" s="115"/>
       <c r="P144" s="115"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
@@ -9521,11 +9519,11 @@
         <v>288</v>
       </c>
       <c r="B145" s="59" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C145" s="59"/>
       <c r="D145" s="59" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E145" s="59" t="s">
         <v>32</v>
@@ -9533,13 +9531,15 @@
       <c r="F145" s="59"/>
       <c r="G145" s="59"/>
       <c r="H145" s="115"/>
-      <c r="I145" s="115"/>
-      <c r="J145" s="115"/>
-      <c r="K145" s="115"/>
-      <c r="L145" s="115"/>
-      <c r="M145" s="115"/>
-      <c r="N145" s="115"/>
-      <c r="O145" s="115"/>
+      <c r="I145" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="J145" s="59"/>
+      <c r="K145" s="59"/>
+      <c r="L145" s="59"/>
+      <c r="M145" s="59"/>
+      <c r="N145" s="59"/>
+      <c r="O145" s="59"/>
       <c r="P145" s="115"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
@@ -9547,11 +9547,11 @@
         <v>288</v>
       </c>
       <c r="B146" s="59" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C146" s="59"/>
       <c r="D146" s="59" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E146" s="59" t="s">
         <v>32</v>
@@ -9562,12 +9562,20 @@
       <c r="I146" s="59" t="s">
         <v>499</v>
       </c>
-      <c r="J146" s="59"/>
+      <c r="J146" s="108" t="s">
+        <v>501</v>
+      </c>
       <c r="K146" s="59"/>
-      <c r="L146" s="59"/>
-      <c r="M146" s="59"/>
+      <c r="L146" s="108" t="s">
+        <v>501</v>
+      </c>
+      <c r="M146" s="59" t="s">
+        <v>20</v>
+      </c>
       <c r="N146" s="59"/>
-      <c r="O146" s="59"/>
+      <c r="O146" s="59">
+        <v>4620</v>
+      </c>
       <c r="P146" s="115"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -9575,11 +9583,11 @@
         <v>288</v>
       </c>
       <c r="B147" s="59" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C147" s="59"/>
       <c r="D147" s="59" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E147" s="59" t="s">
         <v>32</v>
@@ -9598,12 +9606,10 @@
         <v>502</v>
       </c>
       <c r="M147" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N147" s="59"/>
-      <c r="O147" s="59">
-        <v>4620</v>
-      </c>
+      <c r="O147" s="59"/>
       <c r="P147" s="115"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
@@ -9615,9 +9621,7 @@
       <c r="F148" s="115"/>
       <c r="G148" s="115"/>
       <c r="H148" s="115"/>
-      <c r="I148" s="59" t="s">
-        <v>501</v>
-      </c>
+      <c r="I148" s="59"/>
       <c r="J148" s="108" t="s">
         <v>503</v>
       </c>
@@ -9634,14 +9638,14 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="B149" s="59" t="s">
         <v>514</v>
-      </c>
-      <c r="B149" s="59" t="s">
-        <v>515</v>
       </c>
       <c r="C149" s="59"/>
       <c r="D149" s="59" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E149" s="59" t="s">
         <v>20</v>
@@ -9656,9 +9660,7 @@
         <v>504</v>
       </c>
       <c r="K149" s="59"/>
-      <c r="L149" s="108" t="s">
-        <v>504</v>
-      </c>
+      <c r="L149" s="59"/>
       <c r="M149" s="59" t="s">
         <v>32</v>
       </c>
@@ -9669,11 +9671,11 @@
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="59"/>
       <c r="B150" s="59" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C150" s="59"/>
       <c r="D150" s="59" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E150" s="59" t="s">
         <v>32</v>
@@ -9684,13 +9686,13 @@
       </c>
       <c r="H150" s="115"/>
       <c r="I150" s="59"/>
-      <c r="J150" s="108" t="s">
+      <c r="J150" s="59" t="s">
         <v>505</v>
       </c>
       <c r="K150" s="59"/>
       <c r="L150" s="59"/>
       <c r="M150" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N150" s="59"/>
       <c r="O150" s="59"/>
@@ -9699,7 +9701,7 @@
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="59"/>
       <c r="B151" s="59" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C151" s="59"/>
       <c r="D151" s="59"/>
@@ -9707,23 +9709,19 @@
       <c r="F151" s="59"/>
       <c r="G151" s="59"/>
       <c r="H151" s="115"/>
-      <c r="I151" s="59"/>
-      <c r="J151" s="59" t="s">
-        <v>506</v>
-      </c>
-      <c r="K151" s="59"/>
-      <c r="L151" s="59"/>
-      <c r="M151" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="N151" s="59"/>
-      <c r="O151" s="59"/>
+      <c r="I151" s="115"/>
+      <c r="J151" s="115"/>
+      <c r="K151" s="115"/>
+      <c r="L151" s="115"/>
+      <c r="M151" s="115"/>
+      <c r="N151" s="115"/>
+      <c r="O151" s="115"/>
       <c r="P151" s="115"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="59"/>
       <c r="B152" s="59" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C152" s="59"/>
       <c r="D152" s="59"/>
@@ -9731,19 +9729,27 @@
       <c r="F152" s="59"/>
       <c r="G152" s="59"/>
       <c r="H152" s="115"/>
-      <c r="I152" s="115"/>
-      <c r="J152" s="115"/>
-      <c r="K152" s="115"/>
-      <c r="L152" s="115"/>
-      <c r="M152" s="115"/>
-      <c r="N152" s="115"/>
-      <c r="O152" s="115"/>
+      <c r="I152" s="59" t="s">
+        <v>529</v>
+      </c>
+      <c r="J152" s="59" t="s">
+        <v>531</v>
+      </c>
+      <c r="K152" s="59"/>
+      <c r="L152" s="59" t="s">
+        <v>534</v>
+      </c>
+      <c r="M152" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="N152" s="59"/>
+      <c r="O152" s="59"/>
       <c r="P152" s="115"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="59"/>
       <c r="B153" s="59" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C153" s="59"/>
       <c r="D153" s="59"/>
@@ -9771,7 +9777,7 @@
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="59"/>
       <c r="B154" s="59" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C154" s="59"/>
       <c r="D154" s="59"/>
@@ -9779,9 +9785,7 @@
       <c r="F154" s="59"/>
       <c r="G154" s="59"/>
       <c r="H154" s="115"/>
-      <c r="I154" s="59" t="s">
-        <v>531</v>
-      </c>
+      <c r="I154" s="59"/>
       <c r="J154" s="59" t="s">
         <v>533</v>
       </c>
@@ -9805,27 +9809,21 @@
       <c r="F155" s="115"/>
       <c r="G155" s="115"/>
       <c r="H155" s="115"/>
-      <c r="I155" s="59"/>
-      <c r="J155" s="59" t="s">
-        <v>534</v>
-      </c>
-      <c r="K155" s="59"/>
-      <c r="L155" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="M155" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="N155" s="59"/>
-      <c r="O155" s="59"/>
+      <c r="I155" s="115"/>
+      <c r="J155" s="115"/>
+      <c r="K155" s="115"/>
+      <c r="L155" s="115"/>
+      <c r="M155" s="115"/>
+      <c r="N155" s="115"/>
+      <c r="O155" s="115"/>
       <c r="P155" s="115"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="59" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B156" s="59" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C156" s="59"/>
       <c r="D156" s="59">
@@ -9839,37 +9837,43 @@
         <v>4907</v>
       </c>
       <c r="H156" s="115"/>
-      <c r="I156" s="115"/>
-      <c r="J156" s="115"/>
-      <c r="K156" s="115"/>
-      <c r="L156" s="115"/>
-      <c r="M156" s="115"/>
-      <c r="N156" s="115"/>
-      <c r="O156" s="115"/>
+      <c r="I156" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="J156" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="K156" s="59"/>
+      <c r="L156" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="M156" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="N156" s="59"/>
+      <c r="O156" s="59"/>
       <c r="P156" s="115"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="59" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B157" s="59" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C157" s="59"/>
       <c r="D157" s="59" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E157" s="59" t="s">
         <v>32</v>
       </c>
       <c r="F157" s="59"/>
       <c r="G157" s="59" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H157" s="115"/>
-      <c r="I157" s="59" t="s">
-        <v>541</v>
-      </c>
+      <c r="I157" s="59"/>
       <c r="J157" s="59" t="s">
         <v>538</v>
       </c>
@@ -9878,7 +9882,7 @@
         <v>538</v>
       </c>
       <c r="M157" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N157" s="59"/>
       <c r="O157" s="59"/>
@@ -9887,11 +9891,11 @@
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="59"/>
       <c r="B158" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C158" s="59"/>
       <c r="D158" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E158" s="59" t="s">
         <v>32</v>
@@ -9908,7 +9912,7 @@
         <v>539</v>
       </c>
       <c r="M158" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N158" s="59"/>
       <c r="O158" s="59"/>
@@ -9917,11 +9921,11 @@
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="59"/>
       <c r="B159" s="59" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C159" s="59"/>
       <c r="D159" s="59" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E159" s="59" t="s">
         <v>20</v>
@@ -9929,29 +9933,25 @@
       <c r="F159" s="59"/>
       <c r="G159" s="59"/>
       <c r="H159" s="115"/>
-      <c r="I159" s="59"/>
-      <c r="J159" s="59" t="s">
-        <v>540</v>
-      </c>
-      <c r="K159" s="59"/>
-      <c r="L159" s="59" t="s">
-        <v>540</v>
-      </c>
-      <c r="M159" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="N159" s="59"/>
-      <c r="O159" s="59"/>
+      <c r="I159" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="J159" s="115"/>
+      <c r="K159" s="115"/>
+      <c r="L159" s="115"/>
+      <c r="M159" s="115"/>
+      <c r="N159" s="115"/>
+      <c r="O159" s="115"/>
       <c r="P159" s="115"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="59"/>
       <c r="B160" s="59" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C160" s="59"/>
       <c r="D160" s="59" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E160" s="59" t="s">
         <v>32</v>
@@ -9962,18 +9962,22 @@
       <c r="I160" s="59" t="s">
         <v>542</v>
       </c>
-      <c r="J160" s="115"/>
-      <c r="K160" s="115"/>
-      <c r="L160" s="115"/>
-      <c r="M160" s="115"/>
-      <c r="N160" s="115"/>
-      <c r="O160" s="115"/>
+      <c r="J160" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="K160" s="59"/>
+      <c r="L160" s="59"/>
+      <c r="M160" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="N160" s="59"/>
+      <c r="O160" s="59"/>
       <c r="P160" s="115"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="59"/>
       <c r="B161" s="59" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C161" s="59"/>
       <c r="D161" s="59"/>
@@ -9985,12 +9989,12 @@
         <v>543</v>
       </c>
       <c r="J161" s="59" t="s">
-        <v>536</v>
+        <v>270</v>
       </c>
       <c r="K161" s="59"/>
       <c r="L161" s="59"/>
       <c r="M161" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N161" s="59"/>
       <c r="O161" s="59"/>
@@ -9999,7 +10003,7 @@
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="59"/>
       <c r="B162" s="59" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C162" s="59"/>
       <c r="D162" s="59"/>
@@ -10007,14 +10011,13 @@
       <c r="F162" s="59"/>
       <c r="G162" s="59"/>
       <c r="H162" s="115"/>
-      <c r="I162" s="59" t="s">
+      <c r="J162" s="59" t="s">
         <v>544</v>
       </c>
-      <c r="J162" s="59" t="s">
-        <v>270</v>
-      </c>
       <c r="K162" s="59"/>
-      <c r="L162" s="59"/>
+      <c r="L162" s="59" t="s">
+        <v>544</v>
+      </c>
       <c r="M162" s="59" t="s">
         <v>32</v>
       </c>
@@ -10031,6 +10034,7 @@
       <c r="F163" s="115"/>
       <c r="G163" s="115"/>
       <c r="H163" s="115"/>
+      <c r="I163" s="59"/>
       <c r="J163" s="59" t="s">
         <v>545</v>
       </c>
@@ -10039,7 +10043,7 @@
         <v>545</v>
       </c>
       <c r="M163" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N163" s="59"/>
       <c r="O163" s="59"/>
@@ -10047,16 +10051,16 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="59" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B164" s="59" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C164" s="59" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="59" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E164" s="59" t="s">
         <v>20</v>
@@ -10071,12 +10075,8 @@
         <v>546</v>
       </c>
       <c r="K164" s="59"/>
-      <c r="L164" s="59" t="s">
-        <v>546</v>
-      </c>
-      <c r="M164" s="59" t="s">
-        <v>20</v>
-      </c>
+      <c r="L164" s="59"/>
+      <c r="M164" s="59"/>
       <c r="N164" s="59"/>
       <c r="O164" s="59"/>
       <c r="P164" s="115"/>
@@ -10114,20 +10114,18 @@
       <c r="F166" s="115"/>
       <c r="G166" s="115"/>
       <c r="H166" s="115"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="59" t="s">
-        <v>548</v>
-      </c>
-      <c r="K166" s="59"/>
-      <c r="L166" s="59"/>
-      <c r="M166" s="59"/>
-      <c r="N166" s="59"/>
-      <c r="O166" s="59"/>
+      <c r="I166" s="28"/>
+      <c r="J166" s="28"/>
+      <c r="K166" s="28"/>
+      <c r="L166" s="28"/>
+      <c r="M166" s="28"/>
+      <c r="N166" s="28"/>
+      <c r="O166" s="28"/>
       <c r="P166" s="115"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="108" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B167" s="108"/>
       <c r="C167" s="108"/>
@@ -10136,25 +10134,33 @@
       <c r="F167" s="108"/>
       <c r="G167" s="108"/>
       <c r="H167" s="28"/>
-      <c r="I167" s="28"/>
-      <c r="J167" s="28"/>
-      <c r="K167" s="28"/>
-      <c r="L167" s="28"/>
-      <c r="M167" s="28"/>
-      <c r="N167" s="28"/>
-      <c r="O167" s="28"/>
+      <c r="I167" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="J167" s="108" t="s">
+        <v>548</v>
+      </c>
+      <c r="K167" s="108"/>
+      <c r="L167" s="108" t="s">
+        <v>548</v>
+      </c>
+      <c r="M167" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N167" s="108"/>
+      <c r="O167" s="108"/>
       <c r="P167" s="115"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="108" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B168" s="108" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C168" s="108"/>
       <c r="D168" s="108" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E168" s="108" t="s">
         <v>32</v>
@@ -10162,33 +10168,25 @@
       <c r="F168" s="108"/>
       <c r="G168" s="108"/>
       <c r="H168" s="28"/>
-      <c r="I168" s="108" t="s">
-        <v>288</v>
-      </c>
-      <c r="J168" s="108" t="s">
-        <v>549</v>
-      </c>
-      <c r="K168" s="108"/>
-      <c r="L168" s="108" t="s">
-        <v>549</v>
-      </c>
-      <c r="M168" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="N168" s="108"/>
-      <c r="O168" s="108"/>
+      <c r="I168" s="28"/>
+      <c r="J168" s="28"/>
+      <c r="K168" s="28"/>
+      <c r="L168" s="28"/>
+      <c r="M168" s="28"/>
+      <c r="N168" s="28"/>
+      <c r="O168" s="28"/>
       <c r="P168" s="115"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="108" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B169" s="108" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C169" s="108"/>
       <c r="D169" s="108" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E169" s="108" t="s">
         <v>32</v>
@@ -10196,23 +10194,31 @@
       <c r="F169" s="108"/>
       <c r="G169" s="108"/>
       <c r="H169" s="28"/>
-      <c r="I169" s="28"/>
-      <c r="J169" s="28"/>
-      <c r="K169" s="28"/>
-      <c r="L169" s="28"/>
-      <c r="M169" s="28"/>
-      <c r="N169" s="28"/>
-      <c r="O169" s="28"/>
+      <c r="I169" s="108" t="s">
+        <v>549</v>
+      </c>
+      <c r="J169" s="108" t="s">
+        <v>550</v>
+      </c>
+      <c r="K169" s="108"/>
+      <c r="L169" s="108" t="s">
+        <v>550</v>
+      </c>
+      <c r="M169" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N169" s="108"/>
+      <c r="O169" s="108"/>
       <c r="P169" s="115"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="108"/>
       <c r="B170" s="108" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C170" s="108"/>
       <c r="D170" s="108" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E170" s="108" t="s">
         <v>32</v>
@@ -10220,9 +10226,7 @@
       <c r="F170" s="108"/>
       <c r="G170" s="108"/>
       <c r="H170" s="28"/>
-      <c r="I170" s="108" t="s">
-        <v>550</v>
-      </c>
+      <c r="I170" s="108"/>
       <c r="J170" s="108" t="s">
         <v>551</v>
       </c>
@@ -10231,7 +10235,7 @@
         <v>551</v>
       </c>
       <c r="M170" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N170" s="108"/>
       <c r="O170" s="108"/>
@@ -10240,11 +10244,11 @@
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="108"/>
       <c r="B171" s="108" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C171" s="108"/>
       <c r="D171" s="108" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E171" s="108" t="s">
         <v>32</v>
@@ -10270,11 +10274,11 @@
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="108"/>
       <c r="B172" s="108" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C172" s="108"/>
       <c r="D172" s="108" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E172" s="108" t="s">
         <v>20</v>
@@ -10300,11 +10304,11 @@
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="108"/>
       <c r="B173" s="108" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C173" s="108"/>
       <c r="D173" s="108" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E173" s="108" t="s">
         <v>20</v>
@@ -10321,7 +10325,7 @@
         <v>554</v>
       </c>
       <c r="M173" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N173" s="108"/>
       <c r="O173" s="108"/>
@@ -10353,7 +10357,7 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B175" s="83"/>
       <c r="C175" s="83"/>
@@ -10379,14 +10383,14 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B176" s="108" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C176" s="83"/>
       <c r="D176" s="108" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E176" s="108" t="s">
         <v>32</v>
@@ -10403,7 +10407,7 @@
         <v>557</v>
       </c>
       <c r="M176" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N176" s="108"/>
       <c r="O176" s="108"/>
@@ -10411,14 +10415,14 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="83" t="s">
+        <v>595</v>
+      </c>
+      <c r="B177" s="108" t="s">
         <v>596</v>
-      </c>
-      <c r="B177" s="108" t="s">
-        <v>597</v>
       </c>
       <c r="C177" s="83"/>
       <c r="D177" s="108" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E177" s="108" t="s">
         <v>20</v>
@@ -10431,12 +10435,8 @@
         <v>558</v>
       </c>
       <c r="K177" s="108"/>
-      <c r="L177" s="108" t="s">
-        <v>558</v>
-      </c>
-      <c r="M177" s="108" t="s">
-        <v>32</v>
-      </c>
+      <c r="L177" s="108"/>
+      <c r="M177" s="108"/>
       <c r="N177" s="108"/>
       <c r="O177" s="108"/>
       <c r="P177" s="115"/>
@@ -10444,11 +10444,11 @@
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="83"/>
       <c r="B178" s="108" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C178" s="83"/>
       <c r="D178" s="108" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E178" s="108" t="s">
         <v>32</v>
@@ -10470,11 +10470,11 @@
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="108"/>
       <c r="B179" s="108" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C179" s="108"/>
       <c r="D179" s="108" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E179" s="108" t="s">
         <v>20</v>
@@ -10482,25 +10482,23 @@
       <c r="F179" s="108"/>
       <c r="G179" s="108"/>
       <c r="H179" s="28"/>
-      <c r="I179" s="108"/>
-      <c r="J179" s="108" t="s">
-        <v>560</v>
-      </c>
-      <c r="K179" s="108"/>
-      <c r="L179" s="108"/>
-      <c r="M179" s="108"/>
-      <c r="N179" s="108"/>
-      <c r="O179" s="108"/>
+      <c r="I179" s="28"/>
+      <c r="J179" s="28"/>
+      <c r="K179" s="28"/>
+      <c r="L179" s="28"/>
+      <c r="M179" s="28"/>
+      <c r="N179" s="28"/>
+      <c r="O179" s="28"/>
       <c r="P179" s="115"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="108"/>
       <c r="B180" s="108" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C180" s="108"/>
       <c r="D180" s="108" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E180" s="108" t="s">
         <v>20</v>
@@ -10508,23 +10506,31 @@
       <c r="F180" s="108"/>
       <c r="G180" s="108"/>
       <c r="H180" s="28"/>
-      <c r="I180" s="28"/>
-      <c r="J180" s="28"/>
-      <c r="K180" s="28"/>
-      <c r="L180" s="28"/>
-      <c r="M180" s="28"/>
-      <c r="N180" s="28"/>
-      <c r="O180" s="28"/>
+      <c r="I180" s="108" t="s">
+        <v>569</v>
+      </c>
+      <c r="J180" s="108" t="s">
+        <v>570</v>
+      </c>
+      <c r="K180" s="108"/>
+      <c r="L180" s="108" t="s">
+        <v>570</v>
+      </c>
+      <c r="M180" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="N180" s="108"/>
+      <c r="O180" s="108"/>
       <c r="P180" s="115"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="108"/>
       <c r="B181" s="108" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C181" s="108"/>
       <c r="D181" s="108" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E181" s="108" t="s">
         <v>20</v>
@@ -10532,9 +10538,7 @@
       <c r="F181" s="108"/>
       <c r="G181" s="108"/>
       <c r="H181" s="28"/>
-      <c r="I181" s="108" t="s">
-        <v>570</v>
-      </c>
+      <c r="I181" s="108"/>
       <c r="J181" s="108" t="s">
         <v>571</v>
       </c>
@@ -10552,14 +10556,14 @@
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="108"/>
       <c r="B182" s="108" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C182" s="108"/>
       <c r="D182" s="108" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E182" s="108" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F182" s="108"/>
       <c r="G182" s="108"/>
@@ -10582,7 +10586,7 @@
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="108"/>
       <c r="B183" s="108" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C183" s="108"/>
       <c r="D183" s="108"/>
@@ -10608,7 +10612,7 @@
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="108"/>
       <c r="B184" s="108" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C184" s="83"/>
       <c r="D184" s="83"/>
@@ -10616,19 +10620,19 @@
       <c r="F184" s="108"/>
       <c r="G184" s="108"/>
       <c r="H184" s="28"/>
-      <c r="I184" s="108"/>
+      <c r="I184" s="83"/>
       <c r="J184" s="108" t="s">
         <v>574</v>
       </c>
-      <c r="K184" s="108"/>
+      <c r="K184" s="83"/>
       <c r="L184" s="108" t="s">
         <v>574</v>
       </c>
       <c r="M184" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="N184" s="108"/>
-      <c r="O184" s="108"/>
+      <c r="N184" s="83"/>
+      <c r="O184" s="83"/>
       <c r="P184" s="115"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
@@ -10656,7 +10660,7 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="108" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B186" s="108"/>
       <c r="C186" s="108"/>
@@ -10681,14 +10685,14 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="108" t="s">
+        <v>589</v>
+      </c>
+      <c r="B187" s="108" t="s">
         <v>590</v>
-      </c>
-      <c r="B187" s="108" t="s">
-        <v>591</v>
       </c>
       <c r="C187" s="108"/>
       <c r="D187" s="108" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E187" s="108"/>
       <c r="F187" s="108"/>
@@ -10711,11 +10715,11 @@
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="108"/>
       <c r="B188" s="108" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C188" s="108"/>
       <c r="D188" s="108" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E188" s="108"/>
       <c r="F188" s="108"/>
@@ -10738,11 +10742,11 @@
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="108"/>
       <c r="B189" s="108" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C189" s="108"/>
       <c r="D189" s="108" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E189" s="108" t="s">
         <v>32</v>
@@ -10750,28 +10754,28 @@
       <c r="F189" s="108"/>
       <c r="G189" s="108"/>
       <c r="H189" s="24"/>
-      <c r="I189" s="83"/>
+      <c r="I189" s="108"/>
       <c r="J189" s="108" t="s">
         <v>579</v>
       </c>
-      <c r="K189" s="83"/>
+      <c r="K189" s="108"/>
       <c r="L189" s="108" t="s">
         <v>579</v>
       </c>
       <c r="M189" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="N189" s="83"/>
+      <c r="N189" s="108"/>
       <c r="O189" s="83"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="108"/>
       <c r="B190" s="108" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C190" s="108"/>
       <c r="D190" s="108" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E190" s="108" t="s">
         <v>20</v>
@@ -10779,28 +10783,22 @@
       <c r="F190" s="108"/>
       <c r="G190" s="108"/>
       <c r="H190" s="28"/>
-      <c r="I190" s="108"/>
-      <c r="J190" s="108" t="s">
-        <v>580</v>
-      </c>
-      <c r="K190" s="108"/>
-      <c r="L190" s="108" t="s">
-        <v>580</v>
-      </c>
-      <c r="M190" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="N190" s="108"/>
-      <c r="O190" s="83"/>
+      <c r="I190" s="28"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="28"/>
+      <c r="L190" s="28"/>
+      <c r="M190" s="28"/>
+      <c r="N190" s="28"/>
+      <c r="O190" s="24"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="108"/>
       <c r="B191" s="108" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C191" s="108"/>
       <c r="D191" s="108" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E191" s="108" t="s">
         <v>20</v>
@@ -10808,24 +10806,32 @@
       <c r="F191" s="108"/>
       <c r="G191" s="108"/>
       <c r="H191" s="28"/>
-      <c r="I191" s="28"/>
-      <c r="J191" s="28"/>
-      <c r="K191" s="28"/>
-      <c r="L191" s="28"/>
-      <c r="M191" s="28"/>
-      <c r="N191" s="28"/>
-      <c r="O191" s="24"/>
+      <c r="I191" s="108" t="s">
+        <v>580</v>
+      </c>
+      <c r="J191" s="108" t="s">
+        <v>582</v>
+      </c>
+      <c r="K191" s="108"/>
+      <c r="L191" s="108" t="s">
+        <v>582</v>
+      </c>
+      <c r="M191" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="N191" s="108"/>
+      <c r="O191" s="108"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="108" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B192" s="108" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C192" s="108"/>
       <c r="D192" s="108" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E192" s="108" t="s">
         <v>20</v>
@@ -10837,14 +10843,12 @@
         <v>581</v>
       </c>
       <c r="J192" s="108" t="s">
-        <v>583</v>
+        <v>270</v>
       </c>
       <c r="K192" s="108"/>
-      <c r="L192" s="108" t="s">
-        <v>583</v>
-      </c>
+      <c r="L192" s="108"/>
       <c r="M192" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N192" s="108"/>
       <c r="O192" s="108"/>
@@ -10852,7 +10856,7 @@
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="108"/>
       <c r="B193" s="108" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C193" s="108"/>
       <c r="D193" s="108"/>
@@ -10860,16 +10864,16 @@
       <c r="F193" s="108"/>
       <c r="G193" s="108"/>
       <c r="H193" s="28"/>
-      <c r="I193" s="108" t="s">
-        <v>582</v>
-      </c>
+      <c r="I193" s="108"/>
       <c r="J193" s="108" t="s">
-        <v>270</v>
+        <v>583</v>
       </c>
       <c r="K193" s="108"/>
-      <c r="L193" s="108"/>
+      <c r="L193" s="108" t="s">
+        <v>583</v>
+      </c>
       <c r="M193" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N193" s="108"/>
       <c r="O193" s="108"/>
@@ -10877,7 +10881,7 @@
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="108"/>
       <c r="B194" s="108" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C194" s="108"/>
       <c r="D194" s="108"/>
@@ -10894,7 +10898,7 @@
         <v>584</v>
       </c>
       <c r="M194" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N194" s="108"/>
       <c r="O194" s="108"/>
@@ -10908,32 +10912,26 @@
       <c r="F195" s="28"/>
       <c r="G195" s="28"/>
       <c r="H195" s="28"/>
-      <c r="I195" s="108"/>
-      <c r="J195" s="108" t="s">
-        <v>585</v>
-      </c>
-      <c r="K195" s="108"/>
-      <c r="L195" s="108" t="s">
-        <v>585</v>
-      </c>
-      <c r="M195" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="N195" s="108"/>
-      <c r="O195" s="108"/>
+      <c r="I195" s="28"/>
+      <c r="J195" s="28"/>
+      <c r="K195" s="28"/>
+      <c r="L195" s="28"/>
+      <c r="M195" s="28"/>
+      <c r="N195" s="28"/>
+      <c r="O195" s="24"/>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="108" t="s">
         <v>288</v>
       </c>
       <c r="B196" s="108" t="s">
+        <v>611</v>
+      </c>
+      <c r="C196" s="108" t="s">
         <v>612</v>
       </c>
-      <c r="C196" s="108" t="s">
-        <v>613</v>
-      </c>
       <c r="D196" s="108" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E196" s="108" t="s">
         <v>32</v>
@@ -10945,13 +10943,21 @@
         <v>4364</v>
       </c>
       <c r="H196" s="28"/>
-      <c r="I196" s="28"/>
-      <c r="J196" s="28"/>
-      <c r="K196" s="28"/>
-      <c r="L196" s="28"/>
-      <c r="M196" s="28"/>
-      <c r="N196" s="28"/>
-      <c r="O196" s="24"/>
+      <c r="I196" s="108" t="s">
+        <v>585</v>
+      </c>
+      <c r="J196" s="108" t="s">
+        <v>586</v>
+      </c>
+      <c r="K196" s="108"/>
+      <c r="L196" s="108" t="s">
+        <v>586</v>
+      </c>
+      <c r="M196" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="N196" s="108"/>
+      <c r="O196" s="83"/>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="28"/>
@@ -10962,15 +10968,13 @@
       <c r="F197" s="28"/>
       <c r="G197" s="28"/>
       <c r="H197" s="28"/>
-      <c r="I197" s="108" t="s">
-        <v>586</v>
-      </c>
+      <c r="I197" s="108"/>
       <c r="J197" s="108" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="K197" s="108"/>
       <c r="L197" s="108" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M197" s="108" t="s">
         <v>32</v>
@@ -10980,30 +10984,30 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="108" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B198" s="108" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C198" s="108"/>
       <c r="D198" s="108" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E198" s="108" t="s">
         <v>32</v>
       </c>
       <c r="F198" s="108"/>
       <c r="G198" s="108" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H198" s="28"/>
       <c r="I198" s="108"/>
       <c r="J198" s="108" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="K198" s="108"/>
       <c r="L198" s="108" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="M198" s="108" t="s">
         <v>32</v>
@@ -11013,45 +11017,39 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="108" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B199" s="108" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C199" s="108"/>
       <c r="D199" s="108" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E199" s="108" t="s">
         <v>20</v>
       </c>
       <c r="F199" s="108"/>
       <c r="G199" s="108" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H199" s="28"/>
-      <c r="I199" s="108"/>
-      <c r="J199" s="108" t="s">
-        <v>588</v>
-      </c>
-      <c r="K199" s="108"/>
-      <c r="L199" s="108" t="s">
-        <v>588</v>
-      </c>
-      <c r="M199" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="N199" s="108"/>
-      <c r="O199" s="83"/>
+      <c r="I199" s="28"/>
+      <c r="J199" s="28"/>
+      <c r="K199" s="28"/>
+      <c r="L199" s="28"/>
+      <c r="M199" s="28"/>
+      <c r="N199" s="28"/>
+      <c r="O199" s="24"/>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="108"/>
       <c r="B200" s="108" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C200" s="108"/>
       <c r="D200" s="108" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E200" s="108" t="s">
         <v>20</v>
@@ -11061,22 +11059,24 @@
         <v>4112</v>
       </c>
       <c r="H200" s="28"/>
-      <c r="I200" s="28"/>
-      <c r="J200" s="28"/>
-      <c r="K200" s="28"/>
-      <c r="L200" s="28"/>
-      <c r="M200" s="28"/>
-      <c r="N200" s="28"/>
-      <c r="O200" s="24"/>
+      <c r="I200" s="108" t="s">
+        <v>627</v>
+      </c>
+      <c r="J200" s="108"/>
+      <c r="K200" s="108"/>
+      <c r="L200" s="108"/>
+      <c r="M200" s="108"/>
+      <c r="N200" s="108"/>
+      <c r="O200" s="83"/>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="108"/>
       <c r="B201" s="108" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C201" s="108"/>
       <c r="D201" s="108" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E201" s="108" t="s">
         <v>20</v>
@@ -11087,17 +11087,23 @@
       <c r="I201" s="108" t="s">
         <v>628</v>
       </c>
-      <c r="J201" s="108"/>
+      <c r="J201" s="108" t="s">
+        <v>629</v>
+      </c>
       <c r="K201" s="108"/>
-      <c r="L201" s="108"/>
-      <c r="M201" s="108"/>
+      <c r="L201" s="108" t="s">
+        <v>629</v>
+      </c>
+      <c r="M201" s="108" t="s">
+        <v>20</v>
+      </c>
       <c r="N201" s="108"/>
       <c r="O201" s="83"/>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="108"/>
       <c r="B202" s="108" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C202" s="108"/>
       <c r="D202" s="108"/>
@@ -11105,18 +11111,16 @@
       <c r="F202" s="108"/>
       <c r="G202" s="108"/>
       <c r="H202" s="28"/>
-      <c r="I202" s="108" t="s">
-        <v>629</v>
-      </c>
+      <c r="I202" s="108"/>
       <c r="J202" s="108" t="s">
-        <v>630</v>
+        <v>536</v>
       </c>
       <c r="K202" s="108"/>
       <c r="L202" s="108" t="s">
-        <v>630</v>
+        <v>536</v>
       </c>
       <c r="M202" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N202" s="108"/>
       <c r="O202" s="83"/>
@@ -11124,7 +11128,7 @@
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="108"/>
       <c r="B203" s="108" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C203" s="108"/>
       <c r="D203" s="108"/>
@@ -11134,11 +11138,11 @@
       <c r="H203" s="28"/>
       <c r="I203" s="108"/>
       <c r="J203" s="108" t="s">
-        <v>537</v>
+        <v>630</v>
       </c>
       <c r="K203" s="108"/>
       <c r="L203" s="108" t="s">
-        <v>537</v>
+        <v>630</v>
       </c>
       <c r="M203" s="108" t="s">
         <v>32</v>
@@ -11149,7 +11153,7 @@
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="108"/>
       <c r="B204" s="108" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C204" s="108"/>
       <c r="D204" s="108"/>
@@ -11159,24 +11163,18 @@
       <c r="F204" s="108"/>
       <c r="G204" s="108"/>
       <c r="H204" s="28"/>
-      <c r="I204" s="108"/>
-      <c r="J204" s="108" t="s">
-        <v>631</v>
-      </c>
-      <c r="K204" s="108"/>
-      <c r="L204" s="108" t="s">
-        <v>631</v>
-      </c>
-      <c r="M204" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="N204" s="108"/>
-      <c r="O204" s="83"/>
+      <c r="I204" s="28"/>
+      <c r="J204" s="28"/>
+      <c r="K204" s="28"/>
+      <c r="L204" s="28"/>
+      <c r="M204" s="28"/>
+      <c r="N204" s="28"/>
+      <c r="O204" s="24"/>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="108"/>
       <c r="B205" s="108" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C205" s="108"/>
       <c r="D205" s="108"/>
@@ -11186,13 +11184,15 @@
       <c r="F205" s="108"/>
       <c r="G205" s="108"/>
       <c r="H205" s="28"/>
-      <c r="I205" s="28"/>
-      <c r="J205" s="28"/>
-      <c r="K205" s="28"/>
-      <c r="L205" s="28"/>
-      <c r="M205" s="28"/>
-      <c r="N205" s="28"/>
-      <c r="O205" s="24"/>
+      <c r="I205" s="108" t="s">
+        <v>652</v>
+      </c>
+      <c r="J205" s="108"/>
+      <c r="K205" s="108"/>
+      <c r="L205" s="108"/>
+      <c r="M205" s="108"/>
+      <c r="N205" s="108"/>
+      <c r="O205" s="83"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="28"/>
@@ -11204,25 +11204,31 @@
       <c r="G206" s="28"/>
       <c r="H206" s="28"/>
       <c r="I206" s="108" t="s">
-        <v>653</v>
-      </c>
-      <c r="J206" s="108"/>
+        <v>631</v>
+      </c>
+      <c r="J206" s="108" t="s">
+        <v>632</v>
+      </c>
       <c r="K206" s="108"/>
-      <c r="L206" s="108"/>
-      <c r="M206" s="108"/>
+      <c r="L206" s="108">
+        <v>2718</v>
+      </c>
+      <c r="M206" s="108" t="s">
+        <v>32</v>
+      </c>
       <c r="N206" s="108"/>
       <c r="O206" s="83"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="108" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B207" s="108" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C207" s="108"/>
       <c r="D207" s="108" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E207" s="108" t="s">
         <v>20</v>
@@ -11230,18 +11236,16 @@
       <c r="F207" s="108"/>
       <c r="G207" s="108"/>
       <c r="H207" s="28"/>
-      <c r="I207" s="108" t="s">
-        <v>632</v>
-      </c>
+      <c r="I207" s="108"/>
       <c r="J207" s="108" t="s">
         <v>633</v>
       </c>
       <c r="K207" s="108"/>
-      <c r="L207" s="108">
-        <v>2718</v>
+      <c r="L207" s="108" t="s">
+        <v>633</v>
       </c>
       <c r="M207" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N207" s="108"/>
       <c r="O207" s="83"/>
@@ -11249,11 +11253,11 @@
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="108"/>
       <c r="B208" s="108" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C208" s="108"/>
       <c r="D208" s="108" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E208" s="108" t="s">
         <v>20</v>
@@ -11267,7 +11271,7 @@
       </c>
       <c r="K208" s="108"/>
       <c r="L208" s="108" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="M208" s="108" t="s">
         <v>20</v>
@@ -11300,7 +11304,7 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="108" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B210" s="108"/>
       <c r="C210" s="108"/>
@@ -11325,14 +11329,14 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="108" t="s">
+        <v>664</v>
+      </c>
+      <c r="B211" s="108" t="s">
         <v>665</v>
-      </c>
-      <c r="B211" s="108" t="s">
-        <v>666</v>
       </c>
       <c r="C211" s="108"/>
       <c r="D211" s="108" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E211" s="108" t="s">
         <v>32</v>
@@ -11349,7 +11353,7 @@
         <v>650</v>
       </c>
       <c r="M211" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N211" s="108"/>
       <c r="O211" s="83"/>
@@ -11357,11 +11361,11 @@
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="108"/>
       <c r="B212" s="108" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C212" s="108"/>
       <c r="D212" s="108" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E212" s="108" t="s">
         <v>20</v>
@@ -11386,11 +11390,11 @@
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="108"/>
       <c r="B213" s="108" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C213" s="108"/>
       <c r="D213" s="108" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E213" s="108" t="s">
         <v>32</v>
@@ -11404,7 +11408,7 @@
       </c>
       <c r="K213" s="108"/>
       <c r="L213" s="108" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="M213" s="108" t="s">
         <v>32</v>
@@ -11415,11 +11419,11 @@
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="108"/>
       <c r="B214" s="108" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C214" s="108"/>
       <c r="D214" s="108" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E214" s="108" t="s">
         <v>32</v>
@@ -11444,18 +11448,18 @@
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="108"/>
       <c r="B215" s="108" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C215" s="108"/>
       <c r="D215" s="108" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E215" s="108" t="s">
         <v>32</v>
       </c>
       <c r="F215" s="108"/>
       <c r="G215" s="108" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H215" s="28"/>
       <c r="I215" s="108"/>
@@ -11463,23 +11467,19 @@
         <v>641</v>
       </c>
       <c r="K215" s="108"/>
-      <c r="L215" s="108" t="s">
-        <v>641</v>
-      </c>
-      <c r="M215" s="108" t="s">
-        <v>32</v>
-      </c>
+      <c r="L215" s="108"/>
+      <c r="M215" s="108"/>
       <c r="N215" s="108"/>
       <c r="O215" s="83"/>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="108"/>
       <c r="B216" s="108" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C216" s="108"/>
       <c r="D216" s="108" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E216" s="108" t="s">
         <v>20</v>
@@ -11497,12 +11497,12 @@
       <c r="L216" s="108"/>
       <c r="M216" s="108"/>
       <c r="N216" s="108"/>
-      <c r="O216" s="83"/>
+      <c r="O216" s="108"/>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="108"/>
       <c r="B217" s="108" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C217" s="108"/>
       <c r="D217" s="108"/>
@@ -11523,7 +11523,7 @@
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="108"/>
       <c r="B218" s="108" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C218" s="108"/>
       <c r="D218" s="108"/>
@@ -11544,11 +11544,11 @@
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="108"/>
       <c r="B219" s="108" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C219" s="108"/>
       <c r="D219" s="108" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E219" s="108" t="s">
         <v>20</v>
@@ -11569,11 +11569,11 @@
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="108"/>
       <c r="B220" s="108" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C220" s="108"/>
       <c r="D220" s="108" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E220" s="108" t="s">
         <v>20</v>
@@ -11594,7 +11594,7 @@
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="108"/>
       <c r="B221" s="108" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C221" s="108"/>
       <c r="D221" s="108"/>
@@ -11602,24 +11602,22 @@
       <c r="F221" s="108"/>
       <c r="G221" s="108"/>
       <c r="H221" s="28"/>
-      <c r="I221" s="108"/>
-      <c r="J221" s="108" t="s">
-        <v>647</v>
-      </c>
-      <c r="K221" s="108"/>
-      <c r="L221" s="108"/>
-      <c r="M221" s="108"/>
-      <c r="N221" s="108"/>
-      <c r="O221" s="108"/>
+      <c r="I221" s="28"/>
+      <c r="J221" s="28"/>
+      <c r="K221" s="28"/>
+      <c r="L221" s="28"/>
+      <c r="M221" s="28"/>
+      <c r="N221" s="28"/>
+      <c r="O221" s="28"/>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="108"/>
       <c r="B222" s="108" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C222" s="108"/>
       <c r="D222" s="108" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E222" s="108" t="s">
         <v>32</v>
@@ -11627,22 +11625,32 @@
       <c r="F222" s="108"/>
       <c r="G222" s="108"/>
       <c r="H222" s="28"/>
-      <c r="I222" s="28"/>
-      <c r="J222" s="28"/>
-      <c r="K222" s="28"/>
-      <c r="L222" s="28"/>
-      <c r="M222" s="28"/>
-      <c r="N222" s="28"/>
-      <c r="O222" s="28"/>
+      <c r="I222" s="108" t="s">
+        <v>653</v>
+      </c>
+      <c r="J222" s="108" t="s">
+        <v>654</v>
+      </c>
+      <c r="K222" s="108"/>
+      <c r="L222" s="108" t="s">
+        <v>654</v>
+      </c>
+      <c r="M222" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N222" s="108"/>
+      <c r="O222" s="108">
+        <v>4273</v>
+      </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="108"/>
       <c r="B223" s="108" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C223" s="108"/>
       <c r="D223" s="108" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E223" s="108" t="s">
         <v>32</v>
@@ -11650,28 +11658,24 @@
       <c r="F223" s="108"/>
       <c r="G223" s="108"/>
       <c r="H223" s="28"/>
-      <c r="I223" s="108" t="s">
-        <v>654</v>
-      </c>
+      <c r="I223" s="108"/>
       <c r="J223" s="108" t="s">
-        <v>655</v>
+        <v>1120</v>
       </c>
       <c r="K223" s="108"/>
       <c r="L223" s="108" t="s">
-        <v>655</v>
+        <v>1120</v>
       </c>
       <c r="M223" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N223" s="108"/>
-      <c r="O223" s="108">
-        <v>4273</v>
-      </c>
+      <c r="O223" s="108"/>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="108"/>
       <c r="B224" s="108" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C224" s="108"/>
       <c r="D224" s="108"/>
@@ -11681,11 +11685,11 @@
       <c r="H224" s="28"/>
       <c r="I224" s="108"/>
       <c r="J224" s="108" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="K224" s="108"/>
       <c r="L224" s="108" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="M224" s="108" t="s">
         <v>32</v>
@@ -11696,7 +11700,7 @@
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="108"/>
       <c r="B225" s="108" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C225" s="108"/>
       <c r="D225" s="108"/>
@@ -11704,19 +11708,13 @@
       <c r="F225" s="108"/>
       <c r="G225" s="108"/>
       <c r="H225" s="28"/>
-      <c r="I225" s="108"/>
-      <c r="J225" s="108" t="s">
-        <v>656</v>
-      </c>
-      <c r="K225" s="108"/>
-      <c r="L225" s="108" t="s">
-        <v>656</v>
-      </c>
-      <c r="M225" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="N225" s="108"/>
-      <c r="O225" s="108"/>
+      <c r="I225" s="28"/>
+      <c r="J225" s="28"/>
+      <c r="K225" s="28"/>
+      <c r="L225" s="28"/>
+      <c r="M225" s="28"/>
+      <c r="N225" s="28"/>
+      <c r="O225" s="28"/>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="28"/>
@@ -11727,17 +11725,19 @@
       <c r="F226" s="28"/>
       <c r="G226" s="28"/>
       <c r="H226" s="28"/>
-      <c r="I226" s="28"/>
-      <c r="J226" s="28"/>
-      <c r="K226" s="28"/>
-      <c r="L226" s="28"/>
-      <c r="M226" s="28"/>
-      <c r="N226" s="28"/>
-      <c r="O226" s="28"/>
+      <c r="I226" s="108" t="s">
+        <v>656</v>
+      </c>
+      <c r="J226" s="108"/>
+      <c r="K226" s="108"/>
+      <c r="L226" s="108"/>
+      <c r="M226" s="108"/>
+      <c r="N226" s="108"/>
+      <c r="O226" s="108"/>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="108" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B227" s="108"/>
       <c r="C227" s="108"/>
@@ -11749,23 +11749,31 @@
       <c r="I227" s="108" t="s">
         <v>657</v>
       </c>
-      <c r="J227" s="108"/>
+      <c r="J227" s="108" t="s">
+        <v>659</v>
+      </c>
       <c r="K227" s="108"/>
-      <c r="L227" s="108"/>
-      <c r="M227" s="108"/>
+      <c r="L227" s="108" t="s">
+        <v>659</v>
+      </c>
+      <c r="M227" s="108" t="s">
+        <v>32</v>
+      </c>
       <c r="N227" s="108"/>
-      <c r="O227" s="108"/>
+      <c r="O227" s="108">
+        <v>4821</v>
+      </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="108" t="s">
+        <v>692</v>
+      </c>
+      <c r="B228" s="108" t="s">
         <v>693</v>
-      </c>
-      <c r="B228" s="108" t="s">
-        <v>694</v>
       </c>
       <c r="C228" s="108"/>
       <c r="D228" s="108" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E228" s="108" t="s">
         <v>20</v>
@@ -11787,18 +11795,16 @@
         <v>32</v>
       </c>
       <c r="N228" s="108"/>
-      <c r="O228" s="108">
-        <v>4821</v>
-      </c>
+      <c r="O228" s="108"/>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="108"/>
       <c r="B229" s="108" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C229" s="108"/>
       <c r="D229" s="108" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E229" s="108" t="s">
         <v>32</v>
@@ -11806,18 +11812,14 @@
       <c r="F229" s="108"/>
       <c r="G229" s="108"/>
       <c r="H229" s="28"/>
-      <c r="I229" s="108" t="s">
-        <v>659</v>
-      </c>
+      <c r="I229" s="108"/>
       <c r="J229" s="108" t="s">
-        <v>661</v>
+        <v>270</v>
       </c>
       <c r="K229" s="108"/>
-      <c r="L229" s="108" t="s">
-        <v>661</v>
-      </c>
+      <c r="L229" s="108"/>
       <c r="M229" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N229" s="108"/>
       <c r="O229" s="108"/>
@@ -11825,11 +11827,11 @@
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="108"/>
       <c r="B230" s="108" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C230" s="108"/>
       <c r="D230" s="108" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E230" s="108" t="s">
         <v>20</v>
@@ -11839,24 +11841,22 @@
       <c r="H230" s="28"/>
       <c r="I230" s="108"/>
       <c r="J230" s="108" t="s">
-        <v>270</v>
+        <v>661</v>
       </c>
       <c r="K230" s="108"/>
       <c r="L230" s="108"/>
-      <c r="M230" s="108" t="s">
-        <v>20</v>
-      </c>
+      <c r="M230" s="108"/>
       <c r="N230" s="108"/>
       <c r="O230" s="108"/>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="108"/>
       <c r="B231" s="108" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C231" s="108"/>
       <c r="D231" s="108" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E231" s="108" t="s">
         <v>20</v>
@@ -11877,11 +11877,11 @@
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="108"/>
       <c r="B232" s="108" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C232" s="108"/>
       <c r="D232" s="108" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E232" s="108" t="s">
         <v>20</v>
@@ -11889,24 +11889,22 @@
       <c r="F232" s="108"/>
       <c r="G232" s="108"/>
       <c r="H232" s="28"/>
-      <c r="I232" s="108"/>
-      <c r="J232" s="108" t="s">
-        <v>663</v>
-      </c>
-      <c r="K232" s="108"/>
-      <c r="L232" s="108"/>
-      <c r="M232" s="108"/>
-      <c r="N232" s="108"/>
-      <c r="O232" s="108"/>
+      <c r="I232" s="28"/>
+      <c r="J232" s="28"/>
+      <c r="K232" s="28"/>
+      <c r="L232" s="28"/>
+      <c r="M232" s="28"/>
+      <c r="N232" s="28"/>
+      <c r="O232" s="28"/>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="108"/>
       <c r="B233" s="108" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C233" s="108"/>
       <c r="D233" s="108" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E233" s="108" t="s">
         <v>20</v>
@@ -11914,22 +11912,24 @@
       <c r="F233" s="108"/>
       <c r="G233" s="108"/>
       <c r="H233" s="28"/>
-      <c r="I233" s="28"/>
-      <c r="J233" s="28"/>
-      <c r="K233" s="28"/>
-      <c r="L233" s="28"/>
-      <c r="M233" s="28"/>
-      <c r="N233" s="28"/>
-      <c r="O233" s="28"/>
+      <c r="I233" s="108" t="s">
+        <v>681</v>
+      </c>
+      <c r="J233" s="108"/>
+      <c r="K233" s="108"/>
+      <c r="L233" s="108"/>
+      <c r="M233" s="108"/>
+      <c r="N233" s="108"/>
+      <c r="O233" s="108"/>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="108"/>
       <c r="B234" s="108" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C234" s="108"/>
       <c r="D234" s="108" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E234" s="108" t="s">
         <v>20</v>
@@ -11938,19 +11938,27 @@
       <c r="G234" s="108"/>
       <c r="H234" s="28"/>
       <c r="I234" s="108" t="s">
+        <v>571</v>
+      </c>
+      <c r="J234" s="108" t="s">
         <v>682</v>
       </c>
-      <c r="J234" s="108"/>
       <c r="K234" s="108"/>
-      <c r="L234" s="108"/>
-      <c r="M234" s="108"/>
+      <c r="L234" s="108">
+        <v>2998</v>
+      </c>
+      <c r="M234" s="108" t="s">
+        <v>20</v>
+      </c>
       <c r="N234" s="108"/>
-      <c r="O234" s="108"/>
+      <c r="O234" s="108">
+        <v>4438</v>
+      </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="108"/>
       <c r="B235" s="108" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C235" s="108"/>
       <c r="D235" s="108"/>
@@ -11958,28 +11966,26 @@
       <c r="F235" s="108"/>
       <c r="G235" s="108"/>
       <c r="H235" s="28"/>
-      <c r="I235" s="108" t="s">
-        <v>572</v>
-      </c>
+      <c r="I235" s="108"/>
       <c r="J235" s="108" t="s">
         <v>683</v>
       </c>
       <c r="K235" s="108"/>
-      <c r="L235" s="108">
-        <v>2998</v>
+      <c r="L235" s="108" t="s">
+        <v>683</v>
       </c>
       <c r="M235" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N235" s="108"/>
       <c r="O235" s="108">
-        <v>4438</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="108"/>
       <c r="B236" s="108" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C236" s="108"/>
       <c r="D236" s="108"/>
@@ -11996,12 +12002,10 @@
         <v>684</v>
       </c>
       <c r="M236" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N236" s="108"/>
-      <c r="O236" s="108">
-        <v>4505</v>
-      </c>
+      <c r="O236" s="108"/>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B237" s="28"/>
@@ -12020,14 +12024,14 @@
         <v>685</v>
       </c>
       <c r="M237" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N237" s="108"/>
       <c r="O237" s="108"/>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="108" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B238" s="108"/>
       <c r="C238" s="108"/>
@@ -12045,21 +12049,21 @@
         <v>686</v>
       </c>
       <c r="M238" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N238" s="108"/>
       <c r="O238" s="108"/>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="108" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B239" s="108" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C239" s="108"/>
       <c r="D239" s="108" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E239" s="108" t="s">
         <v>20</v>
@@ -12069,30 +12073,24 @@
         <v>4301</v>
       </c>
       <c r="H239" s="28"/>
-      <c r="I239" s="108"/>
-      <c r="J239" s="108" t="s">
-        <v>687</v>
-      </c>
-      <c r="K239" s="108"/>
-      <c r="L239" s="108" t="s">
-        <v>687</v>
-      </c>
-      <c r="M239" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="N239" s="108"/>
-      <c r="O239" s="108"/>
+      <c r="I239" s="28"/>
+      <c r="J239" s="28"/>
+      <c r="K239" s="28"/>
+      <c r="L239" s="28"/>
+      <c r="M239" s="28"/>
+      <c r="N239" s="28"/>
+      <c r="O239" s="28"/>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="108" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B240" s="108" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C240" s="108"/>
       <c r="D240" s="108" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E240" s="108" t="s">
         <v>32</v>
@@ -12100,18 +12098,26 @@
       <c r="F240" s="108"/>
       <c r="G240" s="108"/>
       <c r="H240" s="28"/>
-      <c r="I240" s="28"/>
-      <c r="J240" s="28"/>
-      <c r="K240" s="28"/>
-      <c r="L240" s="28"/>
-      <c r="M240" s="28"/>
-      <c r="N240" s="28"/>
-      <c r="O240" s="28"/>
+      <c r="I240" s="108" t="s">
+        <v>687</v>
+      </c>
+      <c r="J240" s="108" t="s">
+        <v>689</v>
+      </c>
+      <c r="K240" s="108"/>
+      <c r="L240" s="108" t="s">
+        <v>689</v>
+      </c>
+      <c r="M240" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N240" s="108"/>
+      <c r="O240" s="108"/>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="108"/>
       <c r="B241" s="108" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C241" s="108"/>
       <c r="D241" s="108"/>
@@ -12132,7 +12138,7 @@
         <v>690</v>
       </c>
       <c r="M241" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N241" s="108"/>
       <c r="O241" s="108"/>
@@ -12140,7 +12146,7 @@
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="108"/>
       <c r="B242" s="108" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C242" s="108"/>
       <c r="D242" s="108"/>
@@ -12148,9 +12154,7 @@
       <c r="F242" s="108"/>
       <c r="G242" s="108"/>
       <c r="H242" s="28"/>
-      <c r="I242" s="108" t="s">
-        <v>689</v>
-      </c>
+      <c r="I242" s="108"/>
       <c r="J242" s="108" t="s">
         <v>691</v>
       </c>
@@ -12167,7 +12171,7 @@
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="108"/>
       <c r="B243" s="108" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C243" s="108"/>
       <c r="D243" s="108"/>
@@ -12177,15 +12181,11 @@
       <c r="H243" s="28"/>
       <c r="I243" s="108"/>
       <c r="J243" s="108" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="K243" s="108"/>
-      <c r="L243" s="108" t="s">
-        <v>692</v>
-      </c>
-      <c r="M243" s="108" t="s">
-        <v>32</v>
-      </c>
+      <c r="L243" s="108"/>
+      <c r="M243" s="108"/>
       <c r="N243" s="108"/>
       <c r="O243" s="108"/>
     </row>
@@ -12198,19 +12198,10 @@
       <c r="F244" s="28"/>
       <c r="G244" s="28"/>
       <c r="H244" s="28"/>
-      <c r="I244" s="108"/>
-      <c r="J244" s="108" t="s">
-        <v>689</v>
-      </c>
-      <c r="K244" s="108"/>
-      <c r="L244" s="108"/>
-      <c r="M244" s="108"/>
-      <c r="N244" s="108"/>
-      <c r="O244" s="108"/>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B245" s="108"/>
       <c r="C245" s="108"/>
@@ -12219,17 +12210,32 @@
       <c r="F245" s="108"/>
       <c r="G245" s="108"/>
       <c r="H245" s="28"/>
+      <c r="I245" s="108" t="s">
+        <v>695</v>
+      </c>
+      <c r="J245" s="108" t="s">
+        <v>697</v>
+      </c>
+      <c r="K245" s="108"/>
+      <c r="L245" s="108" t="s">
+        <v>697</v>
+      </c>
+      <c r="M245" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N245" s="108"/>
+      <c r="O245" s="108"/>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="108" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B246" s="108" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C246" s="108"/>
       <c r="D246" s="108" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E246" s="108" t="s">
         <v>32</v>
@@ -12248,21 +12254,23 @@
         <v>698</v>
       </c>
       <c r="M246" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N246" s="108"/>
-      <c r="O246" s="108"/>
+      <c r="O246" s="108">
+        <v>4276</v>
+      </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="108" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B247" s="108" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C247" s="108"/>
       <c r="D247" s="108" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E247" s="108" t="s">
         <v>20</v>
@@ -12270,32 +12278,28 @@
       <c r="F247" s="108"/>
       <c r="G247" s="108"/>
       <c r="H247" s="28"/>
-      <c r="I247" s="108" t="s">
-        <v>697</v>
-      </c>
+      <c r="I247" s="108"/>
       <c r="J247" s="108" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="K247" s="108"/>
       <c r="L247" s="108" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="M247" s="108" t="s">
         <v>32</v>
       </c>
       <c r="N247" s="108"/>
-      <c r="O247" s="108">
-        <v>4276</v>
-      </c>
+      <c r="O247" s="108"/>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="108"/>
       <c r="B248" s="108" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C248" s="108"/>
       <c r="D248" s="108" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E248" s="108" t="s">
         <v>32</v>
@@ -12312,7 +12316,7 @@
         <v>707</v>
       </c>
       <c r="M248" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N248" s="108"/>
       <c r="O248" s="108"/>
@@ -12320,11 +12324,11 @@
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="108"/>
       <c r="B249" s="108" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C249" s="108"/>
       <c r="D249" s="108" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E249" s="108" t="s">
         <v>20</v>
@@ -12332,28 +12336,22 @@
       <c r="F249" s="108"/>
       <c r="G249" s="108"/>
       <c r="H249" s="28"/>
-      <c r="I249" s="108"/>
-      <c r="J249" s="108" t="s">
-        <v>708</v>
-      </c>
-      <c r="K249" s="108"/>
-      <c r="L249" s="108" t="s">
-        <v>708</v>
-      </c>
-      <c r="M249" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="N249" s="108"/>
-      <c r="O249" s="108"/>
+      <c r="I249" s="28"/>
+      <c r="J249" s="28"/>
+      <c r="K249" s="28"/>
+      <c r="L249" s="28"/>
+      <c r="M249" s="28"/>
+      <c r="N249" s="28"/>
+      <c r="O249" s="28"/>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="108"/>
       <c r="B250" s="108" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C250" s="108"/>
       <c r="D250" s="108" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E250" s="108" t="s">
         <v>20</v>
@@ -12361,22 +12359,24 @@
       <c r="F250" s="108"/>
       <c r="G250" s="108"/>
       <c r="H250" s="28"/>
-      <c r="I250" s="28"/>
-      <c r="J250" s="28"/>
-      <c r="K250" s="28"/>
-      <c r="L250" s="28"/>
-      <c r="M250" s="28"/>
-      <c r="N250" s="28"/>
-      <c r="O250" s="28"/>
+      <c r="I250" s="108" t="s">
+        <v>708</v>
+      </c>
+      <c r="J250" s="108"/>
+      <c r="K250" s="108"/>
+      <c r="L250" s="108"/>
+      <c r="M250" s="108"/>
+      <c r="N250" s="108"/>
+      <c r="O250" s="108"/>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="108"/>
       <c r="B251" s="108" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C251" s="108"/>
       <c r="D251" s="108" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E251" s="108" t="s">
         <v>32</v>
@@ -12387,21 +12387,27 @@
       <c r="I251" s="108" t="s">
         <v>709</v>
       </c>
-      <c r="J251" s="108"/>
+      <c r="J251" s="108" t="s">
+        <v>710</v>
+      </c>
       <c r="K251" s="108"/>
-      <c r="L251" s="108"/>
-      <c r="M251" s="108"/>
+      <c r="L251" s="108">
+        <v>1</v>
+      </c>
+      <c r="M251" s="108" t="s">
+        <v>32</v>
+      </c>
       <c r="N251" s="108"/>
       <c r="O251" s="108"/>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="108"/>
       <c r="B252" s="108" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C252" s="108"/>
       <c r="D252" s="108" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E252" s="108" t="s">
         <v>20</v>
@@ -12409,18 +12415,16 @@
       <c r="F252" s="108"/>
       <c r="G252" s="108"/>
       <c r="H252" s="28"/>
-      <c r="I252" s="108" t="s">
-        <v>710</v>
-      </c>
+      <c r="I252" s="108"/>
       <c r="J252" s="108" t="s">
         <v>711</v>
       </c>
       <c r="K252" s="108"/>
       <c r="L252" s="108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M252" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N252" s="108"/>
       <c r="O252" s="108"/>
@@ -12428,11 +12432,11 @@
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="108"/>
       <c r="B253" s="108" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C253" s="108"/>
       <c r="D253" s="108" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E253" s="108" t="s">
         <v>32</v>
@@ -12446,22 +12450,24 @@
       </c>
       <c r="K253" s="108"/>
       <c r="L253" s="108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M253" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N253" s="108"/>
-      <c r="O253" s="108"/>
+      <c r="O253" s="108">
+        <v>4621</v>
+      </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="108"/>
       <c r="B254" s="108" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C254" s="108"/>
       <c r="D254" s="108" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E254" s="108" t="s">
         <v>20</v>
@@ -12475,24 +12481,22 @@
       </c>
       <c r="K254" s="108"/>
       <c r="L254" s="108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M254" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N254" s="108"/>
-      <c r="O254" s="108">
-        <v>4621</v>
-      </c>
+      <c r="O254" s="108"/>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="108"/>
       <c r="B255" s="108" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C255" s="108"/>
       <c r="D255" s="108" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E255" s="108" t="s">
         <v>32</v>
@@ -12506,10 +12510,10 @@
       </c>
       <c r="K255" s="108"/>
       <c r="L255" s="108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M255" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N255" s="108"/>
       <c r="O255" s="108"/>
@@ -12517,11 +12521,11 @@
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="108"/>
       <c r="B256" s="108" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C256" s="108"/>
       <c r="D256" s="108" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E256" s="108" t="s">
         <v>32</v>
@@ -12535,7 +12539,7 @@
       </c>
       <c r="K256" s="108"/>
       <c r="L256" s="108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M256" s="108" t="s">
         <v>32</v>
@@ -12546,11 +12550,11 @@
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="108"/>
       <c r="B257" s="108" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C257" s="108"/>
       <c r="D257" s="108" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E257" s="108" t="s">
         <v>20</v>
@@ -12558,28 +12562,22 @@
       <c r="F257" s="108"/>
       <c r="G257" s="108"/>
       <c r="H257" s="28"/>
-      <c r="I257" s="108"/>
-      <c r="J257" s="108" t="s">
-        <v>716</v>
-      </c>
-      <c r="K257" s="108"/>
-      <c r="L257" s="108">
-        <v>6</v>
-      </c>
-      <c r="M257" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="N257" s="108"/>
-      <c r="O257" s="108"/>
+      <c r="I257" s="28"/>
+      <c r="J257" s="28"/>
+      <c r="K257" s="28"/>
+      <c r="L257" s="28"/>
+      <c r="M257" s="28"/>
+      <c r="N257" s="28"/>
+      <c r="O257" s="28"/>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="108"/>
       <c r="B258" s="108" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C258" s="108"/>
       <c r="D258" s="108" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E258" s="108" t="s">
         <v>32</v>
@@ -12587,22 +12585,30 @@
       <c r="F258" s="108"/>
       <c r="G258" s="108"/>
       <c r="H258" s="28"/>
-      <c r="I258" s="28"/>
-      <c r="J258" s="28"/>
-      <c r="K258" s="28"/>
-      <c r="L258" s="28"/>
-      <c r="M258" s="28"/>
-      <c r="N258" s="28"/>
-      <c r="O258" s="28"/>
+      <c r="I258" s="108" t="s">
+        <v>496</v>
+      </c>
+      <c r="J258" s="108" t="s">
+        <v>172</v>
+      </c>
+      <c r="K258" s="108"/>
+      <c r="L258" s="108" t="s">
+        <v>172</v>
+      </c>
+      <c r="M258" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N258" s="108"/>
+      <c r="O258" s="108"/>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="108"/>
       <c r="B259" s="108" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C259" s="108"/>
       <c r="D259" s="108" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E259" s="108" t="s">
         <v>20</v>
@@ -12610,26 +12616,26 @@
       <c r="F259" s="108"/>
       <c r="G259" s="108"/>
       <c r="H259" s="28"/>
-      <c r="I259" s="108" t="s">
-        <v>497</v>
-      </c>
+      <c r="I259" s="108"/>
       <c r="J259" s="108" t="s">
-        <v>172</v>
+        <v>724</v>
       </c>
       <c r="K259" s="108"/>
       <c r="L259" s="108" t="s">
-        <v>172</v>
+        <v>724</v>
       </c>
       <c r="M259" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N259" s="108"/>
-      <c r="O259" s="108"/>
+      <c r="O259" s="108">
+        <v>4780</v>
+      </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="108"/>
       <c r="B260" s="108" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C260" s="108"/>
       <c r="D260" s="108"/>
@@ -12649,14 +12655,12 @@
         <v>32</v>
       </c>
       <c r="N260" s="108"/>
-      <c r="O260" s="108">
-        <v>4780</v>
-      </c>
+      <c r="O260" s="108"/>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="108"/>
       <c r="B261" s="108" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C261" s="108"/>
       <c r="D261" s="108"/>
@@ -12664,19 +12668,13 @@
       <c r="F261" s="108"/>
       <c r="G261" s="108"/>
       <c r="H261" s="28"/>
-      <c r="I261" s="108"/>
-      <c r="J261" s="108" t="s">
-        <v>726</v>
-      </c>
-      <c r="K261" s="108"/>
-      <c r="L261" s="108" t="s">
-        <v>726</v>
-      </c>
-      <c r="M261" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="N261" s="108"/>
-      <c r="O261" s="108"/>
+      <c r="I261" s="28"/>
+      <c r="J261" s="28"/>
+      <c r="K261" s="28"/>
+      <c r="L261" s="28"/>
+      <c r="M261" s="28"/>
+      <c r="N261" s="28"/>
+      <c r="O261" s="28"/>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="28"/>
@@ -12687,24 +12685,26 @@
       <c r="F262" s="28"/>
       <c r="G262" s="28"/>
       <c r="H262" s="28"/>
-      <c r="I262" s="28"/>
-      <c r="J262" s="28"/>
-      <c r="K262" s="28"/>
-      <c r="L262" s="28"/>
-      <c r="M262" s="28"/>
-      <c r="N262" s="28"/>
-      <c r="O262" s="28"/>
+      <c r="I262" s="108" t="s">
+        <v>745</v>
+      </c>
+      <c r="J262" s="108"/>
+      <c r="K262" s="108"/>
+      <c r="L262" s="108"/>
+      <c r="M262" s="108"/>
+      <c r="N262" s="108"/>
+      <c r="O262" s="108"/>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="108" t="s">
+        <v>764</v>
+      </c>
+      <c r="B263" s="108" t="s">
         <v>765</v>
-      </c>
-      <c r="B263" s="108" t="s">
-        <v>766</v>
       </c>
       <c r="C263" s="108"/>
       <c r="D263" s="108" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E263" s="108" t="s">
         <v>20</v>
@@ -12715,21 +12715,29 @@
       <c r="I263" s="108" t="s">
         <v>746</v>
       </c>
-      <c r="J263" s="108"/>
+      <c r="J263" s="108" t="s">
+        <v>747</v>
+      </c>
       <c r="K263" s="108"/>
-      <c r="L263" s="108"/>
-      <c r="M263" s="108"/>
+      <c r="L263" s="108">
+        <v>1918</v>
+      </c>
+      <c r="M263" s="108" t="s">
+        <v>32</v>
+      </c>
       <c r="N263" s="108"/>
-      <c r="O263" s="108"/>
+      <c r="O263" s="108">
+        <v>4461</v>
+      </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="108"/>
       <c r="B264" s="108" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C264" s="108"/>
       <c r="D264" s="108" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E264" s="108" t="s">
         <v>32</v>
@@ -12737,32 +12745,30 @@
       <c r="F264" s="108"/>
       <c r="G264" s="108"/>
       <c r="H264" s="28"/>
-      <c r="I264" s="108" t="s">
-        <v>747</v>
-      </c>
+      <c r="I264" s="108"/>
       <c r="J264" s="108" t="s">
         <v>748</v>
       </c>
       <c r="K264" s="108"/>
-      <c r="L264" s="108">
-        <v>1918</v>
+      <c r="L264" s="108" t="s">
+        <v>748</v>
       </c>
       <c r="M264" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N264" s="108"/>
       <c r="O264" s="108">
-        <v>4461</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="108"/>
       <c r="B265" s="108" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C265" s="108"/>
       <c r="D265" s="108" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E265" s="108" t="s">
         <v>32</v>
@@ -12779,21 +12785,19 @@
         <v>749</v>
       </c>
       <c r="M265" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N265" s="108"/>
-      <c r="O265" s="108">
-        <v>4398</v>
-      </c>
+      <c r="O265" s="108"/>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="108"/>
       <c r="B266" s="108" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C266" s="108"/>
       <c r="D266" s="108" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E266" s="108" t="s">
         <v>32</v>
@@ -12818,11 +12822,11 @@
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="108"/>
       <c r="B267" s="108" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C267" s="108"/>
       <c r="D267" s="108" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E267" s="108" t="s">
         <v>32</v>
@@ -12847,11 +12851,11 @@
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="108"/>
       <c r="B268" s="108" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C268" s="108"/>
       <c r="D268" s="108" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E268" s="108" t="s">
         <v>32</v>
@@ -12868,7 +12872,7 @@
         <v>752</v>
       </c>
       <c r="M268" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N268" s="108"/>
       <c r="O268" s="108"/>
@@ -12891,17 +12895,17 @@
         <v>753</v>
       </c>
       <c r="M269" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N269" s="108"/>
       <c r="O269" s="108"/>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="108" t="s">
+        <v>781</v>
+      </c>
+      <c r="B270" s="108" t="s">
         <v>782</v>
-      </c>
-      <c r="B270" s="108" t="s">
-        <v>783</v>
       </c>
       <c r="C270" s="108"/>
       <c r="D270" s="108">
@@ -12930,11 +12934,11 @@
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="108"/>
       <c r="B271" s="108" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C271" s="108"/>
       <c r="D271" s="108" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E271" s="108" t="s">
         <v>32</v>
@@ -12942,28 +12946,22 @@
       <c r="F271" s="108"/>
       <c r="G271" s="108"/>
       <c r="H271" s="28"/>
-      <c r="I271" s="108"/>
-      <c r="J271" s="108" t="s">
-        <v>755</v>
-      </c>
-      <c r="K271" s="108"/>
-      <c r="L271" s="108" t="s">
-        <v>755</v>
-      </c>
-      <c r="M271" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="N271" s="108"/>
-      <c r="O271" s="108"/>
+      <c r="I271" s="28"/>
+      <c r="J271" s="28"/>
+      <c r="K271" s="28"/>
+      <c r="L271" s="28"/>
+      <c r="M271" s="28"/>
+      <c r="N271" s="28"/>
+      <c r="O271" s="28"/>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="108"/>
       <c r="B272" s="108" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C272" s="108"/>
       <c r="D272" s="108" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E272" s="108" t="s">
         <v>32</v>
@@ -12971,22 +12969,24 @@
       <c r="F272" s="108"/>
       <c r="G272" s="108"/>
       <c r="H272" s="28"/>
-      <c r="I272" s="28"/>
-      <c r="J272" s="28"/>
-      <c r="K272" s="28"/>
-      <c r="L272" s="28"/>
-      <c r="M272" s="28"/>
-      <c r="N272" s="28"/>
-      <c r="O272" s="28"/>
+      <c r="I272" s="118" t="s">
+        <v>780</v>
+      </c>
+      <c r="J272" s="108"/>
+      <c r="K272" s="108"/>
+      <c r="L272" s="108"/>
+      <c r="M272" s="108"/>
+      <c r="N272" s="108"/>
+      <c r="O272" s="108"/>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="108"/>
       <c r="B273" s="108" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C273" s="108"/>
       <c r="D273" s="108" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E273" s="108" t="s">
         <v>32</v>
@@ -12994,24 +12994,30 @@
       <c r="F273" s="108"/>
       <c r="G273" s="108"/>
       <c r="H273" s="28"/>
-      <c r="I273" s="118" t="s">
-        <v>781</v>
-      </c>
-      <c r="J273" s="108"/>
+      <c r="I273" s="108" t="s">
+        <v>755</v>
+      </c>
+      <c r="J273" s="108" t="s">
+        <v>757</v>
+      </c>
       <c r="K273" s="108"/>
-      <c r="L273" s="108"/>
-      <c r="M273" s="108"/>
+      <c r="L273" s="108" t="s">
+        <v>757</v>
+      </c>
+      <c r="M273" s="108" t="s">
+        <v>20</v>
+      </c>
       <c r="N273" s="108"/>
       <c r="O273" s="108"/>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="108"/>
       <c r="B274" s="108" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C274" s="108"/>
       <c r="D274" s="108" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E274" s="108" t="s">
         <v>20</v>
@@ -13038,11 +13044,11 @@
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="108"/>
       <c r="B275" s="108" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C275" s="108"/>
       <c r="D275" s="108" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E275" s="108" t="s">
         <v>32</v>
@@ -13050,9 +13056,7 @@
       <c r="F275" s="108"/>
       <c r="G275" s="108"/>
       <c r="H275" s="28"/>
-      <c r="I275" s="108" t="s">
-        <v>757</v>
-      </c>
+      <c r="I275" s="108"/>
       <c r="J275" s="108" t="s">
         <v>759</v>
       </c>
@@ -13061,7 +13065,7 @@
         <v>759</v>
       </c>
       <c r="M275" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N275" s="108"/>
       <c r="O275" s="108"/>
@@ -13069,11 +13073,11 @@
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="108"/>
       <c r="B276" s="108" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C276" s="108"/>
       <c r="D276" s="108" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E276" s="108" t="s">
         <v>20</v>
@@ -13090,7 +13094,7 @@
         <v>760</v>
       </c>
       <c r="M276" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N276" s="108"/>
       <c r="O276" s="108"/>
@@ -13098,11 +13102,11 @@
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="108"/>
       <c r="B277" s="108" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C277" s="108"/>
       <c r="D277" s="108" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E277" s="108" t="s">
         <v>32</v>
@@ -13119,7 +13123,7 @@
         <v>761</v>
       </c>
       <c r="M277" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N277" s="108"/>
       <c r="O277" s="108"/>
@@ -13127,11 +13131,11 @@
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="108"/>
       <c r="B278" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C278" s="108"/>
       <c r="D278" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E278" s="108" t="s">
         <v>20</v>
@@ -13144,23 +13148,19 @@
         <v>762</v>
       </c>
       <c r="K278" s="108"/>
-      <c r="L278" s="108" t="s">
-        <v>762</v>
-      </c>
-      <c r="M278" s="108" t="s">
-        <v>32</v>
-      </c>
+      <c r="L278" s="108"/>
+      <c r="M278" s="108"/>
       <c r="N278" s="108"/>
       <c r="O278" s="108"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="108"/>
       <c r="B279" s="108" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C279" s="108"/>
       <c r="D279" s="108" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E279" s="108" t="s">
         <v>32</v>
@@ -13181,11 +13181,11 @@
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="108"/>
       <c r="B280" s="108" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C280" s="108"/>
       <c r="D280" s="108" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E280" s="108" t="s">
         <v>20</v>
@@ -13193,24 +13193,22 @@
       <c r="F280" s="108"/>
       <c r="G280" s="108"/>
       <c r="H280" s="28"/>
-      <c r="I280" s="108"/>
-      <c r="J280" s="108" t="s">
-        <v>764</v>
-      </c>
-      <c r="K280" s="108"/>
-      <c r="L280" s="108"/>
-      <c r="M280" s="108"/>
-      <c r="N280" s="108"/>
-      <c r="O280" s="108"/>
+      <c r="I280" s="28"/>
+      <c r="J280" s="28"/>
+      <c r="K280" s="28"/>
+      <c r="L280" s="28"/>
+      <c r="M280" s="28"/>
+      <c r="N280" s="28"/>
+      <c r="O280" s="28"/>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="108"/>
       <c r="B281" s="108" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C281" s="108"/>
       <c r="D281" s="108" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E281" s="108" t="s">
         <v>32</v>
@@ -13218,22 +13216,30 @@
       <c r="F281" s="108"/>
       <c r="G281" s="108"/>
       <c r="H281" s="28"/>
-      <c r="I281" s="28"/>
-      <c r="J281" s="28"/>
-      <c r="K281" s="28"/>
-      <c r="L281" s="28"/>
-      <c r="M281" s="28"/>
-      <c r="N281" s="28"/>
-      <c r="O281" s="28"/>
+      <c r="I281" s="108" t="s">
+        <v>771</v>
+      </c>
+      <c r="J281" s="108" t="s">
+        <v>772</v>
+      </c>
+      <c r="K281" s="108"/>
+      <c r="L281" s="108" t="s">
+        <v>772</v>
+      </c>
+      <c r="M281" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N281" s="108"/>
+      <c r="O281" s="108"/>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="108"/>
       <c r="B282" s="108" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C282" s="108"/>
       <c r="D282" s="108" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E282" s="108" t="s">
         <v>32</v>
@@ -13241,9 +13247,7 @@
       <c r="F282" s="108"/>
       <c r="G282" s="108"/>
       <c r="H282" s="28"/>
-      <c r="I282" s="108" t="s">
-        <v>772</v>
-      </c>
+      <c r="I282" s="108"/>
       <c r="J282" s="108" t="s">
         <v>773</v>
       </c>
@@ -13252,7 +13256,7 @@
         <v>773</v>
       </c>
       <c r="M282" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N282" s="108"/>
       <c r="O282" s="108"/>
@@ -13260,11 +13264,11 @@
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="108"/>
       <c r="B283" s="108" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C283" s="108"/>
       <c r="D283" s="108" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E283" s="108" t="s">
         <v>20</v>
@@ -13289,7 +13293,7 @@
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="108"/>
       <c r="B284" s="108" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C284" s="108"/>
       <c r="D284" s="108"/>
@@ -13306,7 +13310,7 @@
         <v>775</v>
       </c>
       <c r="M284" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N284" s="108"/>
       <c r="O284" s="108"/>
@@ -13314,7 +13318,7 @@
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="108"/>
       <c r="B285" s="108" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C285" s="108"/>
       <c r="D285" s="108"/>
@@ -13354,14 +13358,14 @@
         <v>777</v>
       </c>
       <c r="M286" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N286" s="108"/>
       <c r="O286" s="108"/>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="108" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B287" s="108"/>
       <c r="C287" s="108"/>
@@ -13379,17 +13383,17 @@
         <v>778</v>
       </c>
       <c r="M287" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N287" s="108"/>
       <c r="O287" s="108"/>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="108" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B288" s="108" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C288" s="108"/>
       <c r="D288" s="108">
@@ -13408,69 +13412,71 @@
         <v>779</v>
       </c>
       <c r="M288" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N288" s="108"/>
       <c r="O288" s="108"/>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="108" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B289" s="108" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C289" s="108"/>
       <c r="D289" s="108" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E289" s="108"/>
       <c r="F289" s="108"/>
       <c r="G289" s="108"/>
       <c r="H289" s="28"/>
-      <c r="I289" s="108"/>
-      <c r="J289" s="108" t="s">
-        <v>780</v>
-      </c>
-      <c r="K289" s="108"/>
-      <c r="L289" s="108" t="s">
-        <v>780</v>
-      </c>
-      <c r="M289" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="N289" s="108"/>
-      <c r="O289" s="108"/>
+      <c r="I289" s="28"/>
+      <c r="J289" s="28"/>
+      <c r="K289" s="28"/>
+      <c r="L289" s="28"/>
+      <c r="M289" s="28"/>
+      <c r="N289" s="28"/>
+      <c r="O289" s="28"/>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="108"/>
       <c r="B290" s="108" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C290" s="108"/>
       <c r="D290" s="108" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E290" s="108"/>
       <c r="F290" s="108"/>
       <c r="G290" s="108"/>
       <c r="H290" s="28"/>
-      <c r="I290" s="28"/>
-      <c r="J290" s="28"/>
-      <c r="K290" s="28"/>
-      <c r="L290" s="28"/>
-      <c r="M290" s="28"/>
-      <c r="N290" s="28"/>
-      <c r="O290" s="28"/>
+      <c r="I290" s="108" t="s">
+        <v>799</v>
+      </c>
+      <c r="J290" s="108" t="s">
+        <v>801</v>
+      </c>
+      <c r="K290" s="108"/>
+      <c r="L290" s="108" t="s">
+        <v>801</v>
+      </c>
+      <c r="M290" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N290" s="108"/>
+      <c r="O290" s="108"/>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="108"/>
       <c r="B291" s="108" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C291" s="108"/>
       <c r="D291" s="108" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E291" s="108"/>
       <c r="F291" s="108"/>
@@ -13487,27 +13493,27 @@
         <v>802</v>
       </c>
       <c r="M291" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N291" s="108"/>
-      <c r="O291" s="108"/>
+      <c r="O291" s="108">
+        <v>4775</v>
+      </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="119"/>
       <c r="B292" s="119" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C292" s="119"/>
       <c r="D292" s="119" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E292" s="119"/>
       <c r="F292" s="119"/>
       <c r="G292" s="119"/>
       <c r="H292" s="28"/>
-      <c r="I292" s="108" t="s">
-        <v>801</v>
-      </c>
+      <c r="I292" s="108"/>
       <c r="J292" s="108" t="s">
         <v>803</v>
       </c>
@@ -13516,21 +13522,21 @@
         <v>803</v>
       </c>
       <c r="M292" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N292" s="108"/>
       <c r="O292" s="108">
-        <v>4775</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="108"/>
       <c r="B293" s="108" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C293" s="108"/>
       <c r="D293" s="108" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E293" s="108"/>
       <c r="F293" s="108"/>
@@ -13548,18 +13554,16 @@
         <v>20</v>
       </c>
       <c r="N293" s="108"/>
-      <c r="O293" s="108">
-        <v>4244</v>
-      </c>
+      <c r="O293" s="108"/>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="108"/>
       <c r="B294" s="108" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C294" s="108"/>
       <c r="D294" s="108" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E294" s="108"/>
       <c r="F294" s="108"/>
@@ -13582,11 +13586,11 @@
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="108"/>
       <c r="B295" s="108" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C295" s="108"/>
       <c r="D295" s="108" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E295" s="108"/>
       <c r="F295" s="108"/>
@@ -13609,11 +13613,11 @@
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="108"/>
       <c r="B296" s="108" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C296" s="108"/>
       <c r="D296" s="108" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E296" s="108"/>
       <c r="F296" s="108"/>
@@ -13628,7 +13632,7 @@
         <v>807</v>
       </c>
       <c r="M296" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N296" s="108"/>
       <c r="O296" s="108"/>
@@ -13658,7 +13662,7 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="108" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B298" s="108"/>
       <c r="C298" s="108"/>
@@ -13667,30 +13671,24 @@
       <c r="F298" s="108"/>
       <c r="G298" s="108"/>
       <c r="H298" s="28"/>
-      <c r="I298" s="108"/>
-      <c r="J298" s="108" t="s">
-        <v>809</v>
-      </c>
-      <c r="K298" s="108"/>
-      <c r="L298" s="108" t="s">
-        <v>809</v>
-      </c>
-      <c r="M298" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="N298" s="108"/>
-      <c r="O298" s="108"/>
+      <c r="I298" s="28"/>
+      <c r="J298" s="28"/>
+      <c r="K298" s="28"/>
+      <c r="L298" s="28"/>
+      <c r="M298" s="28"/>
+      <c r="N298" s="28"/>
+      <c r="O298" s="28"/>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="108" t="s">
+        <v>834</v>
+      </c>
+      <c r="B299" s="108" t="s">
         <v>835</v>
-      </c>
-      <c r="B299" s="108" t="s">
-        <v>836</v>
       </c>
       <c r="C299" s="108"/>
       <c r="D299" s="108" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E299" s="108" t="s">
         <v>32</v>
@@ -13700,22 +13698,30 @@
         <v>4348</v>
       </c>
       <c r="H299" s="28"/>
-      <c r="I299" s="28"/>
-      <c r="J299" s="28"/>
-      <c r="K299" s="28"/>
-      <c r="L299" s="28"/>
-      <c r="M299" s="28"/>
-      <c r="N299" s="28"/>
-      <c r="O299" s="28"/>
+      <c r="I299" s="108" t="s">
+        <v>809</v>
+      </c>
+      <c r="J299" s="108" t="s">
+        <v>811</v>
+      </c>
+      <c r="K299" s="108"/>
+      <c r="L299" s="108" t="s">
+        <v>811</v>
+      </c>
+      <c r="M299" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N299" s="108"/>
+      <c r="O299" s="108"/>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="108"/>
       <c r="B300" s="108" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C300" s="108"/>
       <c r="D300" s="108" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E300" s="108" t="s">
         <v>20</v>
@@ -13734,7 +13740,7 @@
         <v>812</v>
       </c>
       <c r="M300" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N300" s="108"/>
       <c r="O300" s="108"/>
@@ -13742,11 +13748,11 @@
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="108"/>
       <c r="B301" s="108" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C301" s="108"/>
       <c r="D301" s="108" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E301" s="108" t="s">
         <v>20</v>
@@ -13754,9 +13760,7 @@
       <c r="F301" s="108"/>
       <c r="G301" s="108"/>
       <c r="H301" s="28"/>
-      <c r="I301" s="108" t="s">
-        <v>811</v>
-      </c>
+      <c r="I301" s="108"/>
       <c r="J301" s="108" t="s">
         <v>813</v>
       </c>
@@ -13765,7 +13769,7 @@
         <v>813</v>
       </c>
       <c r="M301" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N301" s="108"/>
       <c r="O301" s="108"/>
@@ -13773,11 +13777,11 @@
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="108"/>
       <c r="B302" s="108" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C302" s="108"/>
       <c r="D302" s="108" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E302" s="108" t="s">
         <v>20</v>
@@ -13802,11 +13806,11 @@
     <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="108"/>
       <c r="B303" s="108" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C303" s="108"/>
       <c r="D303" s="108" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E303" s="108" t="s">
         <v>32</v>
@@ -13831,11 +13835,11 @@
     <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="108"/>
       <c r="B304" s="108" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C304" s="108"/>
       <c r="D304" s="108" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E304" s="108" t="s">
         <v>32</v>
@@ -13843,28 +13847,22 @@
       <c r="F304" s="108"/>
       <c r="G304" s="108"/>
       <c r="H304" s="28"/>
-      <c r="I304" s="108"/>
-      <c r="J304" s="108" t="s">
-        <v>816</v>
-      </c>
-      <c r="K304" s="108"/>
-      <c r="L304" s="108" t="s">
-        <v>816</v>
-      </c>
-      <c r="M304" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="N304" s="108"/>
-      <c r="O304" s="108"/>
+      <c r="I304" s="28"/>
+      <c r="J304" s="28"/>
+      <c r="K304" s="28"/>
+      <c r="L304" s="28"/>
+      <c r="M304" s="28"/>
+      <c r="N304" s="28"/>
+      <c r="O304" s="28"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="108"/>
       <c r="B305" s="108" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C305" s="108"/>
       <c r="D305" s="108" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E305" s="108" t="s">
         <v>32</v>
@@ -13872,22 +13870,30 @@
       <c r="F305" s="108"/>
       <c r="G305" s="108"/>
       <c r="H305" s="28"/>
-      <c r="I305" s="28"/>
-      <c r="J305" s="28"/>
-      <c r="K305" s="28"/>
-      <c r="L305" s="28"/>
-      <c r="M305" s="28"/>
-      <c r="N305" s="28"/>
-      <c r="O305" s="28"/>
+      <c r="I305" s="108" t="s">
+        <v>816</v>
+      </c>
+      <c r="J305" s="108" t="s">
+        <v>817</v>
+      </c>
+      <c r="K305" s="108"/>
+      <c r="L305" s="108" t="s">
+        <v>817</v>
+      </c>
+      <c r="M305" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="N305" s="108"/>
+      <c r="O305" s="108"/>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="108"/>
       <c r="B306" s="108" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C306" s="108"/>
       <c r="D306" s="108" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E306" s="108" t="s">
         <v>20</v>
@@ -13895,9 +13901,7 @@
       <c r="F306" s="108"/>
       <c r="G306" s="108"/>
       <c r="H306" s="28"/>
-      <c r="I306" s="108" t="s">
-        <v>817</v>
-      </c>
+      <c r="I306" s="108"/>
       <c r="J306" s="108" t="s">
         <v>818</v>
       </c>
@@ -13906,7 +13910,7 @@
         <v>818</v>
       </c>
       <c r="M306" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N306" s="108"/>
       <c r="O306" s="108"/>
@@ -13914,11 +13918,11 @@
     <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="108"/>
       <c r="B307" s="108" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C307" s="108"/>
       <c r="D307" s="108" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E307" s="108" t="s">
         <v>20</v>
@@ -13926,28 +13930,28 @@
       <c r="F307" s="108"/>
       <c r="G307" s="108"/>
       <c r="H307" s="28"/>
-      <c r="I307" s="108"/>
-      <c r="J307" s="108" t="s">
+      <c r="I307" s="119"/>
+      <c r="J307" s="119" t="s">
         <v>819</v>
       </c>
-      <c r="K307" s="108"/>
-      <c r="L307" s="108" t="s">
+      <c r="K307" s="119"/>
+      <c r="L307" s="119" t="s">
         <v>819</v>
       </c>
-      <c r="M307" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="N307" s="108"/>
-      <c r="O307" s="108"/>
+      <c r="M307" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="N307" s="119"/>
+      <c r="O307" s="119"/>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="108"/>
       <c r="B308" s="108" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C308" s="108"/>
       <c r="D308" s="108" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E308" s="108" t="s">
         <v>20</v>
@@ -13955,28 +13959,28 @@
       <c r="F308" s="108"/>
       <c r="G308" s="108"/>
       <c r="H308" s="28"/>
-      <c r="I308" s="119"/>
-      <c r="J308" s="119" t="s">
+      <c r="I308" s="108"/>
+      <c r="J308" s="108" t="s">
         <v>820</v>
       </c>
-      <c r="K308" s="119"/>
-      <c r="L308" s="119" t="s">
+      <c r="K308" s="108"/>
+      <c r="L308" s="108" t="s">
         <v>820</v>
       </c>
-      <c r="M308" s="119" t="s">
-        <v>20</v>
-      </c>
-      <c r="N308" s="119"/>
-      <c r="O308" s="119"/>
+      <c r="M308" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N308" s="108"/>
+      <c r="O308" s="108"/>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="108"/>
       <c r="B309" s="108" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C309" s="108"/>
       <c r="D309" s="108" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E309" s="108" t="s">
         <v>20</v>
@@ -13989,18 +13993,14 @@
         <v>821</v>
       </c>
       <c r="K309" s="108"/>
-      <c r="L309" s="108" t="s">
-        <v>821</v>
-      </c>
-      <c r="M309" s="108" t="s">
-        <v>20</v>
-      </c>
+      <c r="L309" s="108"/>
+      <c r="M309" s="108"/>
       <c r="N309" s="108"/>
       <c r="O309" s="108"/>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="108" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B310" s="28"/>
       <c r="C310" s="28"/>
@@ -14021,14 +14021,14 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="108" t="s">
+        <v>848</v>
+      </c>
+      <c r="B311" s="108" t="s">
         <v>849</v>
-      </c>
-      <c r="B311" s="108" t="s">
-        <v>850</v>
       </c>
       <c r="C311" s="108"/>
       <c r="D311" s="108" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E311" s="108" t="s">
         <v>32</v>
@@ -14038,23 +14038,21 @@
         <v>4438</v>
       </c>
       <c r="H311" s="28"/>
-      <c r="I311" s="108"/>
-      <c r="J311" s="108" t="s">
-        <v>823</v>
-      </c>
-      <c r="K311" s="108"/>
-      <c r="L311" s="108"/>
-      <c r="M311" s="108"/>
-      <c r="N311" s="108"/>
-      <c r="O311" s="108"/>
+      <c r="I311" s="28"/>
+      <c r="J311" s="28"/>
+      <c r="K311" s="28"/>
+      <c r="L311" s="28"/>
+      <c r="M311" s="28"/>
+      <c r="N311" s="28"/>
+      <c r="O311" s="28"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B312" s="108" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C312" s="108"/>
       <c r="D312" s="108" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E312" s="108" t="s">
         <v>20</v>
@@ -14062,22 +14060,24 @@
       <c r="F312" s="108"/>
       <c r="G312" s="108"/>
       <c r="H312" s="28"/>
-      <c r="I312" s="28"/>
-      <c r="J312" s="28"/>
-      <c r="K312" s="28"/>
-      <c r="L312" s="28"/>
-      <c r="M312" s="28"/>
-      <c r="N312" s="28"/>
-      <c r="O312" s="28"/>
+      <c r="I312" s="108" t="s">
+        <v>877</v>
+      </c>
+      <c r="J312" s="108"/>
+      <c r="K312" s="108"/>
+      <c r="L312" s="108"/>
+      <c r="M312" s="108"/>
+      <c r="N312" s="108"/>
+      <c r="O312" s="108"/>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="108"/>
       <c r="B313" s="108" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C313" s="108"/>
       <c r="D313" s="108" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E313" s="108" t="s">
         <v>20</v>
@@ -14088,21 +14088,27 @@
       <c r="I313" s="108" t="s">
         <v>878</v>
       </c>
-      <c r="J313" s="108"/>
+      <c r="J313" s="108" t="s">
+        <v>880</v>
+      </c>
       <c r="K313" s="108"/>
-      <c r="L313" s="108"/>
-      <c r="M313" s="108"/>
+      <c r="L313" s="108" t="s">
+        <v>880</v>
+      </c>
+      <c r="M313" s="108" t="s">
+        <v>20</v>
+      </c>
       <c r="N313" s="108"/>
       <c r="O313" s="108"/>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="108"/>
       <c r="B314" s="108" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C314" s="108"/>
       <c r="D314" s="108" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E314" s="108" t="s">
         <v>32</v>
@@ -14129,11 +14135,11 @@
     <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="108"/>
       <c r="B315" s="108" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C315" s="108"/>
       <c r="D315" s="108" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E315" s="108" t="s">
         <v>32</v>
@@ -14141,9 +14147,7 @@
       <c r="F315" s="108"/>
       <c r="G315" s="108"/>
       <c r="H315" s="28"/>
-      <c r="I315" s="108" t="s">
-        <v>880</v>
-      </c>
+      <c r="I315" s="108"/>
       <c r="J315" s="108" t="s">
         <v>882</v>
       </c>
@@ -14152,7 +14156,7 @@
         <v>882</v>
       </c>
       <c r="M315" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N315" s="108"/>
       <c r="O315" s="108"/>
@@ -14160,11 +14164,11 @@
     <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="108"/>
       <c r="B316" s="108" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C316" s="108"/>
       <c r="D316" s="108" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E316" s="108" t="s">
         <v>32</v>
@@ -14174,11 +14178,11 @@
       <c r="H316" s="28"/>
       <c r="I316" s="108"/>
       <c r="J316" s="108" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="K316" s="108"/>
       <c r="L316" s="108" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="M316" s="108" t="s">
         <v>32</v>
@@ -14189,11 +14193,11 @@
     <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="108"/>
       <c r="B317" s="108" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C317" s="108"/>
       <c r="D317" s="108" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E317" s="108" t="s">
         <v>32</v>
@@ -14203,14 +14207,14 @@
       <c r="H317" s="28"/>
       <c r="I317" s="108"/>
       <c r="J317" s="108" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="K317" s="108"/>
       <c r="L317" s="108" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="M317" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N317" s="108"/>
       <c r="O317" s="108"/>
@@ -14232,21 +14236,23 @@
         <v>884</v>
       </c>
       <c r="M318" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N318" s="108"/>
-      <c r="O318" s="108"/>
+      <c r="O318" s="108">
+        <v>4014</v>
+      </c>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="108" t="s">
+        <v>862</v>
+      </c>
+      <c r="B319" s="108" t="s">
         <v>863</v>
-      </c>
-      <c r="B319" s="108" t="s">
-        <v>864</v>
       </c>
       <c r="C319" s="108"/>
       <c r="D319" s="108" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E319" s="108" t="s">
         <v>32</v>
@@ -14256,28 +14262,26 @@
       <c r="H319" s="28"/>
       <c r="I319" s="108"/>
       <c r="J319" s="108" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="K319" s="108"/>
       <c r="L319" s="108" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="M319" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N319" s="108"/>
-      <c r="O319" s="108">
-        <v>4014</v>
-      </c>
+      <c r="O319" s="108"/>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="108"/>
       <c r="B320" s="108" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C320" s="108"/>
       <c r="D320" s="108" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E320" s="108" t="s">
         <v>32</v>
@@ -14287,14 +14291,14 @@
       <c r="H320" s="28"/>
       <c r="I320" s="108"/>
       <c r="J320" s="108" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="K320" s="108"/>
       <c r="L320" s="108" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="M320" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N320" s="108"/>
       <c r="O320" s="108"/>
@@ -14302,11 +14306,11 @@
     <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="108"/>
       <c r="B321" s="108" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C321" s="108"/>
       <c r="D321" s="108" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E321" s="108" t="s">
         <v>32</v>
@@ -14316,14 +14320,14 @@
       <c r="H321" s="28"/>
       <c r="I321" s="108"/>
       <c r="J321" s="108" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="K321" s="108"/>
       <c r="L321" s="108" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="M321" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N321" s="108"/>
       <c r="O321" s="108"/>
@@ -14331,11 +14335,11 @@
     <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="108"/>
       <c r="B322" s="108" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C322" s="108"/>
       <c r="D322" s="108" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E322" s="108" t="s">
         <v>32</v>
@@ -14345,14 +14349,14 @@
       <c r="H322" s="28"/>
       <c r="I322" s="108"/>
       <c r="J322" s="108" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="K322" s="108"/>
       <c r="L322" s="108" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="M322" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N322" s="108"/>
       <c r="O322" s="108"/>
@@ -14360,11 +14364,11 @@
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="108"/>
       <c r="B323" s="108" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C323" s="108"/>
       <c r="D323" s="108" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E323" s="108" t="s">
         <v>20</v>
@@ -14374,11 +14378,11 @@
       <c r="H323" s="28"/>
       <c r="I323" s="108"/>
       <c r="J323" s="108" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="K323" s="108"/>
       <c r="L323" s="108" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="M323" s="108" t="s">
         <v>32</v>
@@ -14389,11 +14393,11 @@
     <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="108"/>
       <c r="B324" s="108" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C324" s="108"/>
       <c r="D324" s="108" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E324" s="108" t="s">
         <v>32</v>
@@ -14403,14 +14407,14 @@
       <c r="H324" s="28"/>
       <c r="I324" s="108"/>
       <c r="J324" s="108" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="K324" s="108"/>
       <c r="L324" s="108" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="M324" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N324" s="108"/>
       <c r="O324" s="108"/>
@@ -14418,11 +14422,11 @@
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="108"/>
       <c r="B325" s="108" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C325" s="108"/>
       <c r="D325" s="108" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E325" s="108" t="s">
         <v>32</v>
@@ -14432,11 +14436,11 @@
       <c r="H325" s="28"/>
       <c r="I325" s="108"/>
       <c r="J325" s="108" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="K325" s="108"/>
       <c r="L325" s="108" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="M325" s="108" t="s">
         <v>20</v>
@@ -14447,11 +14451,11 @@
     <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="108"/>
       <c r="B326" s="108" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C326" s="108"/>
       <c r="D326" s="108" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E326" s="108" t="s">
         <v>32</v>
@@ -14461,11 +14465,11 @@
       <c r="H326" s="28"/>
       <c r="I326" s="108"/>
       <c r="J326" s="108" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="K326" s="108"/>
       <c r="L326" s="108" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="M326" s="108" t="s">
         <v>20</v>
@@ -14476,11 +14480,11 @@
     <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="108"/>
       <c r="B327" s="108" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C327" s="108"/>
       <c r="D327" s="108" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E327" s="108" t="s">
         <v>20</v>
@@ -14490,11 +14494,11 @@
       <c r="H327" s="28"/>
       <c r="I327" s="108"/>
       <c r="J327" s="108" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="K327" s="108"/>
       <c r="L327" s="108" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="M327" s="108" t="s">
         <v>20</v>
@@ -14505,11 +14509,11 @@
     <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="108"/>
       <c r="B328" s="108" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C328" s="108"/>
       <c r="D328" s="108" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E328" s="108" t="s">
         <v>32</v>
@@ -14517,28 +14521,21 @@
       <c r="F328" s="108"/>
       <c r="G328" s="108"/>
       <c r="H328" s="28"/>
-      <c r="I328" s="108"/>
-      <c r="J328" s="108" t="s">
-        <v>895</v>
-      </c>
-      <c r="K328" s="108"/>
-      <c r="L328" s="108" t="s">
-        <v>895</v>
-      </c>
-      <c r="M328" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="N328" s="108"/>
-      <c r="O328" s="108"/>
+      <c r="I328" s="28"/>
+      <c r="K328" s="28"/>
+      <c r="L328" s="28"/>
+      <c r="M328" s="28"/>
+      <c r="N328" s="28"/>
+      <c r="O328" s="28"/>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="108"/>
       <c r="B329" s="108" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C329" s="108"/>
       <c r="D329" s="108" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E329" s="108" t="s">
         <v>20</v>
@@ -14546,21 +14543,28 @@
       <c r="F329" s="108"/>
       <c r="G329" s="108"/>
       <c r="H329" s="28"/>
-      <c r="I329" s="28"/>
-      <c r="K329" s="28"/>
-      <c r="L329" s="28"/>
-      <c r="M329" s="28"/>
-      <c r="N329" s="28"/>
-      <c r="O329" s="28"/>
+      <c r="I329" s="108" t="s">
+        <v>895</v>
+      </c>
+      <c r="J329" s="108" t="s">
+        <v>270</v>
+      </c>
+      <c r="K329" s="108"/>
+      <c r="L329" s="108"/>
+      <c r="M329" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="N329" s="108"/>
+      <c r="O329" s="108"/>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="108"/>
       <c r="B330" s="108" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C330" s="108"/>
       <c r="D330" s="108" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E330" s="108" t="s">
         <v>32</v>
@@ -14577,7 +14581,7 @@
       <c r="K330" s="108"/>
       <c r="L330" s="108"/>
       <c r="M330" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N330" s="108"/>
       <c r="O330" s="108"/>
@@ -14585,11 +14589,11 @@
     <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="108"/>
       <c r="B331" s="108" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C331" s="108"/>
       <c r="D331" s="108" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E331" s="108" t="s">
         <v>20</v>
@@ -14597,16 +14601,16 @@
       <c r="F331" s="108"/>
       <c r="G331" s="108"/>
       <c r="H331" s="28"/>
-      <c r="I331" s="108" t="s">
+      <c r="I331" s="108"/>
+      <c r="J331" s="108" t="s">
         <v>897</v>
       </c>
-      <c r="J331" s="108" t="s">
-        <v>270</v>
-      </c>
       <c r="K331" s="108"/>
-      <c r="L331" s="108"/>
+      <c r="L331" s="108" t="s">
+        <v>897</v>
+      </c>
       <c r="M331" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N331" s="108"/>
       <c r="O331" s="108"/>
@@ -14614,11 +14618,11 @@
     <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="108"/>
       <c r="B332" s="108" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C332" s="108"/>
       <c r="D332" s="108" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E332" s="108" t="s">
         <v>32</v>
@@ -14655,7 +14659,7 @@
       </c>
       <c r="K333" s="108"/>
       <c r="L333" s="108" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="M333" s="108" t="s">
         <v>32</v>
@@ -14665,7 +14669,7 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="108" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B334" s="108"/>
       <c r="C334" s="108"/>
@@ -14680,24 +14684,24 @@
       </c>
       <c r="K334" s="108"/>
       <c r="L334" s="108" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="M334" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N334" s="108"/>
       <c r="O334" s="108"/>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="108" t="s">
+        <v>917</v>
+      </c>
+      <c r="B335" s="108" t="s">
         <v>918</v>
-      </c>
-      <c r="B335" s="108" t="s">
-        <v>919</v>
       </c>
       <c r="C335" s="108"/>
       <c r="D335" s="108" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E335" s="108" t="s">
         <v>32</v>
@@ -14707,11 +14711,11 @@
       <c r="H335" s="28"/>
       <c r="I335" s="108"/>
       <c r="J335" s="108" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="K335" s="108"/>
       <c r="L335" s="108" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="M335" s="108" t="s">
         <v>20</v>
@@ -14722,11 +14726,11 @@
     <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="108"/>
       <c r="B336" s="108" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C336" s="108"/>
       <c r="D336" s="108" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E336" s="108" t="s">
         <v>32</v>
@@ -14739,23 +14743,19 @@
         <v>904</v>
       </c>
       <c r="K336" s="108"/>
-      <c r="L336" s="108" t="s">
-        <v>904</v>
-      </c>
-      <c r="M336" s="108" t="s">
-        <v>20</v>
-      </c>
+      <c r="L336" s="108"/>
+      <c r="M336" s="108"/>
       <c r="N336" s="108"/>
       <c r="O336" s="108"/>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="108"/>
       <c r="B337" s="108" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C337" s="108"/>
       <c r="D337" s="108" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E337" s="108" t="s">
         <v>32</v>
@@ -14776,11 +14776,11 @@
     <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="108"/>
       <c r="B338" s="108" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C338" s="108"/>
       <c r="D338" s="108" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E338" s="108" t="s">
         <v>20</v>
@@ -14788,24 +14788,21 @@
       <c r="F338" s="108"/>
       <c r="G338" s="108"/>
       <c r="H338" s="28"/>
-      <c r="I338" s="108"/>
-      <c r="J338" s="108" t="s">
-        <v>906</v>
-      </c>
-      <c r="K338" s="108"/>
-      <c r="L338" s="108"/>
-      <c r="M338" s="108"/>
-      <c r="N338" s="108"/>
-      <c r="O338" s="108"/>
+      <c r="I338" s="28"/>
+      <c r="K338" s="28"/>
+      <c r="L338" s="28"/>
+      <c r="M338" s="28"/>
+      <c r="N338" s="28"/>
+      <c r="O338" s="28"/>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="108"/>
       <c r="B339" s="108" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C339" s="108"/>
       <c r="D339" s="108" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E339" s="108" t="s">
         <v>32</v>
@@ -14813,21 +14810,34 @@
       <c r="F339" s="108"/>
       <c r="G339" s="108"/>
       <c r="H339" s="28"/>
-      <c r="I339" s="28"/>
-      <c r="K339" s="28"/>
-      <c r="L339" s="28"/>
-      <c r="M339" s="28"/>
-      <c r="N339" s="28"/>
-      <c r="O339" s="28"/>
+      <c r="I339" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="J339" s="108" t="s">
+        <v>907</v>
+      </c>
+      <c r="K339" s="108"/>
+      <c r="L339" s="108" t="s">
+        <v>908</v>
+      </c>
+      <c r="M339" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="N339" s="117" t="s">
+        <v>909</v>
+      </c>
+      <c r="O339" s="108">
+        <v>4010</v>
+      </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="108"/>
       <c r="B340" s="108" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C340" s="108"/>
       <c r="D340" s="108" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E340" s="108" t="s">
         <v>32</v>
@@ -14835,34 +14845,22 @@
       <c r="F340" s="108"/>
       <c r="G340" s="108"/>
       <c r="H340" s="28"/>
-      <c r="I340" s="108" t="s">
-        <v>288</v>
-      </c>
-      <c r="J340" s="108" t="s">
-        <v>908</v>
-      </c>
-      <c r="K340" s="108"/>
-      <c r="L340" s="108" t="s">
-        <v>909</v>
-      </c>
-      <c r="M340" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="N340" s="117" t="s">
-        <v>910</v>
-      </c>
-      <c r="O340" s="108">
-        <v>4010</v>
-      </c>
+      <c r="I340" s="28"/>
+      <c r="J340" s="28"/>
+      <c r="K340" s="28"/>
+      <c r="L340" s="28"/>
+      <c r="M340" s="28"/>
+      <c r="N340" s="28"/>
+      <c r="O340" s="28"/>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="108"/>
       <c r="B341" s="108" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C341" s="108"/>
       <c r="D341" s="108" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E341" s="108" t="s">
         <v>32</v>
@@ -14870,13 +14868,15 @@
       <c r="F341" s="108"/>
       <c r="G341" s="108"/>
       <c r="H341" s="28"/>
-      <c r="I341" s="28"/>
-      <c r="J341" s="28"/>
-      <c r="K341" s="28"/>
-      <c r="L341" s="28"/>
-      <c r="M341" s="28"/>
-      <c r="N341" s="28"/>
-      <c r="O341" s="28"/>
+      <c r="I341" s="108" t="s">
+        <v>910</v>
+      </c>
+      <c r="J341" s="108"/>
+      <c r="K341" s="108"/>
+      <c r="L341" s="108"/>
+      <c r="M341" s="108"/>
+      <c r="N341" s="108"/>
+      <c r="O341" s="108"/>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="28"/>
@@ -14890,23 +14890,29 @@
       <c r="I342" s="108" t="s">
         <v>911</v>
       </c>
-      <c r="J342" s="108"/>
+      <c r="J342" s="108" t="s">
+        <v>901</v>
+      </c>
       <c r="K342" s="108"/>
-      <c r="L342" s="108"/>
-      <c r="M342" s="108"/>
+      <c r="L342" s="108" t="s">
+        <v>901</v>
+      </c>
+      <c r="M342" s="108" t="s">
+        <v>20</v>
+      </c>
       <c r="N342" s="108"/>
       <c r="O342" s="108"/>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="108" t="s">
+        <v>925</v>
+      </c>
+      <c r="B343" s="108" t="s">
         <v>926</v>
-      </c>
-      <c r="B343" s="108" t="s">
-        <v>927</v>
       </c>
       <c r="C343" s="108"/>
       <c r="D343" s="108" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E343" s="108" t="s">
         <v>32</v>
@@ -14933,11 +14939,11 @@
     <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="108"/>
       <c r="B344" s="108" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C344" s="108"/>
       <c r="D344" s="108" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E344" s="108" t="s">
         <v>32</v>
@@ -14945,30 +14951,22 @@
       <c r="F344" s="108"/>
       <c r="G344" s="108"/>
       <c r="H344" s="28"/>
-      <c r="I344" s="108" t="s">
-        <v>913</v>
-      </c>
-      <c r="J344" s="108" t="s">
-        <v>903</v>
-      </c>
-      <c r="K344" s="108"/>
-      <c r="L344" s="108" t="s">
-        <v>903</v>
-      </c>
-      <c r="M344" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="N344" s="108"/>
-      <c r="O344" s="108"/>
+      <c r="I344" s="28"/>
+      <c r="J344" s="28"/>
+      <c r="K344" s="28"/>
+      <c r="L344" s="28"/>
+      <c r="M344" s="28"/>
+      <c r="N344" s="28"/>
+      <c r="O344" s="28"/>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="108"/>
       <c r="B345" s="108" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C345" s="108"/>
       <c r="D345" s="108" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E345" s="108" t="s">
         <v>20</v>
@@ -14976,22 +14974,30 @@
       <c r="F345" s="108"/>
       <c r="G345" s="108"/>
       <c r="H345" s="28"/>
-      <c r="I345" s="28"/>
-      <c r="J345" s="28"/>
-      <c r="K345" s="28"/>
-      <c r="L345" s="28"/>
-      <c r="M345" s="28"/>
-      <c r="N345" s="28"/>
-      <c r="O345" s="28"/>
+      <c r="I345" s="108" t="s">
+        <v>913</v>
+      </c>
+      <c r="J345" s="108" t="s">
+        <v>914</v>
+      </c>
+      <c r="K345" s="108"/>
+      <c r="L345" s="108" t="s">
+        <v>914</v>
+      </c>
+      <c r="M345" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="N345" s="108"/>
+      <c r="O345" s="108"/>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="108"/>
       <c r="B346" s="108" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C346" s="108"/>
       <c r="D346" s="108" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E346" s="108" t="s">
         <v>20</v>
@@ -14999,9 +15005,7 @@
       <c r="F346" s="108"/>
       <c r="G346" s="108"/>
       <c r="H346" s="28"/>
-      <c r="I346" s="108" t="s">
-        <v>914</v>
-      </c>
+      <c r="I346" s="108"/>
       <c r="J346" s="108" t="s">
         <v>915</v>
       </c>
@@ -15010,7 +15014,7 @@
         <v>915</v>
       </c>
       <c r="M346" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N346" s="108"/>
       <c r="O346" s="108"/>
@@ -15018,11 +15022,11 @@
     <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="108"/>
       <c r="B347" s="108" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C347" s="108"/>
       <c r="D347" s="108" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E347" s="108" t="s">
         <v>20</v>
@@ -15030,28 +15034,22 @@
       <c r="F347" s="108"/>
       <c r="G347" s="108"/>
       <c r="H347" s="28"/>
-      <c r="I347" s="108"/>
-      <c r="J347" s="108" t="s">
-        <v>916</v>
-      </c>
-      <c r="K347" s="108"/>
-      <c r="L347" s="108" t="s">
-        <v>916</v>
-      </c>
-      <c r="M347" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="N347" s="108"/>
-      <c r="O347" s="108"/>
+      <c r="I347" s="28"/>
+      <c r="J347" s="28"/>
+      <c r="K347" s="28"/>
+      <c r="L347" s="28"/>
+      <c r="M347" s="28"/>
+      <c r="N347" s="28"/>
+      <c r="O347" s="28"/>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="108"/>
       <c r="B348" s="108" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C348" s="108"/>
       <c r="D348" s="108" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E348" s="108" t="s">
         <v>20</v>
@@ -15059,22 +15057,24 @@
       <c r="F348" s="108"/>
       <c r="G348" s="108"/>
       <c r="H348" s="28"/>
-      <c r="I348" s="28"/>
-      <c r="J348" s="28"/>
-      <c r="K348" s="28"/>
-      <c r="L348" s="28"/>
-      <c r="M348" s="28"/>
-      <c r="N348" s="28"/>
-      <c r="O348" s="28"/>
+      <c r="I348" s="108" t="s">
+        <v>939</v>
+      </c>
+      <c r="J348" s="108"/>
+      <c r="K348" s="108"/>
+      <c r="L348" s="108"/>
+      <c r="M348" s="108"/>
+      <c r="N348" s="108"/>
+      <c r="O348" s="108"/>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="108"/>
       <c r="B349" s="108" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C349" s="108"/>
       <c r="D349" s="108" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E349" s="108" t="s">
         <v>20</v>
@@ -15085,10 +15085,16 @@
       <c r="I349" s="108" t="s">
         <v>940</v>
       </c>
-      <c r="J349" s="108"/>
+      <c r="J349" s="108" t="s">
+        <v>942</v>
+      </c>
       <c r="K349" s="108"/>
-      <c r="L349" s="108"/>
-      <c r="M349" s="108"/>
+      <c r="L349" s="108" t="s">
+        <v>942</v>
+      </c>
+      <c r="M349" s="108" t="s">
+        <v>32</v>
+      </c>
       <c r="N349" s="108"/>
       <c r="O349" s="108"/>
     </row>
@@ -15104,29 +15110,29 @@
       <c r="I350" s="108" t="s">
         <v>941</v>
       </c>
-      <c r="J350" s="108" t="s">
-        <v>943</v>
+      <c r="J350" s="108">
+        <v>621</v>
       </c>
       <c r="K350" s="108"/>
-      <c r="L350" s="108" t="s">
-        <v>943</v>
+      <c r="L350" s="108">
+        <v>621</v>
       </c>
       <c r="M350" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N350" s="108"/>
       <c r="O350" s="108"/>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="108" t="s">
+        <v>933</v>
+      </c>
+      <c r="B351" s="108" t="s">
         <v>934</v>
-      </c>
-      <c r="B351" s="108" t="s">
-        <v>935</v>
       </c>
       <c r="C351" s="108"/>
       <c r="D351" s="108" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E351" s="108" t="s">
         <v>32</v>
@@ -15134,15 +15140,13 @@
       <c r="F351" s="108"/>
       <c r="G351" s="108"/>
       <c r="H351" s="28"/>
-      <c r="I351" s="108" t="s">
-        <v>942</v>
-      </c>
-      <c r="J351" s="108">
-        <v>621</v>
+      <c r="I351" s="108"/>
+      <c r="J351" s="108" t="s">
+        <v>943</v>
       </c>
       <c r="K351" s="108"/>
-      <c r="L351" s="108">
-        <v>621</v>
+      <c r="L351" s="108" t="s">
+        <v>943</v>
       </c>
       <c r="M351" s="108" t="s">
         <v>20</v>
@@ -15153,11 +15157,11 @@
     <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="108"/>
       <c r="B352" s="108" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C352" s="108"/>
       <c r="D352" s="108" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E352" s="108" t="s">
         <v>32</v>
@@ -15182,11 +15186,11 @@
     <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="108"/>
       <c r="B353" s="108" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C353" s="108"/>
       <c r="D353" s="108" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E353" s="108" t="s">
         <v>20</v>
@@ -15211,11 +15215,11 @@
     <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="108"/>
       <c r="B354" s="108" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C354" s="108"/>
       <c r="D354" s="108" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E354" s="108" t="s">
         <v>20</v>
@@ -15240,11 +15244,11 @@
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="108"/>
       <c r="B355" s="108" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C355" s="108"/>
       <c r="D355" s="108" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E355" s="108" t="s">
         <v>32</v>
@@ -15254,15 +15258,11 @@
       <c r="H355" s="28"/>
       <c r="I355" s="108"/>
       <c r="J355" s="108" t="s">
-        <v>947</v>
+        <v>270</v>
       </c>
       <c r="K355" s="108"/>
-      <c r="L355" s="108" t="s">
-        <v>947</v>
-      </c>
-      <c r="M355" s="108" t="s">
-        <v>20</v>
-      </c>
+      <c r="L355" s="108"/>
+      <c r="M355" s="108"/>
       <c r="N355" s="108"/>
       <c r="O355" s="108"/>
     </row>
@@ -15287,14 +15287,14 @@
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="108" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B357" s="108" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C357" s="108"/>
       <c r="D357" s="108" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E357" s="108" t="s">
         <v>20</v>
@@ -15302,24 +15302,24 @@
       <c r="F357" s="108"/>
       <c r="G357" s="108"/>
       <c r="H357" s="28"/>
-      <c r="I357" s="108"/>
-      <c r="J357" s="108" t="s">
-        <v>270</v>
-      </c>
-      <c r="K357" s="108"/>
-      <c r="L357" s="108"/>
-      <c r="M357" s="108"/>
-      <c r="N357" s="108"/>
-      <c r="O357" s="108"/>
+      <c r="I357" s="59" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J357" s="28"/>
+      <c r="K357" s="28"/>
+      <c r="L357" s="28"/>
+      <c r="M357" s="28"/>
+      <c r="N357" s="28"/>
+      <c r="O357" s="28"/>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="108"/>
       <c r="B358" s="108" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C358" s="108"/>
       <c r="D358" s="108" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E358" s="108" t="s">
         <v>32</v>
@@ -15327,24 +15327,30 @@
       <c r="F358" s="108"/>
       <c r="G358" s="108"/>
       <c r="H358" s="28"/>
-      <c r="I358" s="59" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J358" s="28"/>
-      <c r="K358" s="28"/>
-      <c r="L358" s="28"/>
-      <c r="M358" s="28"/>
-      <c r="N358" s="28"/>
-      <c r="O358" s="28"/>
+      <c r="I358" s="108" t="s">
+        <v>953</v>
+      </c>
+      <c r="J358" s="108" t="s">
+        <v>954</v>
+      </c>
+      <c r="K358" s="108"/>
+      <c r="L358" s="108" t="s">
+        <v>954</v>
+      </c>
+      <c r="M358" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N358" s="108"/>
+      <c r="O358" s="108"/>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="108"/>
       <c r="B359" s="108" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C359" s="108"/>
       <c r="D359" s="108" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E359" s="108" t="s">
         <v>32</v>
@@ -15352,9 +15358,7 @@
       <c r="F359" s="108"/>
       <c r="G359" s="108"/>
       <c r="H359" s="28"/>
-      <c r="I359" s="108" t="s">
-        <v>954</v>
-      </c>
+      <c r="I359" s="108"/>
       <c r="J359" s="108" t="s">
         <v>955</v>
       </c>
@@ -15363,7 +15367,7 @@
         <v>955</v>
       </c>
       <c r="M359" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N359" s="108"/>
       <c r="O359" s="108"/>
@@ -15371,11 +15375,11 @@
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="108"/>
       <c r="B360" s="108" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C360" s="108"/>
       <c r="D360" s="108" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E360" s="108" t="s">
         <v>20</v>
@@ -15400,11 +15404,11 @@
     <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="108"/>
       <c r="B361" s="108" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C361" s="108"/>
       <c r="D361" s="108" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E361" s="108" t="s">
         <v>20</v>
@@ -15466,21 +15470,21 @@
         <v>959</v>
       </c>
       <c r="M363" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N363" s="108"/>
       <c r="O363" s="108"/>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="108" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B364" s="108" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C364" s="108"/>
       <c r="D364" s="108" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E364" s="108" t="s">
         <v>20</v>
@@ -15488,30 +15492,24 @@
       <c r="F364" s="108"/>
       <c r="G364" s="108"/>
       <c r="H364" s="28"/>
-      <c r="I364" s="108"/>
-      <c r="J364" s="108" t="s">
-        <v>960</v>
-      </c>
-      <c r="K364" s="108"/>
-      <c r="L364" s="108" t="s">
-        <v>960</v>
-      </c>
-      <c r="M364" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="N364" s="108"/>
-      <c r="O364" s="108"/>
+      <c r="I364" s="28"/>
+      <c r="J364" s="28"/>
+      <c r="K364" s="28"/>
+      <c r="L364" s="28"/>
+      <c r="M364" s="28"/>
+      <c r="N364" s="28"/>
+      <c r="O364" s="28"/>
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="108" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B365" s="108" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C365" s="108"/>
       <c r="D365" s="108" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E365" s="108" t="s">
         <v>32</v>
@@ -15519,22 +15517,30 @@
       <c r="F365" s="108"/>
       <c r="G365" s="108"/>
       <c r="H365" s="28"/>
-      <c r="I365" s="28"/>
-      <c r="J365" s="28"/>
-      <c r="K365" s="28"/>
-      <c r="L365" s="28"/>
-      <c r="M365" s="28"/>
-      <c r="N365" s="28"/>
-      <c r="O365" s="28"/>
+      <c r="I365" s="108" t="s">
+        <v>960</v>
+      </c>
+      <c r="J365" s="108" t="s">
+        <v>960</v>
+      </c>
+      <c r="K365" s="108"/>
+      <c r="L365" s="108" t="s">
+        <v>960</v>
+      </c>
+      <c r="M365" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N365" s="108"/>
+      <c r="O365" s="108"/>
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="108"/>
       <c r="B366" s="108" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C366" s="108"/>
       <c r="D366" s="108" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E366" s="108" t="s">
         <v>20</v>
@@ -15542,18 +15548,14 @@
       <c r="F366" s="108"/>
       <c r="G366" s="108"/>
       <c r="H366" s="28"/>
-      <c r="I366" s="108" t="s">
-        <v>961</v>
-      </c>
+      <c r="I366" s="108"/>
       <c r="J366" s="108" t="s">
-        <v>961</v>
+        <v>317</v>
       </c>
       <c r="K366" s="108"/>
-      <c r="L366" s="108" t="s">
-        <v>961</v>
-      </c>
+      <c r="L366" s="108"/>
       <c r="M366" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N366" s="108"/>
       <c r="O366" s="108"/>
@@ -15561,11 +15563,11 @@
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="108"/>
       <c r="B367" s="108" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C367" s="108"/>
       <c r="D367" s="108" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E367" s="108" t="s">
         <v>32</v>
@@ -15573,26 +15575,22 @@
       <c r="F367" s="108"/>
       <c r="G367" s="108"/>
       <c r="H367" s="28"/>
-      <c r="I367" s="108"/>
-      <c r="J367" s="108" t="s">
-        <v>317</v>
-      </c>
-      <c r="K367" s="108"/>
-      <c r="L367" s="108"/>
-      <c r="M367" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="N367" s="108"/>
-      <c r="O367" s="108"/>
+      <c r="I367" s="28"/>
+      <c r="J367" s="28"/>
+      <c r="K367" s="28"/>
+      <c r="L367" s="28"/>
+      <c r="M367" s="28"/>
+      <c r="N367" s="28"/>
+      <c r="O367" s="28"/>
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="108"/>
       <c r="B368" s="108" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C368" s="108"/>
       <c r="D368" s="108" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E368" s="108" t="s">
         <v>20</v>
@@ -15600,22 +15598,32 @@
       <c r="F368" s="108"/>
       <c r="G368" s="108"/>
       <c r="H368" s="28"/>
-      <c r="I368" s="28"/>
-      <c r="J368" s="28"/>
-      <c r="K368" s="28"/>
-      <c r="L368" s="28"/>
-      <c r="M368" s="28"/>
-      <c r="N368" s="28"/>
-      <c r="O368" s="28"/>
+      <c r="I368" s="108" t="s">
+        <v>961</v>
+      </c>
+      <c r="J368" s="108" t="s">
+        <v>962</v>
+      </c>
+      <c r="K368" s="108"/>
+      <c r="L368" s="108" t="s">
+        <v>962</v>
+      </c>
+      <c r="M368" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="N368" s="108"/>
+      <c r="O368" s="108">
+        <v>4750</v>
+      </c>
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="108"/>
       <c r="B369" s="108" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C369" s="108"/>
       <c r="D369" s="108" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E369" s="108" t="s">
         <v>32</v>
@@ -15623,9 +15631,7 @@
       <c r="F369" s="108"/>
       <c r="G369" s="108"/>
       <c r="H369" s="28"/>
-      <c r="I369" s="108" t="s">
-        <v>962</v>
-      </c>
+      <c r="I369" s="108"/>
       <c r="J369" s="108" t="s">
         <v>963</v>
       </c>
@@ -15634,21 +15640,19 @@
         <v>963</v>
       </c>
       <c r="M369" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N369" s="108"/>
-      <c r="O369" s="108">
-        <v>4750</v>
-      </c>
+      <c r="O369" s="108"/>
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="108"/>
       <c r="B370" s="108" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C370" s="108"/>
       <c r="D370" s="108" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E370" s="108" t="s">
         <v>20</v>
@@ -15673,11 +15677,11 @@
     <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="108"/>
       <c r="B371" s="108" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C371" s="108"/>
       <c r="D371" s="108" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E371" s="108" t="s">
         <v>32</v>
@@ -15717,21 +15721,21 @@
         <v>966</v>
       </c>
       <c r="M372" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N372" s="108"/>
       <c r="O372" s="108"/>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="108" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B373" s="108" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C373" s="108"/>
       <c r="D373" s="108" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E373" s="108" t="s">
         <v>32</v>
@@ -15755,14 +15759,14 @@
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="108" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B374" s="108" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C374" s="108"/>
       <c r="D374" s="108" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E374" s="108" t="s">
         <v>20</v>
@@ -15775,23 +15779,19 @@
         <v>968</v>
       </c>
       <c r="K374" s="108"/>
-      <c r="L374" s="108" t="s">
-        <v>968</v>
-      </c>
-      <c r="M374" s="108" t="s">
-        <v>32</v>
-      </c>
+      <c r="L374" s="108"/>
+      <c r="M374" s="108"/>
       <c r="N374" s="108"/>
       <c r="O374" s="108"/>
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="108"/>
       <c r="B375" s="108" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C375" s="108"/>
       <c r="D375" s="108" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E375" s="108" t="s">
         <v>20</v>
@@ -15799,24 +15799,22 @@
       <c r="F375" s="108"/>
       <c r="G375" s="108"/>
       <c r="H375" s="28"/>
-      <c r="I375" s="108"/>
-      <c r="J375" s="108" t="s">
-        <v>969</v>
-      </c>
-      <c r="K375" s="108"/>
-      <c r="L375" s="108"/>
-      <c r="M375" s="108"/>
-      <c r="N375" s="108"/>
-      <c r="O375" s="108"/>
+      <c r="I375" s="28"/>
+      <c r="J375" s="28"/>
+      <c r="K375" s="28"/>
+      <c r="L375" s="28"/>
+      <c r="M375" s="28"/>
+      <c r="N375" s="28"/>
+      <c r="O375" s="28"/>
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="108"/>
       <c r="B376" s="108" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C376" s="108"/>
       <c r="D376" s="108" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E376" s="108" t="s">
         <v>32</v>
@@ -15824,22 +15822,24 @@
       <c r="F376" s="108"/>
       <c r="G376" s="108"/>
       <c r="H376" s="28"/>
-      <c r="I376" s="28"/>
-      <c r="J376" s="28"/>
-      <c r="K376" s="28"/>
-      <c r="L376" s="28"/>
-      <c r="M376" s="28"/>
-      <c r="N376" s="28"/>
-      <c r="O376" s="28"/>
+      <c r="I376" s="108" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J376" s="108"/>
+      <c r="K376" s="108"/>
+      <c r="L376" s="108"/>
+      <c r="M376" s="108"/>
+      <c r="N376" s="108"/>
+      <c r="O376" s="108"/>
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="108"/>
       <c r="B377" s="108" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C377" s="108"/>
       <c r="D377" s="108" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E377" s="108" t="s">
         <v>20</v>
@@ -15848,12 +15848,18 @@
       <c r="G377" s="108"/>
       <c r="H377" s="28"/>
       <c r="I377" s="108" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J377" s="108"/>
+        <v>969</v>
+      </c>
+      <c r="J377" s="108" t="s">
+        <v>970</v>
+      </c>
       <c r="K377" s="108"/>
-      <c r="L377" s="108"/>
-      <c r="M377" s="108"/>
+      <c r="L377" s="108" t="s">
+        <v>970</v>
+      </c>
+      <c r="M377" s="108" t="s">
+        <v>32</v>
+      </c>
       <c r="N377" s="108"/>
       <c r="O377" s="108"/>
     </row>
@@ -15866,9 +15872,7 @@
       <c r="F378" s="28"/>
       <c r="G378" s="28"/>
       <c r="H378" s="28"/>
-      <c r="I378" s="108" t="s">
-        <v>970</v>
-      </c>
+      <c r="I378" s="108"/>
       <c r="J378" s="108" t="s">
         <v>971</v>
       </c>
@@ -15884,7 +15888,7 @@
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="108" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B379" s="108"/>
       <c r="C379" s="108"/>
@@ -15902,21 +15906,21 @@
         <v>972</v>
       </c>
       <c r="M379" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N379" s="108"/>
       <c r="O379" s="108"/>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="108" t="s">
+        <v>998</v>
+      </c>
+      <c r="B380" s="108" t="s">
         <v>999</v>
-      </c>
-      <c r="B380" s="108" t="s">
-        <v>1000</v>
       </c>
       <c r="C380" s="108"/>
       <c r="D380" s="108" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E380" s="108" t="s">
         <v>20</v>
@@ -15924,51 +15928,55 @@
       <c r="F380" s="108"/>
       <c r="G380" s="108"/>
       <c r="H380" s="28"/>
-      <c r="I380" s="108"/>
+      <c r="I380" s="37"/>
       <c r="J380" s="108" t="s">
         <v>973</v>
       </c>
-      <c r="K380" s="108"/>
+      <c r="K380" s="37"/>
       <c r="L380" s="108" t="s">
         <v>973</v>
       </c>
       <c r="M380" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="N380" s="108"/>
-      <c r="O380" s="108"/>
+        <v>32</v>
+      </c>
+      <c r="N380" s="37"/>
+      <c r="O380" s="37"/>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="37"/>
       <c r="B381" s="108" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C381" s="37"/>
       <c r="D381" s="108" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E381" s="108" t="s">
         <v>20</v>
       </c>
       <c r="F381" s="37"/>
       <c r="G381" s="37"/>
-      <c r="I381" s="37"/>
-      <c r="J381" s="108" t="s">
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I382" s="59" t="s">
         <v>974</v>
       </c>
-      <c r="K381" s="37"/>
-      <c r="L381" s="108" t="s">
-        <v>974</v>
-      </c>
-      <c r="M381" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="N381" s="37"/>
-      <c r="O381" s="37"/>
+      <c r="J382" s="108" t="s">
+        <v>975</v>
+      </c>
+      <c r="K382" s="59"/>
+      <c r="L382" s="108" t="s">
+        <v>975</v>
+      </c>
+      <c r="M382" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N382" s="59"/>
+      <c r="O382" s="59"/>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="59" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B383" s="59"/>
       <c r="C383" s="59"/>
@@ -15977,9 +15985,7 @@
       <c r="F383" s="59"/>
       <c r="G383" s="59"/>
       <c r="H383" s="115"/>
-      <c r="I383" s="59" t="s">
-        <v>975</v>
-      </c>
+      <c r="I383" s="59"/>
       <c r="J383" s="108" t="s">
         <v>976</v>
       </c>
@@ -15995,14 +16001,14 @@
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="59" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B384" s="59" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C384" s="59"/>
       <c r="D384" s="59" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E384" s="59" t="s">
         <v>32</v>
@@ -16012,14 +16018,14 @@
       <c r="H384" s="115"/>
       <c r="I384" s="59"/>
       <c r="J384" s="108" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="K384" s="59"/>
       <c r="L384" s="108" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="M384" s="108" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N384" s="59"/>
       <c r="O384" s="59"/>
@@ -16027,11 +16033,11 @@
     <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="59"/>
       <c r="B385" s="59" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C385" s="59"/>
       <c r="D385" s="59" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E385" s="59" t="s">
         <v>20</v>
@@ -16041,11 +16047,11 @@
       <c r="H385" s="115"/>
       <c r="I385" s="59"/>
       <c r="J385" s="108" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="K385" s="59"/>
       <c r="L385" s="108" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="M385" s="108" t="s">
         <v>32</v>
@@ -16055,7 +16061,7 @@
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="59" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B386" s="115"/>
       <c r="C386" s="115"/>
@@ -16066,11 +16072,11 @@
       <c r="H386" s="115"/>
       <c r="I386" s="59"/>
       <c r="J386" s="108" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="K386" s="59"/>
       <c r="L386" s="108" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="M386" s="108" t="s">
         <v>32</v>
@@ -16080,14 +16086,14 @@
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="59" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B387" s="59" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C387" s="59"/>
       <c r="D387" s="59" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E387" s="59" t="s">
         <v>32</v>
@@ -16100,22 +16106,18 @@
         <v>978</v>
       </c>
       <c r="K387" s="59"/>
-      <c r="L387" s="108" t="s">
-        <v>978</v>
-      </c>
-      <c r="M387" s="108" t="s">
-        <v>32</v>
-      </c>
+      <c r="L387" s="108"/>
+      <c r="M387" s="59"/>
       <c r="N387" s="59"/>
       <c r="O387" s="59"/>
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B388" s="59" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C388" s="59"/>
       <c r="D388" s="59" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E388" s="59" t="s">
         <v>32</v>
@@ -16128,19 +16130,23 @@
         <v>979</v>
       </c>
       <c r="K388" s="59"/>
-      <c r="L388" s="108"/>
-      <c r="M388" s="59"/>
+      <c r="L388" s="108" t="s">
+        <v>979</v>
+      </c>
+      <c r="M388" s="108" t="s">
+        <v>32</v>
+      </c>
       <c r="N388" s="59"/>
       <c r="O388" s="59"/>
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="59"/>
       <c r="B389" s="59" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C389" s="59"/>
       <c r="D389" s="59" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E389" s="59" t="s">
         <v>20</v>
@@ -16153,11 +16159,9 @@
         <v>980</v>
       </c>
       <c r="K389" s="59"/>
-      <c r="L389" s="108" t="s">
-        <v>980</v>
-      </c>
+      <c r="L389" s="108"/>
       <c r="M389" s="108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N389" s="59"/>
       <c r="O389" s="59"/>
@@ -16165,11 +16169,11 @@
     <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="59"/>
       <c r="B390" s="59" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C390" s="59"/>
       <c r="D390" s="59" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E390" s="59" t="s">
         <v>20</v>
@@ -16177,26 +16181,22 @@
       <c r="F390" s="59"/>
       <c r="G390" s="59"/>
       <c r="H390" s="115"/>
-      <c r="I390" s="59"/>
-      <c r="J390" s="108" t="s">
-        <v>981</v>
-      </c>
-      <c r="K390" s="59"/>
-      <c r="L390" s="108"/>
-      <c r="M390" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="N390" s="59"/>
-      <c r="O390" s="59"/>
+      <c r="I390" s="115"/>
+      <c r="J390" s="115"/>
+      <c r="K390" s="115"/>
+      <c r="L390" s="115"/>
+      <c r="M390" s="115"/>
+      <c r="N390" s="115"/>
+      <c r="O390" s="115"/>
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="59"/>
       <c r="B391" s="59" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C391" s="59"/>
       <c r="D391" s="59" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E391" s="59" t="s">
         <v>32</v>
@@ -16204,22 +16204,32 @@
       <c r="F391" s="59"/>
       <c r="G391" s="59"/>
       <c r="H391" s="115"/>
-      <c r="I391" s="115"/>
-      <c r="J391" s="115"/>
-      <c r="K391" s="115"/>
-      <c r="L391" s="115"/>
-      <c r="M391" s="115"/>
-      <c r="N391" s="115"/>
-      <c r="O391" s="115"/>
+      <c r="I391" s="59" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J391" s="59" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K391" s="59"/>
+      <c r="L391" s="59" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M391" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="N391" s="59"/>
+      <c r="O391" s="59">
+        <v>4367</v>
+      </c>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="59"/>
       <c r="B392" s="59" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C392" s="59"/>
       <c r="D392" s="59" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E392" s="59" t="s">
         <v>20</v>
@@ -16227,32 +16237,30 @@
       <c r="F392" s="59"/>
       <c r="G392" s="59"/>
       <c r="H392" s="115"/>
-      <c r="I392" s="59" t="s">
-        <v>1004</v>
-      </c>
+      <c r="I392" s="59"/>
       <c r="J392" s="59" t="s">
-        <v>1004</v>
+        <v>634</v>
       </c>
       <c r="K392" s="59"/>
       <c r="L392" s="59" t="s">
-        <v>1004</v>
+        <v>634</v>
       </c>
       <c r="M392" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N392" s="59"/>
       <c r="O392" s="59">
-        <v>4367</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="59"/>
       <c r="B393" s="59" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C393" s="59"/>
       <c r="D393" s="59" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E393" s="59" t="s">
         <v>20</v>
@@ -16262,18 +16270,18 @@
       <c r="H393" s="115"/>
       <c r="I393" s="59"/>
       <c r="J393" s="59" t="s">
-        <v>635</v>
+        <v>1004</v>
       </c>
       <c r="K393" s="59"/>
       <c r="L393" s="59" t="s">
-        <v>635</v>
+        <v>1004</v>
       </c>
       <c r="M393" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N393" s="59"/>
       <c r="O393" s="59">
-        <v>4632</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.25">
@@ -16287,30 +16295,28 @@
       <c r="H394" s="115"/>
       <c r="I394" s="59"/>
       <c r="J394" s="59" t="s">
-        <v>1005</v>
+        <v>653</v>
       </c>
       <c r="K394" s="59"/>
       <c r="L394" s="59" t="s">
-        <v>1005</v>
+        <v>1109</v>
       </c>
       <c r="M394" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N394" s="59"/>
-      <c r="O394" s="59">
-        <v>4727</v>
-      </c>
+      <c r="O394" s="59"/>
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="59" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B395" s="59" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C395" s="59"/>
       <c r="D395" s="59" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E395" s="59" t="s">
         <v>20</v>
@@ -16318,30 +16324,24 @@
       <c r="F395" s="59"/>
       <c r="G395" s="59"/>
       <c r="H395" s="115"/>
-      <c r="I395" s="59"/>
-      <c r="J395" s="59" t="s">
-        <v>654</v>
-      </c>
-      <c r="K395" s="59"/>
-      <c r="L395" s="59" t="s">
-        <v>1110</v>
-      </c>
-      <c r="M395" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="N395" s="59"/>
-      <c r="O395" s="59"/>
+      <c r="I395" s="115"/>
+      <c r="J395" s="115"/>
+      <c r="K395" s="115"/>
+      <c r="L395" s="115"/>
+      <c r="M395" s="115"/>
+      <c r="N395" s="115"/>
+      <c r="O395" s="115"/>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="59" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B396" s="59" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C396" s="59"/>
       <c r="D396" s="59" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E396" s="59" t="s">
         <v>32</v>
@@ -16349,13 +16349,15 @@
       <c r="F396" s="59"/>
       <c r="G396" s="59"/>
       <c r="H396" s="115"/>
-      <c r="I396" s="115"/>
-      <c r="J396" s="115"/>
-      <c r="K396" s="115"/>
-      <c r="L396" s="115"/>
-      <c r="M396" s="115"/>
-      <c r="N396" s="115"/>
-      <c r="O396" s="115"/>
+      <c r="I396" s="59" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J396" s="59"/>
+      <c r="K396" s="59"/>
+      <c r="L396" s="59"/>
+      <c r="M396" s="59"/>
+      <c r="N396" s="59"/>
+      <c r="O396" s="59"/>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="115"/>
@@ -16369,23 +16371,29 @@
       <c r="I397" s="59" t="s">
         <v>1012</v>
       </c>
-      <c r="J397" s="59"/>
+      <c r="J397" s="59" t="s">
+        <v>1014</v>
+      </c>
       <c r="K397" s="59"/>
-      <c r="L397" s="59"/>
-      <c r="M397" s="59"/>
+      <c r="L397" s="59" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M397" s="59" t="s">
+        <v>32</v>
+      </c>
       <c r="N397" s="59"/>
       <c r="O397" s="59"/>
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="59" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B398" s="59" t="s">
         <v>1032</v>
-      </c>
-      <c r="B398" s="59" t="s">
-        <v>1033</v>
       </c>
       <c r="C398" s="59"/>
       <c r="D398" s="59" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E398" s="59" t="s">
         <v>32</v>
@@ -16404,7 +16412,7 @@
         <v>1015</v>
       </c>
       <c r="M398" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N398" s="59"/>
       <c r="O398" s="59"/>
@@ -16412,11 +16420,11 @@
     <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="59"/>
       <c r="B399" s="59" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C399" s="59"/>
       <c r="D399" s="59" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E399" s="59" t="s">
         <v>32</v>
@@ -16424,9 +16432,7 @@
       <c r="F399" s="59"/>
       <c r="G399" s="59"/>
       <c r="H399" s="115"/>
-      <c r="I399" s="59" t="s">
-        <v>1014</v>
-      </c>
+      <c r="I399" s="59"/>
       <c r="J399" s="59" t="s">
         <v>1016</v>
       </c>
@@ -16435,7 +16441,7 @@
         <v>1016</v>
       </c>
       <c r="M399" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N399" s="59"/>
       <c r="O399" s="59"/>
@@ -16443,11 +16449,11 @@
     <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="59"/>
       <c r="B400" s="59" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C400" s="59"/>
       <c r="D400" s="59" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E400" s="59" t="s">
         <v>32</v>
@@ -16472,11 +16478,11 @@
     <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="59"/>
       <c r="B401" s="59" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C401" s="59"/>
       <c r="D401" s="59" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E401" s="59" t="s">
         <v>20</v>
@@ -16501,11 +16507,11 @@
     <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="59"/>
       <c r="B402" s="59" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C402" s="59"/>
       <c r="D402" s="59" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E402" s="59" t="s">
         <v>20</v>
@@ -16530,11 +16536,11 @@
     <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="59"/>
       <c r="B403" s="59" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C403" s="59"/>
       <c r="D403" s="59" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E403" s="59" t="s">
         <v>32</v>
@@ -16551,7 +16557,7 @@
         <v>1020</v>
       </c>
       <c r="M403" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N403" s="59"/>
       <c r="O403" s="59"/>
@@ -16559,11 +16565,11 @@
     <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="59"/>
       <c r="B404" s="59" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C404" s="59"/>
       <c r="D404" s="59" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E404" s="59" t="s">
         <v>20</v>
@@ -16588,11 +16594,11 @@
     <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="59"/>
       <c r="B405" s="59" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C405" s="59"/>
       <c r="D405" s="59" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E405" s="59" t="s">
         <v>20</v>
@@ -16609,7 +16615,7 @@
         <v>1022</v>
       </c>
       <c r="M405" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N405" s="59"/>
       <c r="O405" s="59"/>
@@ -16631,21 +16637,21 @@
         <v>1023</v>
       </c>
       <c r="M406" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N406" s="59"/>
       <c r="O406" s="59"/>
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="59" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B407" s="59" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C407" s="59"/>
       <c r="D407" s="59" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E407" s="59" t="s">
         <v>32</v>
@@ -16669,14 +16675,14 @@
     </row>
     <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="59" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B408" s="59" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C408" s="59"/>
       <c r="D408" s="59" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E408" s="59" t="s">
         <v>20</v>
@@ -16701,11 +16707,11 @@
     <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="59"/>
       <c r="B409" s="59" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C409" s="59"/>
       <c r="D409" s="59" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E409" s="59" t="s">
         <v>32</v>
@@ -16730,11 +16736,11 @@
     <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="59"/>
       <c r="B410" s="59" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C410" s="59"/>
       <c r="D410" s="59" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E410" s="59" t="s">
         <v>32</v>
@@ -16742,28 +16748,20 @@
       <c r="F410" s="59"/>
       <c r="G410" s="59"/>
       <c r="H410" s="115"/>
-      <c r="I410" s="59"/>
-      <c r="J410" s="59" t="s">
-        <v>1027</v>
-      </c>
-      <c r="K410" s="59"/>
-      <c r="L410" s="59" t="s">
-        <v>1027</v>
-      </c>
-      <c r="M410" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="N410" s="59"/>
-      <c r="O410" s="59"/>
+      <c r="I410" s="59" t="s">
+        <v>1092</v>
+      </c>
+      <c r="N410" s="115"/>
+      <c r="O410" s="115"/>
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="59"/>
       <c r="B411" s="59" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C411" s="59"/>
       <c r="D411" s="59" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E411" s="59" t="s">
         <v>20</v>
@@ -16772,19 +16770,29 @@
       <c r="G411" s="59"/>
       <c r="H411" s="115"/>
       <c r="I411" s="59" t="s">
-        <v>1093</v>
-      </c>
-      <c r="N411" s="115"/>
-      <c r="O411" s="115"/>
+        <v>1057</v>
+      </c>
+      <c r="J411" s="59" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K411" s="59"/>
+      <c r="L411" s="59" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M411" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="N411" s="59"/>
+      <c r="O411" s="59"/>
     </row>
     <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="59"/>
       <c r="B412" s="59" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C412" s="59"/>
       <c r="D412" s="59" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E412" s="59" t="s">
         <v>32</v>
@@ -16792,9 +16800,7 @@
       <c r="F412" s="59"/>
       <c r="G412" s="59"/>
       <c r="H412" s="115"/>
-      <c r="I412" s="59" t="s">
-        <v>1058</v>
-      </c>
+      <c r="I412" s="59"/>
       <c r="J412" s="59" t="s">
         <v>1059</v>
       </c>
@@ -16803,7 +16809,7 @@
         <v>1059</v>
       </c>
       <c r="M412" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N412" s="59"/>
       <c r="O412" s="59"/>
@@ -16811,11 +16817,11 @@
     <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="59"/>
       <c r="B413" s="59" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C413" s="59"/>
       <c r="D413" s="59" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E413" s="59" t="s">
         <v>20</v>
@@ -16832,7 +16838,7 @@
         <v>1060</v>
       </c>
       <c r="M413" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N413" s="59"/>
       <c r="O413" s="59"/>
@@ -16840,11 +16846,11 @@
     <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="59"/>
       <c r="B414" s="59" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C414" s="59"/>
       <c r="D414" s="59" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E414" s="59" t="s">
         <v>32</v>
@@ -16857,8 +16863,8 @@
         <v>1061</v>
       </c>
       <c r="K414" s="59"/>
-      <c r="L414" s="59" t="s">
-        <v>1061</v>
+      <c r="L414" s="59">
+        <v>460</v>
       </c>
       <c r="M414" s="59" t="s">
         <v>32</v>
@@ -16869,11 +16875,11 @@
     <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="59"/>
       <c r="B415" s="59" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C415" s="59"/>
       <c r="D415" s="59" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E415" s="59" t="s">
         <v>32</v>
@@ -16886,8 +16892,8 @@
         <v>1062</v>
       </c>
       <c r="K415" s="59"/>
-      <c r="L415" s="59">
-        <v>460</v>
+      <c r="L415" s="59" t="s">
+        <v>1062</v>
       </c>
       <c r="M415" s="59" t="s">
         <v>32</v>
@@ -16898,11 +16904,11 @@
     <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="59"/>
       <c r="B416" s="59" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C416" s="59"/>
       <c r="D416" s="59" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E416" s="59" t="s">
         <v>20</v>
@@ -16919,7 +16925,7 @@
         <v>1063</v>
       </c>
       <c r="M416" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N416" s="59"/>
       <c r="O416" s="59"/>
@@ -16927,11 +16933,11 @@
     <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="59"/>
       <c r="B417" s="59" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C417" s="59"/>
       <c r="D417" s="59" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E417" s="59" t="s">
         <v>20</v>
@@ -16940,15 +16946,15 @@
       <c r="G417" s="59"/>
       <c r="H417" s="115"/>
       <c r="I417" s="59"/>
-      <c r="J417" s="59" t="s">
-        <v>1064</v>
+      <c r="J417" s="59">
+        <v>508</v>
       </c>
       <c r="K417" s="59"/>
-      <c r="L417" s="59" t="s">
-        <v>1064</v>
+      <c r="L417" s="59">
+        <v>508</v>
       </c>
       <c r="M417" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N417" s="59"/>
       <c r="O417" s="59"/>
@@ -16956,11 +16962,11 @@
     <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="59"/>
       <c r="B418" s="59" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C418" s="59"/>
       <c r="D418" s="59" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E418" s="59" t="s">
         <v>32</v>
@@ -16970,14 +16976,14 @@
       <c r="H418" s="115"/>
       <c r="I418" s="59"/>
       <c r="J418" s="59">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K418" s="59"/>
       <c r="L418" s="59">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M418" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N418" s="59"/>
       <c r="O418" s="59"/>
@@ -16985,11 +16991,11 @@
     <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="59"/>
       <c r="B419" s="59" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C419" s="59"/>
       <c r="D419" s="59" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E419" s="59" t="s">
         <v>20</v>
@@ -16999,11 +17005,11 @@
       <c r="H419" s="115"/>
       <c r="I419" s="59"/>
       <c r="J419" s="59">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K419" s="59"/>
       <c r="L419" s="59">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M419" s="59" t="s">
         <v>20</v>
@@ -17014,11 +17020,11 @@
     <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="59"/>
       <c r="B420" s="59" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C420" s="59"/>
       <c r="D420" s="59" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E420" s="59" t="s">
         <v>32</v>
@@ -17028,14 +17034,14 @@
       <c r="H420" s="115"/>
       <c r="I420" s="59"/>
       <c r="J420" s="59">
-        <v>510</v>
-      </c>
-      <c r="K420" s="59"/>
+        <v>511</v>
+      </c>
+      <c r="K420" s="37"/>
       <c r="L420" s="59">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M420" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N420" s="59"/>
       <c r="O420" s="59"/>
@@ -17051,11 +17057,11 @@
       <c r="H421" s="115"/>
       <c r="I421" s="59"/>
       <c r="J421" s="59">
-        <v>511</v>
-      </c>
-      <c r="K421" s="37"/>
+        <v>512</v>
+      </c>
+      <c r="K421" s="59"/>
       <c r="L421" s="59">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M421" s="59" t="s">
         <v>32</v>
@@ -17065,7 +17071,7 @@
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="59" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B422" s="59"/>
       <c r="C422" s="59"/>
@@ -17076,14 +17082,14 @@
       <c r="H422" s="115"/>
       <c r="I422" s="59"/>
       <c r="J422" s="59">
-        <v>512</v>
+        <v>557</v>
       </c>
       <c r="K422" s="59"/>
       <c r="L422" s="59">
-        <v>512</v>
+        <v>557</v>
       </c>
       <c r="M422" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N422" s="59"/>
       <c r="O422" s="59"/>
@@ -17093,11 +17099,11 @@
         <v>288</v>
       </c>
       <c r="B423" s="59" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C423" s="59"/>
       <c r="D423" s="59" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E423" s="59" t="s">
         <v>20</v>
@@ -17107,11 +17113,11 @@
       <c r="H423" s="115"/>
       <c r="I423" s="59"/>
       <c r="J423" s="59">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K423" s="59"/>
       <c r="L423" s="59">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M423" s="59" t="s">
         <v>20</v>
@@ -17128,30 +17134,24 @@
       <c r="F424" s="115"/>
       <c r="G424" s="115"/>
       <c r="H424" s="115"/>
-      <c r="I424" s="59"/>
-      <c r="J424" s="59">
-        <v>558</v>
-      </c>
-      <c r="K424" s="59"/>
-      <c r="L424" s="59">
-        <v>558</v>
-      </c>
-      <c r="M424" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="N424" s="59"/>
-      <c r="O424" s="59"/>
+      <c r="I424" s="115"/>
+      <c r="J424" s="115"/>
+      <c r="K424" s="115"/>
+      <c r="L424" s="115"/>
+      <c r="M424" s="115"/>
+      <c r="N424" s="115"/>
+      <c r="O424" s="115"/>
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="59" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B425" s="59" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C425" s="59"/>
       <c r="D425" s="59" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E425" s="120" t="s">
         <v>32</v>
@@ -17161,43 +17161,49 @@
       </c>
       <c r="G425" s="59"/>
       <c r="H425" s="115"/>
-      <c r="I425" s="115"/>
-      <c r="J425" s="115"/>
-      <c r="K425" s="115"/>
-      <c r="L425" s="115"/>
-      <c r="M425" s="115"/>
-      <c r="N425" s="115"/>
-      <c r="O425" s="115"/>
+      <c r="I425" s="59" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J425" s="59">
+        <v>494</v>
+      </c>
+      <c r="K425" s="59"/>
+      <c r="L425" s="59">
+        <v>494</v>
+      </c>
+      <c r="M425" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="N425" s="59"/>
+      <c r="O425" s="59"/>
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="59"/>
       <c r="B426" s="59" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C426" s="59"/>
       <c r="D426" s="59" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E426" s="120" t="s">
         <v>20</v>
       </c>
       <c r="F426" s="121" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G426" s="59"/>
       <c r="H426" s="115"/>
-      <c r="I426" s="59" t="s">
+      <c r="I426" s="59"/>
+      <c r="J426" s="59" t="s">
         <v>1065</v>
       </c>
-      <c r="J426" s="59">
-        <v>494</v>
-      </c>
       <c r="K426" s="59"/>
-      <c r="L426" s="59">
-        <v>494</v>
+      <c r="L426" s="59" t="s">
+        <v>1065</v>
       </c>
       <c r="M426" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N426" s="59"/>
       <c r="O426" s="59"/>
@@ -17205,63 +17211,63 @@
     <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="59"/>
       <c r="B427" s="59" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C427" s="59"/>
       <c r="D427" s="59" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E427" s="120" t="s">
         <v>32</v>
       </c>
       <c r="F427" s="121" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G427" s="59"/>
       <c r="H427" s="115"/>
       <c r="I427" s="59"/>
       <c r="J427" s="59" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="K427" s="59"/>
       <c r="L427" s="59" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="M427" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N427" s="59"/>
       <c r="O427" s="59"/>
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="59" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B428" s="59" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C428" s="59"/>
       <c r="D428" s="59" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E428" s="120" t="s">
         <v>20</v>
       </c>
       <c r="F428" s="121" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G428" s="59"/>
       <c r="H428" s="115"/>
       <c r="I428" s="59"/>
       <c r="J428" s="59" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="K428" s="59"/>
       <c r="L428" s="59" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="M428" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N428" s="59"/>
       <c r="O428" s="59"/>
@@ -17269,17 +17275,17 @@
     <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="59"/>
       <c r="B429" s="59" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C429" s="59"/>
       <c r="D429" s="59" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E429" s="120" t="s">
         <v>32</v>
       </c>
       <c r="F429" s="121" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G429" s="59"/>
       <c r="H429" s="115"/>
@@ -17300,17 +17306,17 @@
     <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="59"/>
       <c r="B430" s="59" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C430" s="59"/>
       <c r="D430" s="59" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E430" s="120" t="s">
         <v>32</v>
       </c>
       <c r="F430" s="121" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G430" s="59"/>
       <c r="H430" s="115"/>
@@ -17331,28 +17337,26 @@
     <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="59"/>
       <c r="B431" s="59" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C431" s="59"/>
       <c r="D431" s="59" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E431" s="120" t="s">
         <v>20</v>
       </c>
       <c r="F431" s="121" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G431" s="59"/>
       <c r="H431" s="115"/>
       <c r="I431" s="59"/>
       <c r="J431" s="59" t="s">
-        <v>1069</v>
+        <v>471</v>
       </c>
       <c r="K431" s="59"/>
-      <c r="L431" s="59" t="s">
-        <v>1069</v>
-      </c>
+      <c r="L431" s="59"/>
       <c r="M431" s="59" t="s">
         <v>20</v>
       </c>
@@ -17362,31 +17366,27 @@
     <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="59"/>
       <c r="B432" s="59" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C432" s="59"/>
       <c r="D432" s="59" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E432" s="120" t="s">
         <v>20</v>
       </c>
       <c r="F432" s="121" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G432" s="59"/>
       <c r="H432" s="115"/>
-      <c r="I432" s="59"/>
-      <c r="J432" s="59" t="s">
-        <v>471</v>
-      </c>
-      <c r="K432" s="59"/>
-      <c r="L432" s="59"/>
-      <c r="M432" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="N432" s="59"/>
-      <c r="O432" s="59"/>
+      <c r="I432" s="115"/>
+      <c r="J432" s="115"/>
+      <c r="K432" s="115"/>
+      <c r="L432" s="115"/>
+      <c r="M432" s="115"/>
+      <c r="N432" s="115"/>
+      <c r="O432" s="115"/>
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="115"/>
@@ -17397,13 +17397,15 @@
       <c r="F433" s="115"/>
       <c r="G433" s="115"/>
       <c r="H433" s="115"/>
-      <c r="I433" s="115"/>
-      <c r="J433" s="115"/>
-      <c r="K433" s="115"/>
-      <c r="L433" s="115"/>
-      <c r="M433" s="115"/>
-      <c r="N433" s="115"/>
-      <c r="O433" s="115"/>
+      <c r="I433" s="59" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J433" s="59"/>
+      <c r="K433" s="59"/>
+      <c r="L433" s="59"/>
+      <c r="M433" s="59"/>
+      <c r="N433" s="59"/>
+      <c r="O433" s="59"/>
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B434" s="59"/>
@@ -17414,25 +17416,31 @@
       <c r="G434" s="59"/>
       <c r="H434" s="115"/>
       <c r="I434" s="59" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J434" s="59"/>
+        <v>1078</v>
+      </c>
+      <c r="J434" s="59" t="s">
+        <v>1079</v>
+      </c>
       <c r="K434" s="59"/>
-      <c r="L434" s="59"/>
-      <c r="M434" s="59"/>
+      <c r="L434" s="59" t="s">
+        <v>1079</v>
+      </c>
+      <c r="M434" s="59" t="s">
+        <v>20</v>
+      </c>
       <c r="N434" s="59"/>
       <c r="O434" s="59"/>
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="59" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B435" s="59" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C435" s="59"/>
       <c r="D435" s="59" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E435" s="59" t="s">
         <v>20</v>
@@ -17440,32 +17448,28 @@
       <c r="F435" s="59"/>
       <c r="G435" s="59"/>
       <c r="H435" s="115"/>
-      <c r="I435" s="59" t="s">
-        <v>1079</v>
-      </c>
+      <c r="I435" s="59"/>
       <c r="J435" s="59" t="s">
-        <v>1080</v>
+        <v>270</v>
       </c>
       <c r="K435" s="59"/>
-      <c r="L435" s="59" t="s">
-        <v>1080</v>
-      </c>
+      <c r="L435" s="59"/>
       <c r="M435" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N435" s="59"/>
       <c r="O435" s="59"/>
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="59" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B436" s="59" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C436" s="59"/>
       <c r="D436" s="59" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E436" s="59" t="s">
         <v>32</v>
@@ -17475,10 +17479,12 @@
       <c r="H436" s="115"/>
       <c r="I436" s="59"/>
       <c r="J436" s="59" t="s">
-        <v>270</v>
+        <v>1080</v>
       </c>
       <c r="K436" s="59"/>
-      <c r="L436" s="59"/>
+      <c r="L436" s="59" t="s">
+        <v>1080</v>
+      </c>
       <c r="M436" s="59" t="s">
         <v>32</v>
       </c>
@@ -17488,11 +17494,11 @@
     <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="59"/>
       <c r="B437" s="59" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C437" s="59"/>
       <c r="D437" s="59" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E437" s="59" t="s">
         <v>32</v>
@@ -17502,14 +17508,14 @@
       <c r="H437" s="115"/>
       <c r="I437" s="59"/>
       <c r="J437" s="59" t="s">
-        <v>1081</v>
+        <v>948</v>
       </c>
       <c r="K437" s="59"/>
       <c r="L437" s="59" t="s">
-        <v>1081</v>
+        <v>948</v>
       </c>
       <c r="M437" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N437" s="59"/>
       <c r="O437" s="59"/>
@@ -17517,7 +17523,7 @@
     <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="59"/>
       <c r="B438" s="59" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C438" s="59"/>
       <c r="D438" s="59"/>
@@ -17527,15 +17533,13 @@
       <c r="H438" s="115"/>
       <c r="I438" s="59"/>
       <c r="J438" s="59" t="s">
-        <v>949</v>
+        <v>1081</v>
       </c>
       <c r="K438" s="59"/>
       <c r="L438" s="59" t="s">
-        <v>949</v>
-      </c>
-      <c r="M438" s="59" t="s">
-        <v>20</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="M438" s="59"/>
       <c r="N438" s="59"/>
       <c r="O438" s="59"/>
     </row>
@@ -17549,13 +17553,15 @@
       <c r="L439" s="59" t="s">
         <v>1082</v>
       </c>
-      <c r="M439" s="59"/>
+      <c r="M439" s="59" t="s">
+        <v>20</v>
+      </c>
       <c r="N439" s="59"/>
       <c r="O439" s="59"/>
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="59" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B440" s="115"/>
       <c r="C440" s="115"/>
@@ -17573,21 +17579,21 @@
         <v>1083</v>
       </c>
       <c r="M440" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N440" s="59"/>
       <c r="O440" s="59"/>
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="59" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B441" s="59" t="s">
         <v>1094</v>
-      </c>
-      <c r="B441" s="59" t="s">
-        <v>1095</v>
       </c>
       <c r="C441" s="59"/>
       <c r="D441" s="59" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E441" s="59" t="s">
         <v>32</v>
@@ -17604,18 +17610,18 @@
         <v>1084</v>
       </c>
       <c r="M441" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N441" s="59"/>
       <c r="O441" s="59"/>
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B442" s="59" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C442" s="59"/>
       <c r="D442" s="59" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E442" s="59" t="s">
         <v>32</v>
@@ -17632,7 +17638,7 @@
         <v>1085</v>
       </c>
       <c r="M442" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N442" s="59"/>
       <c r="O442" s="59"/>
@@ -17640,11 +17646,11 @@
     <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="59"/>
       <c r="B443" s="59" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C443" s="59"/>
       <c r="D443" s="59" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E443" s="59" t="s">
         <v>20</v>
@@ -17652,19 +17658,13 @@
       <c r="F443" s="59"/>
       <c r="G443" s="59"/>
       <c r="H443" s="115"/>
-      <c r="I443" s="59"/>
-      <c r="J443" s="59" t="s">
-        <v>1086</v>
-      </c>
-      <c r="K443" s="59"/>
-      <c r="L443" s="59" t="s">
-        <v>1086</v>
-      </c>
-      <c r="M443" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="N443" s="59"/>
-      <c r="O443" s="59"/>
+      <c r="I443" s="115"/>
+      <c r="J443" s="115"/>
+      <c r="K443" s="115"/>
+      <c r="L443" s="115"/>
+      <c r="M443" s="115"/>
+      <c r="N443" s="115"/>
+      <c r="O443" s="115"/>
     </row>
     <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="59"/>
@@ -17681,13 +17681,15 @@
       <c r="F444" s="59"/>
       <c r="G444" s="59"/>
       <c r="H444" s="115"/>
-      <c r="I444" s="115"/>
-      <c r="J444" s="115"/>
-      <c r="K444" s="115"/>
-      <c r="L444" s="115"/>
-      <c r="M444" s="115"/>
-      <c r="N444" s="115"/>
-      <c r="O444" s="115"/>
+      <c r="I444" s="59" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J444" s="59"/>
+      <c r="K444" s="59"/>
+      <c r="L444" s="59"/>
+      <c r="M444" s="59"/>
+      <c r="N444" s="59"/>
+      <c r="O444" s="59"/>
     </row>
     <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="59"/>
@@ -17705,12 +17707,18 @@
       <c r="G445" s="59"/>
       <c r="H445" s="115"/>
       <c r="I445" s="59" t="s">
-        <v>1093</v>
-      </c>
-      <c r="J445" s="59"/>
+        <v>226</v>
+      </c>
+      <c r="J445" s="59" t="s">
+        <v>226</v>
+      </c>
       <c r="K445" s="59"/>
-      <c r="L445" s="59"/>
-      <c r="M445" s="59"/>
+      <c r="L445" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="M445" s="59" t="s">
+        <v>32</v>
+      </c>
       <c r="N445" s="59"/>
       <c r="O445" s="59"/>
     </row>
@@ -17729,18 +17737,16 @@
       <c r="F446" s="59"/>
       <c r="G446" s="59"/>
       <c r="H446" s="115"/>
-      <c r="I446" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="J446" s="59" t="s">
-        <v>226</v>
+      <c r="I446" s="37"/>
+      <c r="J446" s="59">
+        <v>573</v>
       </c>
       <c r="K446" s="59"/>
-      <c r="L446" s="59" t="s">
-        <v>226</v>
+      <c r="L446" s="59">
+        <v>573</v>
       </c>
       <c r="M446" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N446" s="59"/>
       <c r="O446" s="59"/>
@@ -17760,16 +17766,16 @@
       <c r="F447" s="59"/>
       <c r="G447" s="59"/>
       <c r="H447" s="115"/>
-      <c r="I447" s="37"/>
-      <c r="J447" s="59">
-        <v>573</v>
+      <c r="I447" s="59"/>
+      <c r="J447" s="59" t="s">
+        <v>1097</v>
       </c>
       <c r="K447" s="59"/>
       <c r="L447" s="59">
-        <v>573</v>
+        <v>459</v>
       </c>
       <c r="M447" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N447" s="59"/>
       <c r="O447" s="59"/>
@@ -17795,10 +17801,10 @@
       </c>
       <c r="K448" s="59"/>
       <c r="L448" s="59">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="M448" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N448" s="59"/>
       <c r="O448" s="59"/>
@@ -17818,17 +17824,17 @@
       </c>
       <c r="K449" s="59"/>
       <c r="L449" s="59">
-        <v>515</v>
+        <v>622</v>
       </c>
       <c r="M449" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N449" s="59"/>
       <c r="O449" s="59"/>
     </row>
     <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="59" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B450" s="59">
         <v>675</v>
@@ -17849,7 +17855,7 @@
       </c>
       <c r="K450" s="59"/>
       <c r="L450" s="59">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M450" s="59" t="s">
         <v>32</v>
@@ -17872,19 +17878,13 @@
       <c r="F451" s="59"/>
       <c r="G451" s="59"/>
       <c r="H451" s="115"/>
-      <c r="I451" s="59"/>
-      <c r="J451" s="59" t="s">
-        <v>1101</v>
-      </c>
-      <c r="K451" s="59"/>
-      <c r="L451" s="59">
-        <v>623</v>
-      </c>
-      <c r="M451" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="N451" s="59"/>
-      <c r="O451" s="59"/>
+      <c r="I451" s="115"/>
+      <c r="J451" s="115"/>
+      <c r="K451" s="115"/>
+      <c r="L451" s="115"/>
+      <c r="M451" s="115"/>
+      <c r="N451" s="115"/>
+      <c r="O451" s="115"/>
     </row>
     <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="59"/>
@@ -17901,13 +17901,21 @@
       <c r="F452" s="59"/>
       <c r="G452" s="59"/>
       <c r="H452" s="115"/>
-      <c r="I452" s="115"/>
-      <c r="J452" s="115"/>
-      <c r="K452" s="115"/>
-      <c r="L452" s="115"/>
-      <c r="M452" s="115"/>
-      <c r="N452" s="115"/>
-      <c r="O452" s="115"/>
+      <c r="I452" s="59" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J452" s="59" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K452" s="59"/>
+      <c r="L452" s="59" t="s">
+        <v>1104</v>
+      </c>
+      <c r="M452" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="N452" s="59"/>
+      <c r="O452" s="59"/>
     </row>
     <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="59"/>
@@ -17935,7 +17943,7 @@
         <v>1105</v>
       </c>
       <c r="M453" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N453" s="59"/>
       <c r="O453" s="59"/>
@@ -17955,18 +17963,16 @@
       <c r="F454" s="59"/>
       <c r="G454" s="59"/>
       <c r="H454" s="115"/>
-      <c r="I454" s="59" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J454" s="59" t="s">
-        <v>1106</v>
+      <c r="I454" s="59"/>
+      <c r="J454" s="59">
+        <v>576</v>
       </c>
       <c r="K454" s="59"/>
-      <c r="L454" s="59" t="s">
-        <v>1106</v>
+      <c r="L454" s="59">
+        <v>576</v>
       </c>
       <c r="M454" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N454" s="59"/>
       <c r="O454" s="59"/>
@@ -17982,14 +17988,14 @@
       <c r="H455" s="115"/>
       <c r="I455" s="59"/>
       <c r="J455" s="59">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K455" s="59"/>
       <c r="L455" s="59">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M455" s="59" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N455" s="59"/>
       <c r="O455" s="59"/>
@@ -18005,14 +18011,14 @@
       <c r="H456" s="115"/>
       <c r="I456" s="59"/>
       <c r="J456" s="59">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="K456" s="59"/>
       <c r="L456" s="59">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="M456" s="59" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N456" s="59"/>
       <c r="O456" s="59"/>
@@ -18028,11 +18034,11 @@
       <c r="H457" s="115"/>
       <c r="I457" s="59"/>
       <c r="J457" s="59">
-        <v>581</v>
+        <v>628</v>
       </c>
       <c r="K457" s="59"/>
       <c r="L457" s="59">
-        <v>581</v>
+        <v>628</v>
       </c>
       <c r="M457" s="59" t="s">
         <v>32</v>
@@ -18051,11 +18057,11 @@
       <c r="H458" s="115"/>
       <c r="I458" s="59"/>
       <c r="J458" s="59">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="K458" s="59"/>
       <c r="L458" s="59">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M458" s="59" t="s">
         <v>32</v>
@@ -18072,19 +18078,13 @@
       <c r="F459" s="115"/>
       <c r="G459" s="115"/>
       <c r="H459" s="115"/>
-      <c r="I459" s="59"/>
-      <c r="J459" s="59">
-        <v>630</v>
-      </c>
-      <c r="K459" s="59"/>
-      <c r="L459" s="59">
-        <v>630</v>
-      </c>
-      <c r="M459" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="N459" s="59"/>
-      <c r="O459" s="59"/>
+      <c r="I459" s="115"/>
+      <c r="J459" s="115"/>
+      <c r="K459" s="115"/>
+      <c r="L459" s="115"/>
+      <c r="M459" s="115"/>
+      <c r="N459" s="115"/>
+      <c r="O459" s="115"/>
     </row>
     <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="115"/>
@@ -18775,13 +18775,6 @@
       <c r="F500" s="115"/>
       <c r="G500" s="115"/>
       <c r="H500" s="115"/>
-      <c r="I500" s="115"/>
-      <c r="J500" s="115"/>
-      <c r="K500" s="115"/>
-      <c r="L500" s="115"/>
-      <c r="M500" s="115"/>
-      <c r="N500" s="115"/>
-      <c r="O500" s="115"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P500" xr:uid="{8BD0B457-D9AE-4B60-82BF-D74F14089D78}"/>

--- a/data/RawData/ObsData/2001-2009/01-12-2006.xlsx
+++ b/data/RawData/ObsData/2001-2009/01-12-2006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2001-2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B7EB86-C35E-4B01-92D2-6FD3A9CA4CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC59455-5402-4B12-A5F3-E4C689D8FE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{62E47A96-C147-4ED7-A676-27C07D47686F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{62E47A96-C147-4ED7-A676-27C07D47686F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1121">
   <si>
     <t>Mico</t>
   </si>
@@ -5072,30 +5072,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD0B457-D9AE-4B60-82BF-D74F14089D78}">
   <dimension ref="A1:P500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="L224" sqref="L224"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="R141" sqref="R141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1113</v>
       </c>
@@ -5114,7 +5114,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5131,7 +5131,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>24</v>
       </c>
@@ -5152,7 +5152,7 @@
       <c r="N3" s="67"/>
       <c r="O3" s="67"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>25</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>29</v>
       </c>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>34</v>
       </c>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="O6" s="45"/>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="34" t="s">
         <v>37</v>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="O7" s="45"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" s="34" t="s">
         <v>3</v>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="O8" s="45"/>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="34" t="s">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="O9" s="45"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="O10" s="45"/>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
       <c r="B11" s="34" t="s">
         <v>6</v>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="O11" s="45"/>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" s="34" t="s">
         <v>7</v>
@@ -5489,7 +5489,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="B13" s="34" t="s">
         <v>8</v>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="O13" s="45"/>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="34" t="s">
         <v>9</v>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="O14" s="45"/>
     </row>
-    <row r="15" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" s="34" t="s">
         <v>10</v>
@@ -5592,7 +5592,7 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" s="34" t="s">
         <v>11</v>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="O16" s="45"/>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" s="34" t="s">
         <v>12</v>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="O17" s="77"/>
     </row>
-    <row r="18" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="C18" s="27"/>
       <c r="D18" s="29"/>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="O18" s="79"/>
     </row>
-    <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="59" t="s">
         <v>44</v>
       </c>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="O19" s="77"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="59"/>
       <c r="B20" s="61" t="s">
         <v>45</v>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="O20" s="79"/>
     </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34"/>
       <c r="B21" s="34" t="s">
         <v>50</v>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="O21" s="46"/>
     </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="O22" s="46"/>
     </row>
-    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>69</v>
       </c>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="O23" s="46"/>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
         <v>70</v>
       </c>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="O24" s="79"/>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47"/>
       <c r="B25" s="54" t="s">
         <v>58</v>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="O25" s="79"/>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48"/>
       <c r="B26" s="54" t="s">
         <v>59</v>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="O26" s="79"/>
     </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48"/>
       <c r="B27" s="54" t="s">
         <v>60</v>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="O27" s="79"/>
     </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47"/>
       <c r="B28" s="54" t="s">
         <v>61</v>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="O28" s="79"/>
     </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47"/>
       <c r="B29" s="54" t="s">
         <v>62</v>
@@ -6028,7 +6028,7 @@
       </c>
       <c r="O29" s="79"/>
     </row>
-    <row r="30" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47"/>
       <c r="B30" s="54" t="s">
         <v>63</v>
@@ -6054,7 +6054,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
       <c r="B31" s="54" t="s">
         <v>64</v>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="O31" s="35"/>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
       <c r="B32" s="54" t="s">
         <v>65</v>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="O32" s="35"/>
     </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="47"/>
       <c r="B33" s="54" t="s">
         <v>66</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="O33" s="35"/>
     </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="54" t="s">
         <v>67</v>
@@ -6198,7 +6198,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="O35" s="35"/>
     </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>100</v>
       </c>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="O36" s="35"/>
     </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="B37" s="64" t="s">
         <v>101</v>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="O37" s="35"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47"/>
       <c r="B38" s="52" t="s">
         <v>102</v>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="O38" s="35"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="65"/>
       <c r="B39" s="64" t="s">
         <v>103</v>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="O39" s="35"/>
     </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="51"/>
       <c r="B40" s="48" t="s">
         <v>104</v>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="O40" s="35"/>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47"/>
       <c r="B41" s="48" t="s">
         <v>118</v>
@@ -6424,7 +6424,7 @@
       <c r="N41" s="26"/>
       <c r="O41" s="27"/>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47"/>
       <c r="B42" s="48" t="s">
         <v>121</v>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="O42" s="35"/>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47"/>
       <c r="B43" s="48" t="s">
         <v>125</v>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="O43" s="35"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47"/>
       <c r="B44" s="48" t="s">
         <v>128</v>
@@ -6535,7 +6535,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47"/>
       <c r="B45" s="48" t="s">
         <v>130</v>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="O45" s="35"/>
     </row>
-    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="O46" s="35"/>
     </row>
-    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
         <v>133</v>
       </c>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="O47" s="35"/>
     </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="34" t="s">
         <v>134</v>
       </c>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="O48" s="35"/>
     </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="34"/>
       <c r="B49" s="48" t="s">
         <v>140</v>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="O49" s="35"/>
     </row>
-    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34"/>
       <c r="B50" s="48" t="s">
         <v>142</v>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="O50" s="35"/>
     </row>
-    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -6748,7 +6748,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
         <v>24</v>
       </c>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="O52" s="35"/>
     </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>25</v>
       </c>
@@ -6822,7 +6822,7 @@
       </c>
       <c r="O53" s="35"/>
     </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="91" t="s">
         <v>239</v>
       </c>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="O54" s="35"/>
     </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="91" t="s">
         <v>240</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
       <c r="B56" s="35" t="s">
         <v>243</v>
@@ -6935,7 +6935,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="34"/>
       <c r="B57" s="35" t="s">
         <v>246</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="O57" s="35"/>
     </row>
-    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="96"/>
       <c r="B58" s="96" t="s">
         <v>247</v>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="O58" s="35"/>
     </row>
-    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="96"/>
       <c r="B59" s="96" t="s">
         <v>248</v>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="O59" s="35"/>
     </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="96"/>
       <c r="B60" s="96" t="s">
         <v>249</v>
@@ -7079,7 +7079,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="96"/>
       <c r="B61" s="96" t="s">
         <v>244</v>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="O61" s="35"/>
     </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="96"/>
       <c r="B62" s="96" t="s">
         <v>245</v>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="O62" s="35"/>
     </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="96"/>
       <c r="B63" s="96" t="s">
         <v>250</v>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="O63" s="35"/>
     </row>
-    <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="96"/>
       <c r="B64" s="96" t="s">
         <v>251</v>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="O64" s="35"/>
     </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="96"/>
       <c r="B65" s="96" t="s">
         <v>252</v>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="O65" s="35"/>
     </row>
-    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="96"/>
       <c r="B66" s="96" t="s">
         <v>253</v>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="O66" s="35"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="96"/>
       <c r="B67" s="96" t="s">
         <v>254</v>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="O67" s="35"/>
     </row>
-    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="O68" s="35"/>
     </row>
-    <row r="69" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="34" t="s">
         <v>272</v>
       </c>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="O69" s="107"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="30"/>
       <c r="B70" s="98" t="s">
         <v>279</v>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="O70" s="31"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="33"/>
       <c r="B71" s="100" t="s">
         <v>257</v>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="O71" s="35"/>
     </row>
-    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="91"/>
       <c r="B72" s="48" t="s">
         <v>258</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="O72" s="35"/>
     </row>
-    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="91"/>
       <c r="B73" s="48" t="s">
         <v>259</v>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="O73" s="35"/>
     </row>
-    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="91"/>
       <c r="B74" s="48" t="s">
         <v>260</v>
@@ -7526,7 +7526,7 @@
       <c r="G74" s="50"/>
       <c r="H74" s="18"/>
     </row>
-    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="34"/>
       <c r="B75" s="48" t="s">
         <v>261</v>
@@ -7567,7 +7567,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="91"/>
       <c r="B76" s="48" t="s">
         <v>262</v>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="O76" s="35"/>
     </row>
-    <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="91"/>
       <c r="B77" s="48" t="s">
         <v>263</v>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="O77" s="35"/>
     </row>
-    <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="91"/>
       <c r="B78" s="48" t="s">
         <v>264</v>
@@ -7680,7 +7680,7 @@
       </c>
       <c r="O78" s="35"/>
     </row>
-    <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="91"/>
       <c r="B79" s="48" t="s">
         <v>265</v>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="O79" s="35"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="91"/>
       <c r="B80" s="48" t="s">
         <v>266</v>
@@ -7725,7 +7725,7 @@
       <c r="G80" s="50"/>
       <c r="H80" s="18"/>
     </row>
-    <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="91"/>
       <c r="B81" s="48" t="s">
         <v>267</v>
@@ -7760,7 +7760,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="91"/>
       <c r="B82" s="48" t="s">
         <v>287</v>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="O82" s="35"/>
     </row>
-    <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="88"/>
       <c r="B83" s="88"/>
       <c r="C83" s="88"/>
@@ -7820,7 +7820,7 @@
       </c>
       <c r="O83" s="35"/>
     </row>
-    <row r="84" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="34" t="s">
         <v>288</v>
       </c>
@@ -7859,7 +7859,7 @@
       </c>
       <c r="O84" s="35"/>
     </row>
-    <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="34" t="s">
         <v>288</v>
       </c>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="O85" s="35"/>
     </row>
-    <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="26"/>
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="O86" s="35"/>
     </row>
-    <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="34" t="s">
         <v>290</v>
       </c>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="O87" s="35"/>
     </row>
-    <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="34" t="s">
         <v>297</v>
       </c>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="O88" s="35"/>
     </row>
-    <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="34"/>
       <c r="B89" s="34" t="s">
         <v>299</v>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="O89" s="35"/>
     </row>
-    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="34"/>
       <c r="B90" s="34" t="s">
         <v>301</v>
@@ -8067,7 +8067,7 @@
       </c>
       <c r="O90" s="35"/>
     </row>
-    <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="34"/>
       <c r="B91" s="34" t="s">
         <v>303</v>
@@ -8088,7 +8088,7 @@
       <c r="H91" s="27"/>
       <c r="O91" s="92"/>
     </row>
-    <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="26"/>
       <c r="B92" s="26"/>
       <c r="C92" s="26"/>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="O92" s="35"/>
     </row>
-    <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="34" t="s">
         <v>305</v>
       </c>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="O93" s="35"/>
     </row>
-    <row r="94" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="34" t="s">
         <v>308</v>
       </c>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="O94" s="35"/>
     </row>
-    <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="34"/>
       <c r="B95" s="34" t="s">
         <v>291</v>
@@ -8234,7 +8234,7 @@
       </c>
       <c r="O95" s="35"/>
     </row>
-    <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="34"/>
       <c r="B96" s="34" t="s">
         <v>312</v>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="O96" s="35"/>
     </row>
-    <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="34"/>
       <c r="B97" s="34" t="s">
         <v>314</v>
@@ -8292,7 +8292,7 @@
       <c r="H97" s="27"/>
       <c r="O97" s="92"/>
     </row>
-    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="7"/>
@@ -8317,7 +8317,7 @@
       <c r="N98" s="108"/>
       <c r="O98" s="35"/>
     </row>
-    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="34" t="s">
         <v>413</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="91" t="s">
         <v>1108</v>
       </c>
@@ -8381,7 +8381,7 @@
       <c r="N100" s="108"/>
       <c r="O100" s="35"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="91"/>
       <c r="B101" s="95" t="s">
         <v>161</v>
@@ -8408,7 +8408,7 @@
       <c r="N101" s="108"/>
       <c r="O101" s="35"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="96"/>
       <c r="B102" s="113" t="s">
         <v>416</v>
@@ -8432,7 +8432,7 @@
       <c r="N102" s="34"/>
       <c r="O102" s="108"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="96"/>
       <c r="B103" s="113" t="s">
         <v>417</v>
@@ -8456,7 +8456,7 @@
       <c r="N103" s="108"/>
       <c r="O103" s="108"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="96"/>
       <c r="B104" s="113" t="s">
         <v>418</v>
@@ -8480,7 +8480,7 @@
       <c r="N104" s="108"/>
       <c r="O104" s="108"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="96"/>
       <c r="B105" s="113" t="s">
         <v>419</v>
@@ -8504,7 +8504,7 @@
       <c r="N105" s="108"/>
       <c r="O105" s="108"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="96"/>
       <c r="B106" s="113" t="s">
         <v>420</v>
@@ -8526,7 +8526,7 @@
       <c r="N106" s="28"/>
       <c r="O106" s="28"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="96"/>
       <c r="B107" s="113" t="s">
         <v>421</v>
@@ -8556,7 +8556,7 @@
       <c r="N107" s="108"/>
       <c r="O107" s="108"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="109"/>
       <c r="B108" s="109"/>
       <c r="C108" s="109"/>
@@ -8580,7 +8580,7 @@
         <v>4723</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="96" t="s">
         <v>423</v>
       </c>
@@ -8610,7 +8610,7 @@
       <c r="N109" s="108"/>
       <c r="O109" s="108"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="96" t="s">
         <v>424</v>
       </c>
@@ -8642,7 +8642,7 @@
       <c r="N110" s="108"/>
       <c r="O110" s="108"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="96"/>
       <c r="B111" s="113" t="s">
         <v>409</v>
@@ -8670,7 +8670,7 @@
       <c r="N111" s="108"/>
       <c r="O111" s="108"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="96"/>
       <c r="B112" s="113" t="s">
         <v>410</v>
@@ -8692,7 +8692,7 @@
       <c r="N112" s="28"/>
       <c r="O112" s="28"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="96"/>
       <c r="B113" s="113" t="s">
         <v>425</v>
@@ -8722,7 +8722,7 @@
       <c r="N113" s="108"/>
       <c r="O113" s="108"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="96"/>
       <c r="B114" s="113" t="s">
         <v>411</v>
@@ -8750,7 +8750,7 @@
       <c r="N114" s="108"/>
       <c r="O114" s="108"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="96"/>
       <c r="B115" s="113" t="s">
         <v>426</v>
@@ -8778,7 +8778,7 @@
       <c r="N115" s="108"/>
       <c r="O115" s="108"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="96"/>
       <c r="B116" s="113" t="s">
         <v>427</v>
@@ -8806,7 +8806,7 @@
       <c r="N116" s="108"/>
       <c r="O116" s="108"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="96"/>
       <c r="B117" s="113" t="s">
         <v>412</v>
@@ -8832,7 +8832,7 @@
       <c r="N117" s="108"/>
       <c r="O117" s="108"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="109"/>
       <c r="B118" s="109"/>
       <c r="C118" s="109"/>
@@ -8850,7 +8850,7 @@
       <c r="N118" s="108"/>
       <c r="O118" s="108"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="96" t="s">
         <v>288</v>
       </c>
@@ -8876,7 +8876,7 @@
       <c r="N119" s="108"/>
       <c r="O119" s="108"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="96" t="s">
         <v>288</v>
       </c>
@@ -8900,7 +8900,7 @@
       <c r="N120" s="28"/>
       <c r="O120" s="28"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="109"/>
       <c r="B121" s="109"/>
       <c r="C121" s="109"/>
@@ -8916,7 +8916,7 @@
       <c r="N121" s="28"/>
       <c r="O121" s="28"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="96" t="s">
         <v>429</v>
       </c>
@@ -8948,7 +8948,7 @@
       <c r="N122" s="108"/>
       <c r="O122" s="108"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="96"/>
       <c r="B123" s="113" t="s">
         <v>431</v>
@@ -8976,7 +8976,7 @@
       <c r="N123" s="108"/>
       <c r="O123" s="108"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="109"/>
       <c r="B124" s="109"/>
       <c r="C124" s="109"/>
@@ -8998,7 +8998,7 @@
       <c r="N124" s="108"/>
       <c r="O124" s="108"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="96" t="s">
         <v>434</v>
       </c>
@@ -9024,7 +9024,7 @@
       <c r="N125" s="108"/>
       <c r="O125" s="108"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="96"/>
       <c r="B126" s="113" t="s">
         <v>432</v>
@@ -9046,7 +9046,7 @@
       <c r="N126" s="28"/>
       <c r="O126" s="28"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="109"/>
       <c r="B127" s="109"/>
       <c r="C127" s="109"/>
@@ -9068,7 +9068,7 @@
       <c r="N127" s="108"/>
       <c r="O127" s="108"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="96" t="s">
         <v>433</v>
       </c>
@@ -9096,7 +9096,7 @@
       <c r="N128" s="108"/>
       <c r="O128" s="108"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="96"/>
       <c r="B129" s="113" t="s">
         <v>270</v>
@@ -9118,7 +9118,7 @@
       <c r="N129" s="108"/>
       <c r="O129" s="108"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="109"/>
       <c r="B130" s="109"/>
       <c r="C130" s="109"/>
@@ -9134,7 +9134,7 @@
       <c r="N130" s="28"/>
       <c r="O130" s="28"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="96" t="s">
         <v>435</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="96" t="s">
         <v>436</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="96"/>
       <c r="B133" s="113" t="s">
         <v>439</v>
@@ -9232,7 +9232,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="115"/>
       <c r="B134" s="115"/>
       <c r="C134" s="115"/>
@@ -9252,7 +9252,7 @@
       <c r="O134" s="59"/>
       <c r="P134" s="115"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="59" t="s">
         <v>491</v>
       </c>
@@ -9274,7 +9274,7 @@
       <c r="O135" s="59"/>
       <c r="P135" s="115"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="108" t="s">
         <v>492</v>
       </c>
@@ -9300,7 +9300,7 @@
       <c r="O136" s="115"/>
       <c r="P136" s="115"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="108" t="s">
         <v>493</v>
       </c>
@@ -9324,8 +9324,8 @@
         <v>484</v>
       </c>
       <c r="K137" s="59"/>
-      <c r="L137" s="108" t="s">
-        <v>484</v>
+      <c r="L137" s="108">
+        <v>2167</v>
       </c>
       <c r="M137" s="59" t="s">
         <v>32</v>
@@ -9334,7 +9334,7 @@
       <c r="O137" s="59"/>
       <c r="P137" s="115"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="59"/>
       <c r="B138" s="66" t="s">
         <v>496</v>
@@ -9366,7 +9366,7 @@
       <c r="O138" s="59"/>
       <c r="P138" s="115"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="59"/>
       <c r="B139" s="66" t="s">
         <v>497</v>
@@ -9396,7 +9396,7 @@
       <c r="O139" s="59"/>
       <c r="P139" s="115"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="59"/>
       <c r="B140" s="59" t="s">
         <v>506</v>
@@ -9426,7 +9426,7 @@
       <c r="O140" s="59"/>
       <c r="P140" s="115"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="59"/>
       <c r="B141" s="59" t="s">
         <v>507</v>
@@ -9452,7 +9452,7 @@
       <c r="O141" s="59"/>
       <c r="P141" s="115"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="59"/>
       <c r="B142" s="59" t="s">
         <v>508</v>
@@ -9474,7 +9474,7 @@
       <c r="O142" s="59"/>
       <c r="P142" s="115"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="59"/>
       <c r="B143" s="59" t="s">
         <v>509</v>
@@ -9496,7 +9496,7 @@
       <c r="O143" s="59"/>
       <c r="P143" s="115"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="115"/>
       <c r="B144" s="115"/>
       <c r="C144" s="115"/>
@@ -9514,7 +9514,7 @@
       <c r="O144" s="115"/>
       <c r="P144" s="115"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="59" t="s">
         <v>288</v>
       </c>
@@ -9542,7 +9542,7 @@
       <c r="O145" s="59"/>
       <c r="P145" s="115"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="59" t="s">
         <v>288</v>
       </c>
@@ -9578,7 +9578,7 @@
       </c>
       <c r="P146" s="115"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="59" t="s">
         <v>288</v>
       </c>
@@ -9612,7 +9612,7 @@
       <c r="O147" s="59"/>
       <c r="P147" s="115"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="115"/>
       <c r="B148" s="115"/>
       <c r="C148" s="115"/>
@@ -9636,7 +9636,7 @@
       <c r="O148" s="59"/>
       <c r="P148" s="115"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="59" t="s">
         <v>513</v>
       </c>
@@ -9668,7 +9668,7 @@
       <c r="O149" s="59"/>
       <c r="P149" s="115"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="59"/>
       <c r="B150" s="59" t="s">
         <v>515</v>
@@ -9698,7 +9698,7 @@
       <c r="O150" s="59"/>
       <c r="P150" s="115"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="59"/>
       <c r="B151" s="59" t="s">
         <v>516</v>
@@ -9718,7 +9718,7 @@
       <c r="O151" s="115"/>
       <c r="P151" s="115"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="59"/>
       <c r="B152" s="59" t="s">
         <v>517</v>
@@ -9746,7 +9746,7 @@
       <c r="O152" s="59"/>
       <c r="P152" s="115"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="59"/>
       <c r="B153" s="59" t="s">
         <v>518</v>
@@ -9774,7 +9774,7 @@
       <c r="O153" s="59"/>
       <c r="P153" s="115"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="59"/>
       <c r="B154" s="59" t="s">
         <v>519</v>
@@ -9800,7 +9800,7 @@
       <c r="O154" s="59"/>
       <c r="P154" s="115"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="115"/>
       <c r="B155" s="115"/>
       <c r="C155" s="115"/>
@@ -9818,7 +9818,7 @@
       <c r="O155" s="115"/>
       <c r="P155" s="115"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="59" t="s">
         <v>520</v>
       </c>
@@ -9854,7 +9854,7 @@
       <c r="O156" s="59"/>
       <c r="P156" s="115"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="59" t="s">
         <v>521</v>
       </c>
@@ -9888,7 +9888,7 @@
       <c r="O157" s="59"/>
       <c r="P157" s="115"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="59"/>
       <c r="B158" s="59" t="s">
         <v>513</v>
@@ -9918,7 +9918,7 @@
       <c r="O158" s="59"/>
       <c r="P158" s="115"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="59"/>
       <c r="B159" s="59" t="s">
         <v>524</v>
@@ -9944,7 +9944,7 @@
       <c r="O159" s="115"/>
       <c r="P159" s="115"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="59"/>
       <c r="B160" s="59" t="s">
         <v>525</v>
@@ -9974,7 +9974,7 @@
       <c r="O160" s="59"/>
       <c r="P160" s="115"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="59"/>
       <c r="B161" s="59" t="s">
         <v>526</v>
@@ -10000,7 +10000,7 @@
       <c r="O161" s="59"/>
       <c r="P161" s="115"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="59"/>
       <c r="B162" s="59" t="s">
         <v>527</v>
@@ -10025,7 +10025,7 @@
       <c r="O162" s="59"/>
       <c r="P162" s="115"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="115"/>
       <c r="B163" s="115"/>
       <c r="C163" s="115"/>
@@ -10049,7 +10049,7 @@
       <c r="O163" s="59"/>
       <c r="P163" s="115"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="59" t="s">
         <v>560</v>
       </c>
@@ -10081,7 +10081,7 @@
       <c r="O164" s="59"/>
       <c r="P164" s="115"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="59"/>
       <c r="B165" s="59" t="s">
         <v>270</v>
@@ -10105,7 +10105,7 @@
       <c r="O165" s="59"/>
       <c r="P165" s="115"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="115"/>
       <c r="B166" s="115"/>
       <c r="C166" s="115"/>
@@ -10123,7 +10123,7 @@
       <c r="O166" s="28"/>
       <c r="P166" s="115"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="108" t="s">
         <v>1107</v>
       </c>
@@ -10151,7 +10151,7 @@
       <c r="O167" s="108"/>
       <c r="P167" s="115"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="108" t="s">
         <v>561</v>
       </c>
@@ -10177,7 +10177,7 @@
       <c r="O168" s="28"/>
       <c r="P168" s="115"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="108" t="s">
         <v>562</v>
       </c>
@@ -10211,7 +10211,7 @@
       <c r="O169" s="108"/>
       <c r="P169" s="115"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="108"/>
       <c r="B170" s="108" t="s">
         <v>565</v>
@@ -10241,7 +10241,7 @@
       <c r="O170" s="108"/>
       <c r="P170" s="115"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="108"/>
       <c r="B171" s="108" t="s">
         <v>566</v>
@@ -10271,7 +10271,7 @@
       <c r="O171" s="108"/>
       <c r="P171" s="115"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="108"/>
       <c r="B172" s="108" t="s">
         <v>567</v>
@@ -10301,7 +10301,7 @@
       <c r="O172" s="108"/>
       <c r="P172" s="115"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="108"/>
       <c r="B173" s="108" t="s">
         <v>568</v>
@@ -10331,7 +10331,7 @@
       <c r="O173" s="108"/>
       <c r="P173" s="115"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
@@ -10355,7 +10355,7 @@
       <c r="O174" s="108"/>
       <c r="P174" s="115"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="83" t="s">
         <v>593</v>
       </c>
@@ -10381,7 +10381,7 @@
       <c r="O175" s="108"/>
       <c r="P175" s="115"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="83" t="s">
         <v>594</v>
       </c>
@@ -10413,7 +10413,7 @@
       <c r="O176" s="108"/>
       <c r="P176" s="115"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="83" t="s">
         <v>595</v>
       </c>
@@ -10441,7 +10441,7 @@
       <c r="O177" s="108"/>
       <c r="P177" s="115"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="83"/>
       <c r="B178" s="108" t="s">
         <v>597</v>
@@ -10467,7 +10467,7 @@
       <c r="O178" s="108"/>
       <c r="P178" s="115"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="108"/>
       <c r="B179" s="108" t="s">
         <v>598</v>
@@ -10491,7 +10491,7 @@
       <c r="O179" s="28"/>
       <c r="P179" s="115"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="108"/>
       <c r="B180" s="108" t="s">
         <v>599</v>
@@ -10523,7 +10523,7 @@
       <c r="O180" s="108"/>
       <c r="P180" s="115"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="108"/>
       <c r="B181" s="108" t="s">
         <v>600</v>
@@ -10553,7 +10553,7 @@
       <c r="O181" s="108"/>
       <c r="P181" s="115"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="108"/>
       <c r="B182" s="108" t="s">
         <v>601</v>
@@ -10583,7 +10583,7 @@
       <c r="O182" s="108"/>
       <c r="P182" s="115"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="108"/>
       <c r="B183" s="108" t="s">
         <v>602</v>
@@ -10609,7 +10609,7 @@
       <c r="O183" s="108"/>
       <c r="P183" s="115"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="108"/>
       <c r="B184" s="108" t="s">
         <v>603</v>
@@ -10635,7 +10635,7 @@
       <c r="O184" s="83"/>
       <c r="P184" s="115"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
       <c r="B185" s="24"/>
       <c r="C185" s="24"/>
@@ -10658,7 +10658,7 @@
       <c r="N185" s="83"/>
       <c r="O185" s="83"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="108" t="s">
         <v>588</v>
       </c>
@@ -10683,7 +10683,7 @@
       <c r="N186" s="83"/>
       <c r="O186" s="83"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="108" t="s">
         <v>589</v>
       </c>
@@ -10712,7 +10712,7 @@
       <c r="N187" s="83"/>
       <c r="O187" s="83"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="108"/>
       <c r="B188" s="108" t="s">
         <v>591</v>
@@ -10739,7 +10739,7 @@
       <c r="N188" s="83"/>
       <c r="O188" s="83"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="108"/>
       <c r="B189" s="108" t="s">
         <v>592</v>
@@ -10768,7 +10768,7 @@
       <c r="N189" s="108"/>
       <c r="O189" s="83"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="108"/>
       <c r="B190" s="108" t="s">
         <v>605</v>
@@ -10791,7 +10791,7 @@
       <c r="N190" s="28"/>
       <c r="O190" s="24"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="108"/>
       <c r="B191" s="108" t="s">
         <v>606</v>
@@ -10822,7 +10822,7 @@
       <c r="N191" s="108"/>
       <c r="O191" s="108"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="108" t="s">
         <v>610</v>
       </c>
@@ -10853,7 +10853,7 @@
       <c r="N192" s="108"/>
       <c r="O192" s="108"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="108"/>
       <c r="B193" s="108" t="s">
         <v>608</v>
@@ -10878,7 +10878,7 @@
       <c r="N193" s="108"/>
       <c r="O193" s="108"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="108"/>
       <c r="B194" s="108" t="s">
         <v>609</v>
@@ -10903,7 +10903,7 @@
       <c r="N194" s="108"/>
       <c r="O194" s="108"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="28"/>
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
@@ -10920,7 +10920,7 @@
       <c r="N195" s="28"/>
       <c r="O195" s="24"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="108" t="s">
         <v>288</v>
       </c>
@@ -10959,7 +10959,7 @@
       <c r="N196" s="108"/>
       <c r="O196" s="83"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="28"/>
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
@@ -10982,7 +10982,7 @@
       <c r="N197" s="108"/>
       <c r="O197" s="83"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="108" t="s">
         <v>613</v>
       </c>
@@ -11015,7 +11015,7 @@
       <c r="N198" s="108"/>
       <c r="O198" s="83"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="108" t="s">
         <v>614</v>
       </c>
@@ -11042,7 +11042,7 @@
       <c r="N199" s="28"/>
       <c r="O199" s="24"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="108"/>
       <c r="B200" s="108" t="s">
         <v>617</v>
@@ -11069,7 +11069,7 @@
       <c r="N200" s="108"/>
       <c r="O200" s="83"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="108"/>
       <c r="B201" s="108" t="s">
         <v>618</v>
@@ -11100,7 +11100,7 @@
       <c r="N201" s="108"/>
       <c r="O201" s="83"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="108"/>
       <c r="B202" s="108" t="s">
         <v>619</v>
@@ -11125,7 +11125,7 @@
       <c r="N202" s="108"/>
       <c r="O202" s="83"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="108"/>
       <c r="B203" s="108" t="s">
         <v>620</v>
@@ -11150,7 +11150,7 @@
       <c r="N203" s="108"/>
       <c r="O203" s="83"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="108"/>
       <c r="B204" s="108" t="s">
         <v>621</v>
@@ -11171,7 +11171,7 @@
       <c r="N204" s="28"/>
       <c r="O204" s="24"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="108"/>
       <c r="B205" s="108" t="s">
         <v>622</v>
@@ -11194,7 +11194,7 @@
       <c r="N205" s="108"/>
       <c r="O205" s="83"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="28"/>
       <c r="B206" s="28"/>
       <c r="C206" s="28"/>
@@ -11219,7 +11219,7 @@
       <c r="N206" s="108"/>
       <c r="O206" s="83"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="108" t="s">
         <v>625</v>
       </c>
@@ -11250,7 +11250,7 @@
       <c r="N207" s="108"/>
       <c r="O207" s="83"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="108"/>
       <c r="B208" s="108" t="s">
         <v>626</v>
@@ -11279,7 +11279,7 @@
       <c r="N208" s="108"/>
       <c r="O208" s="83"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="28"/>
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
@@ -11302,7 +11302,7 @@
       <c r="N209" s="108"/>
       <c r="O209" s="83"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="108" t="s">
         <v>663</v>
       </c>
@@ -11327,7 +11327,7 @@
       <c r="N210" s="108"/>
       <c r="O210" s="83"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="108" t="s">
         <v>664</v>
       </c>
@@ -11358,7 +11358,7 @@
       <c r="N211" s="108"/>
       <c r="O211" s="83"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="108"/>
       <c r="B212" s="108" t="s">
         <v>666</v>
@@ -11387,7 +11387,7 @@
       <c r="N212" s="108"/>
       <c r="O212" s="83"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="108"/>
       <c r="B213" s="108" t="s">
         <v>667</v>
@@ -11416,7 +11416,7 @@
       <c r="N213" s="108"/>
       <c r="O213" s="83"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="108"/>
       <c r="B214" s="108" t="s">
         <v>668</v>
@@ -11445,7 +11445,7 @@
       <c r="N214" s="108"/>
       <c r="O214" s="83"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="108"/>
       <c r="B215" s="108" t="s">
         <v>669</v>
@@ -11472,7 +11472,7 @@
       <c r="N215" s="108"/>
       <c r="O215" s="83"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="108"/>
       <c r="B216" s="108" t="s">
         <v>670</v>
@@ -11499,7 +11499,7 @@
       <c r="N216" s="108"/>
       <c r="O216" s="108"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="108"/>
       <c r="B217" s="108" t="s">
         <v>671</v>
@@ -11520,7 +11520,7 @@
       <c r="N217" s="108"/>
       <c r="O217" s="108"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="108"/>
       <c r="B218" s="108" t="s">
         <v>672</v>
@@ -11541,7 +11541,7 @@
       <c r="N218" s="108"/>
       <c r="O218" s="108"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="108"/>
       <c r="B219" s="108" t="s">
         <v>673</v>
@@ -11566,7 +11566,7 @@
       <c r="N219" s="108"/>
       <c r="O219" s="108"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="108"/>
       <c r="B220" s="108" t="s">
         <v>674</v>
@@ -11591,7 +11591,7 @@
       <c r="N220" s="108"/>
       <c r="O220" s="108"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="108"/>
       <c r="B221" s="108" t="s">
         <v>675</v>
@@ -11610,7 +11610,7 @@
       <c r="N221" s="28"/>
       <c r="O221" s="28"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="108"/>
       <c r="B222" s="108" t="s">
         <v>676</v>
@@ -11643,7 +11643,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="108"/>
       <c r="B223" s="108" t="s">
         <v>677</v>
@@ -11672,7 +11672,7 @@
       <c r="N223" s="108"/>
       <c r="O223" s="108"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="108"/>
       <c r="B224" s="108" t="s">
         <v>678</v>
@@ -11697,7 +11697,7 @@
       <c r="N224" s="108"/>
       <c r="O224" s="108"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="108"/>
       <c r="B225" s="108" t="s">
         <v>679</v>
@@ -11716,7 +11716,7 @@
       <c r="N225" s="28"/>
       <c r="O225" s="28"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="28"/>
       <c r="B226" s="28"/>
       <c r="C226" s="28"/>
@@ -11735,7 +11735,7 @@
       <c r="N226" s="108"/>
       <c r="O226" s="108"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="108" t="s">
         <v>681</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>4821</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="108" t="s">
         <v>692</v>
       </c>
@@ -11797,7 +11797,7 @@
       <c r="N228" s="108"/>
       <c r="O228" s="108"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="108"/>
       <c r="B229" s="108" t="s">
         <v>694</v>
@@ -11824,7 +11824,7 @@
       <c r="N229" s="108"/>
       <c r="O229" s="108"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="108"/>
       <c r="B230" s="108" t="s">
         <v>699</v>
@@ -11849,7 +11849,7 @@
       <c r="N230" s="108"/>
       <c r="O230" s="108"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="108"/>
       <c r="B231" s="108" t="s">
         <v>700</v>
@@ -11874,7 +11874,7 @@
       <c r="N231" s="108"/>
       <c r="O231" s="108"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="108"/>
       <c r="B232" s="108" t="s">
         <v>701</v>
@@ -11897,7 +11897,7 @@
       <c r="N232" s="28"/>
       <c r="O232" s="28"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="108"/>
       <c r="B233" s="108" t="s">
         <v>702</v>
@@ -11922,7 +11922,7 @@
       <c r="N233" s="108"/>
       <c r="O233" s="108"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="108"/>
       <c r="B234" s="108" t="s">
         <v>703</v>
@@ -11955,7 +11955,7 @@
         <v>4438</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="108"/>
       <c r="B235" s="108" t="s">
         <v>704</v>
@@ -11982,7 +11982,7 @@
         <v>4505</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="108"/>
       <c r="B236" s="108" t="s">
         <v>705</v>
@@ -12007,7 +12007,7 @@
       <c r="N236" s="108"/>
       <c r="O236" s="108"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B237" s="28"/>
       <c r="C237" s="28"/>
       <c r="D237" s="28"/>
@@ -12029,7 +12029,7 @@
       <c r="N237" s="108"/>
       <c r="O237" s="108"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="108" t="s">
         <v>716</v>
       </c>
@@ -12054,7 +12054,7 @@
       <c r="N238" s="108"/>
       <c r="O238" s="108"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="108" t="s">
         <v>717</v>
       </c>
@@ -12081,7 +12081,7 @@
       <c r="N239" s="28"/>
       <c r="O239" s="28"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="108" t="s">
         <v>718</v>
       </c>
@@ -12114,7 +12114,7 @@
       <c r="N240" s="108"/>
       <c r="O240" s="108"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="108"/>
       <c r="B241" s="108" t="s">
         <v>721</v>
@@ -12143,7 +12143,7 @@
       <c r="N241" s="108"/>
       <c r="O241" s="108"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="108"/>
       <c r="B242" s="108" t="s">
         <v>722</v>
@@ -12168,7 +12168,7 @@
       <c r="N242" s="108"/>
       <c r="O242" s="108"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="108"/>
       <c r="B243" s="108" t="s">
         <v>723</v>
@@ -12189,7 +12189,7 @@
       <c r="N243" s="108"/>
       <c r="O243" s="108"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="28"/>
       <c r="B244" s="28"/>
       <c r="C244" s="28"/>
@@ -12199,7 +12199,7 @@
       <c r="G244" s="28"/>
       <c r="H244" s="28"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="108" t="s">
         <v>726</v>
       </c>
@@ -12226,7 +12226,7 @@
       <c r="N245" s="108"/>
       <c r="O245" s="108"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="108" t="s">
         <v>727</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>4276</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="108" t="s">
         <v>728</v>
       </c>
@@ -12292,7 +12292,7 @@
       <c r="N247" s="108"/>
       <c r="O247" s="108"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="108"/>
       <c r="B248" s="108" t="s">
         <v>731</v>
@@ -12321,7 +12321,7 @@
       <c r="N248" s="108"/>
       <c r="O248" s="108"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="108"/>
       <c r="B249" s="108" t="s">
         <v>732</v>
@@ -12344,7 +12344,7 @@
       <c r="N249" s="28"/>
       <c r="O249" s="28"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="108"/>
       <c r="B250" s="108" t="s">
         <v>733</v>
@@ -12369,7 +12369,7 @@
       <c r="N250" s="108"/>
       <c r="O250" s="108"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="108"/>
       <c r="B251" s="108" t="s">
         <v>734</v>
@@ -12400,7 +12400,7 @@
       <c r="N251" s="108"/>
       <c r="O251" s="108"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="108"/>
       <c r="B252" s="108" t="s">
         <v>735</v>
@@ -12429,7 +12429,7 @@
       <c r="N252" s="108"/>
       <c r="O252" s="108"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="108"/>
       <c r="B253" s="108" t="s">
         <v>736</v>
@@ -12460,7 +12460,7 @@
         <v>4621</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="108"/>
       <c r="B254" s="108" t="s">
         <v>737</v>
@@ -12489,7 +12489,7 @@
       <c r="N254" s="108"/>
       <c r="O254" s="108"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="108"/>
       <c r="B255" s="108" t="s">
         <v>743</v>
@@ -12518,7 +12518,7 @@
       <c r="N255" s="108"/>
       <c r="O255" s="108"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="108"/>
       <c r="B256" s="108" t="s">
         <v>744</v>
@@ -12547,7 +12547,7 @@
       <c r="N256" s="108"/>
       <c r="O256" s="108"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="108"/>
       <c r="B257" s="108" t="s">
         <v>738</v>
@@ -12570,7 +12570,7 @@
       <c r="N257" s="28"/>
       <c r="O257" s="28"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="108"/>
       <c r="B258" s="108" t="s">
         <v>739</v>
@@ -12601,7 +12601,7 @@
       <c r="N258" s="108"/>
       <c r="O258" s="108"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="108"/>
       <c r="B259" s="108" t="s">
         <v>740</v>
@@ -12632,7 +12632,7 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="108"/>
       <c r="B260" s="108" t="s">
         <v>741</v>
@@ -12657,7 +12657,7 @@
       <c r="N260" s="108"/>
       <c r="O260" s="108"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="108"/>
       <c r="B261" s="108" t="s">
         <v>742</v>
@@ -12676,7 +12676,7 @@
       <c r="N261" s="28"/>
       <c r="O261" s="28"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="28"/>
       <c r="B262" s="28"/>
       <c r="C262" s="28"/>
@@ -12695,7 +12695,7 @@
       <c r="N262" s="108"/>
       <c r="O262" s="108"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="108" t="s">
         <v>764</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>4461</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="108"/>
       <c r="B264" s="108" t="s">
         <v>766</v>
@@ -12761,7 +12761,7 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="108"/>
       <c r="B265" s="108" t="s">
         <v>767</v>
@@ -12790,7 +12790,7 @@
       <c r="N265" s="108"/>
       <c r="O265" s="108"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="108"/>
       <c r="B266" s="108" t="s">
         <v>768</v>
@@ -12819,7 +12819,7 @@
       <c r="N266" s="108"/>
       <c r="O266" s="108"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="108"/>
       <c r="B267" s="108" t="s">
         <v>769</v>
@@ -12848,7 +12848,7 @@
       <c r="N267" s="108"/>
       <c r="O267" s="108"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="108"/>
       <c r="B268" s="108" t="s">
         <v>770</v>
@@ -12877,7 +12877,7 @@
       <c r="N268" s="108"/>
       <c r="O268" s="108"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="28"/>
       <c r="B269" s="28"/>
       <c r="C269" s="28"/>
@@ -12900,7 +12900,7 @@
       <c r="N269" s="108"/>
       <c r="O269" s="108"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="108" t="s">
         <v>781</v>
       </c>
@@ -12931,7 +12931,7 @@
       <c r="N270" s="108"/>
       <c r="O270" s="108"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="108"/>
       <c r="B271" s="108" t="s">
         <v>783</v>
@@ -12954,7 +12954,7 @@
       <c r="N271" s="28"/>
       <c r="O271" s="28"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="108"/>
       <c r="B272" s="108" t="s">
         <v>784</v>
@@ -12979,7 +12979,7 @@
       <c r="N272" s="108"/>
       <c r="O272" s="108"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="108"/>
       <c r="B273" s="108" t="s">
         <v>785</v>
@@ -13010,7 +13010,7 @@
       <c r="N273" s="108"/>
       <c r="O273" s="108"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="108"/>
       <c r="B274" s="108" t="s">
         <v>786</v>
@@ -13041,7 +13041,7 @@
       <c r="N274" s="108"/>
       <c r="O274" s="108"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="108"/>
       <c r="B275" s="108" t="s">
         <v>787</v>
@@ -13070,7 +13070,7 @@
       <c r="N275" s="108"/>
       <c r="O275" s="108"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="108"/>
       <c r="B276" s="108" t="s">
         <v>788</v>
@@ -13099,7 +13099,7 @@
       <c r="N276" s="108"/>
       <c r="O276" s="108"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="108"/>
       <c r="B277" s="108" t="s">
         <v>789</v>
@@ -13128,7 +13128,7 @@
       <c r="N277" s="108"/>
       <c r="O277" s="108"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="108"/>
       <c r="B278" s="108" t="s">
         <v>790</v>
@@ -13153,7 +13153,7 @@
       <c r="N278" s="108"/>
       <c r="O278" s="108"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="108"/>
       <c r="B279" s="108" t="s">
         <v>791</v>
@@ -13178,7 +13178,7 @@
       <c r="N279" s="108"/>
       <c r="O279" s="108"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="108"/>
       <c r="B280" s="108" t="s">
         <v>792</v>
@@ -13201,7 +13201,7 @@
       <c r="N280" s="28"/>
       <c r="O280" s="28"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="108"/>
       <c r="B281" s="108" t="s">
         <v>793</v>
@@ -13232,7 +13232,7 @@
       <c r="N281" s="108"/>
       <c r="O281" s="108"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="108"/>
       <c r="B282" s="108" t="s">
         <v>797</v>
@@ -13261,7 +13261,7 @@
       <c r="N282" s="108"/>
       <c r="O282" s="108"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="108"/>
       <c r="B283" s="108" t="s">
         <v>794</v>
@@ -13290,7 +13290,7 @@
       <c r="N283" s="108"/>
       <c r="O283" s="108"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="108"/>
       <c r="B284" s="108" t="s">
         <v>795</v>
@@ -13315,7 +13315,7 @@
       <c r="N284" s="108"/>
       <c r="O284" s="108"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="108"/>
       <c r="B285" s="108" t="s">
         <v>796</v>
@@ -13340,7 +13340,7 @@
       <c r="N285" s="108"/>
       <c r="O285" s="108"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="28"/>
       <c r="B286" s="28"/>
       <c r="C286" s="28"/>
@@ -13363,7 +13363,7 @@
       <c r="N286" s="108"/>
       <c r="O286" s="108"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="108" t="s">
         <v>823</v>
       </c>
@@ -13388,7 +13388,7 @@
       <c r="N287" s="108"/>
       <c r="O287" s="108"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="108" t="s">
         <v>824</v>
       </c>
@@ -13417,7 +13417,7 @@
       <c r="N288" s="108"/>
       <c r="O288" s="108"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="108" t="s">
         <v>825</v>
       </c>
@@ -13440,7 +13440,7 @@
       <c r="N289" s="28"/>
       <c r="O289" s="28"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="108"/>
       <c r="B290" s="108" t="s">
         <v>828</v>
@@ -13469,7 +13469,7 @@
       <c r="N290" s="108"/>
       <c r="O290" s="108"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="108"/>
       <c r="B291" s="108" t="s">
         <v>829</v>
@@ -13500,7 +13500,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="119"/>
       <c r="B292" s="119" t="s">
         <v>819</v>
@@ -13529,7 +13529,7 @@
         <v>4244</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="108"/>
       <c r="B293" s="108" t="s">
         <v>830</v>
@@ -13556,7 +13556,7 @@
       <c r="N293" s="108"/>
       <c r="O293" s="108"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="108"/>
       <c r="B294" s="108" t="s">
         <v>831</v>
@@ -13583,7 +13583,7 @@
       <c r="N294" s="108"/>
       <c r="O294" s="108"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="108"/>
       <c r="B295" s="108" t="s">
         <v>832</v>
@@ -13610,7 +13610,7 @@
       <c r="N295" s="108"/>
       <c r="O295" s="108"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="108"/>
       <c r="B296" s="108" t="s">
         <v>833</v>
@@ -13637,7 +13637,7 @@
       <c r="N296" s="108"/>
       <c r="O296" s="108"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="28"/>
       <c r="B297" s="28"/>
       <c r="C297" s="28"/>
@@ -13660,7 +13660,7 @@
       <c r="N297" s="108"/>
       <c r="O297" s="108"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="108" t="s">
         <v>726</v>
       </c>
@@ -13679,7 +13679,7 @@
       <c r="N298" s="28"/>
       <c r="O298" s="28"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="108" t="s">
         <v>834</v>
       </c>
@@ -13714,7 +13714,7 @@
       <c r="N299" s="108"/>
       <c r="O299" s="108"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="108"/>
       <c r="B300" s="108" t="s">
         <v>836</v>
@@ -13745,7 +13745,7 @@
       <c r="N300" s="108"/>
       <c r="O300" s="108"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="108"/>
       <c r="B301" s="108" t="s">
         <v>837</v>
@@ -13774,7 +13774,7 @@
       <c r="N301" s="108"/>
       <c r="O301" s="108"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="108"/>
       <c r="B302" s="108" t="s">
         <v>838</v>
@@ -13803,7 +13803,7 @@
       <c r="N302" s="108"/>
       <c r="O302" s="108"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="108"/>
       <c r="B303" s="108" t="s">
         <v>839</v>
@@ -13832,7 +13832,7 @@
       <c r="N303" s="108"/>
       <c r="O303" s="108"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="108"/>
       <c r="B304" s="108" t="s">
         <v>840</v>
@@ -13855,7 +13855,7 @@
       <c r="N304" s="28"/>
       <c r="O304" s="28"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="108"/>
       <c r="B305" s="108" t="s">
         <v>841</v>
@@ -13886,7 +13886,7 @@
       <c r="N305" s="108"/>
       <c r="O305" s="108"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="108"/>
       <c r="B306" s="108" t="s">
         <v>842</v>
@@ -13915,7 +13915,7 @@
       <c r="N306" s="108"/>
       <c r="O306" s="108"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="108"/>
       <c r="B307" s="108" t="s">
         <v>845</v>
@@ -13944,7 +13944,7 @@
       <c r="N307" s="119"/>
       <c r="O307" s="119"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="108"/>
       <c r="B308" s="108" t="s">
         <v>843</v>
@@ -13973,7 +13973,7 @@
       <c r="N308" s="108"/>
       <c r="O308" s="108"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="108"/>
       <c r="B309" s="108" t="s">
         <v>844</v>
@@ -13998,7 +13998,7 @@
       <c r="N309" s="108"/>
       <c r="O309" s="108"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="108" t="s">
         <v>847</v>
       </c>
@@ -14019,7 +14019,7 @@
       <c r="N310" s="108"/>
       <c r="O310" s="108"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="108" t="s">
         <v>848</v>
       </c>
@@ -14046,7 +14046,7 @@
       <c r="N311" s="28"/>
       <c r="O311" s="28"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B312" s="108" t="s">
         <v>850</v>
       </c>
@@ -14070,7 +14070,7 @@
       <c r="N312" s="108"/>
       <c r="O312" s="108"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="108"/>
       <c r="B313" s="108" t="s">
         <v>851</v>
@@ -14101,7 +14101,7 @@
       <c r="N313" s="108"/>
       <c r="O313" s="108"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="108"/>
       <c r="B314" s="108" t="s">
         <v>852</v>
@@ -14132,7 +14132,7 @@
       <c r="N314" s="108"/>
       <c r="O314" s="108"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="108"/>
       <c r="B315" s="108" t="s">
         <v>853</v>
@@ -14161,7 +14161,7 @@
       <c r="N315" s="108"/>
       <c r="O315" s="108"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="108"/>
       <c r="B316" s="108" t="s">
         <v>854</v>
@@ -14190,7 +14190,7 @@
       <c r="N316" s="108"/>
       <c r="O316" s="108"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="108"/>
       <c r="B317" s="108" t="s">
         <v>855</v>
@@ -14219,7 +14219,7 @@
       <c r="N317" s="108"/>
       <c r="O317" s="108"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="28"/>
       <c r="B318" s="28"/>
       <c r="C318" s="28"/>
@@ -14243,7 +14243,7 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="108" t="s">
         <v>862</v>
       </c>
@@ -14274,7 +14274,7 @@
       <c r="N319" s="108"/>
       <c r="O319" s="108"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="108"/>
       <c r="B320" s="108" t="s">
         <v>864</v>
@@ -14303,7 +14303,7 @@
       <c r="N320" s="108"/>
       <c r="O320" s="108"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="108"/>
       <c r="B321" s="108" t="s">
         <v>865</v>
@@ -14332,7 +14332,7 @@
       <c r="N321" s="108"/>
       <c r="O321" s="108"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="108"/>
       <c r="B322" s="108" t="s">
         <v>866</v>
@@ -14361,7 +14361,7 @@
       <c r="N322" s="108"/>
       <c r="O322" s="108"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="108"/>
       <c r="B323" s="108" t="s">
         <v>867</v>
@@ -14390,7 +14390,7 @@
       <c r="N323" s="108"/>
       <c r="O323" s="108"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="108"/>
       <c r="B324" s="108" t="s">
         <v>868</v>
@@ -14419,7 +14419,7 @@
       <c r="N324" s="108"/>
       <c r="O324" s="108"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="108"/>
       <c r="B325" s="108" t="s">
         <v>869</v>
@@ -14448,7 +14448,7 @@
       <c r="N325" s="108"/>
       <c r="O325" s="108"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="108"/>
       <c r="B326" s="108" t="s">
         <v>870</v>
@@ -14477,7 +14477,7 @@
       <c r="N326" s="108"/>
       <c r="O326" s="108"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="108"/>
       <c r="B327" s="108" t="s">
         <v>871</v>
@@ -14506,7 +14506,7 @@
       <c r="N327" s="108"/>
       <c r="O327" s="108"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="108"/>
       <c r="B328" s="108" t="s">
         <v>872</v>
@@ -14528,7 +14528,7 @@
       <c r="N328" s="28"/>
       <c r="O328" s="28"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="108"/>
       <c r="B329" s="108" t="s">
         <v>873</v>
@@ -14557,7 +14557,7 @@
       <c r="N329" s="108"/>
       <c r="O329" s="108"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="108"/>
       <c r="B330" s="108" t="s">
         <v>874</v>
@@ -14586,7 +14586,7 @@
       <c r="N330" s="108"/>
       <c r="O330" s="108"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="108"/>
       <c r="B331" s="108" t="s">
         <v>875</v>
@@ -14615,7 +14615,7 @@
       <c r="N331" s="108"/>
       <c r="O331" s="108"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="108"/>
       <c r="B332" s="108" t="s">
         <v>876</v>
@@ -14644,7 +14644,7 @@
       <c r="N332" s="108"/>
       <c r="O332" s="108"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="28"/>
       <c r="B333" s="28"/>
       <c r="C333" s="28"/>
@@ -14667,7 +14667,7 @@
       <c r="N333" s="108"/>
       <c r="O333" s="108"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="108" t="s">
         <v>916</v>
       </c>
@@ -14692,7 +14692,7 @@
       <c r="N334" s="108"/>
       <c r="O334" s="108"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="108" t="s">
         <v>917</v>
       </c>
@@ -14723,7 +14723,7 @@
       <c r="N335" s="108"/>
       <c r="O335" s="108"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="108"/>
       <c r="B336" s="108" t="s">
         <v>919</v>
@@ -14748,7 +14748,7 @@
       <c r="N336" s="108"/>
       <c r="O336" s="108"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="108"/>
       <c r="B337" s="108" t="s">
         <v>920</v>
@@ -14773,7 +14773,7 @@
       <c r="N337" s="108"/>
       <c r="O337" s="108"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="108"/>
       <c r="B338" s="108" t="s">
         <v>921</v>
@@ -14795,7 +14795,7 @@
       <c r="N338" s="28"/>
       <c r="O338" s="28"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="108"/>
       <c r="B339" s="108" t="s">
         <v>922</v>
@@ -14830,7 +14830,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="108"/>
       <c r="B340" s="108" t="s">
         <v>923</v>
@@ -14853,7 +14853,7 @@
       <c r="N340" s="28"/>
       <c r="O340" s="28"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="108"/>
       <c r="B341" s="108" t="s">
         <v>924</v>
@@ -14878,7 +14878,7 @@
       <c r="N341" s="108"/>
       <c r="O341" s="108"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="28"/>
       <c r="B342" s="28"/>
       <c r="C342" s="28"/>
@@ -14903,7 +14903,7 @@
       <c r="N342" s="108"/>
       <c r="O342" s="108"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="108" t="s">
         <v>925</v>
       </c>
@@ -14936,7 +14936,7 @@
       <c r="N343" s="108"/>
       <c r="O343" s="108"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="108"/>
       <c r="B344" s="108" t="s">
         <v>927</v>
@@ -14959,7 +14959,7 @@
       <c r="N344" s="28"/>
       <c r="O344" s="28"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="108"/>
       <c r="B345" s="108" t="s">
         <v>928</v>
@@ -14990,7 +14990,7 @@
       <c r="N345" s="108"/>
       <c r="O345" s="108"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="108"/>
       <c r="B346" s="108" t="s">
         <v>929</v>
@@ -15019,7 +15019,7 @@
       <c r="N346" s="108"/>
       <c r="O346" s="108"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="108"/>
       <c r="B347" s="108" t="s">
         <v>930</v>
@@ -15042,7 +15042,7 @@
       <c r="N347" s="28"/>
       <c r="O347" s="28"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="108"/>
       <c r="B348" s="108" t="s">
         <v>931</v>
@@ -15067,7 +15067,7 @@
       <c r="N348" s="108"/>
       <c r="O348" s="108"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="108"/>
       <c r="B349" s="108" t="s">
         <v>932</v>
@@ -15098,7 +15098,7 @@
       <c r="N349" s="108"/>
       <c r="O349" s="108"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="28"/>
       <c r="B350" s="28"/>
       <c r="C350" s="28"/>
@@ -15123,7 +15123,7 @@
       <c r="N350" s="108"/>
       <c r="O350" s="108"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="108" t="s">
         <v>933</v>
       </c>
@@ -15154,7 +15154,7 @@
       <c r="N351" s="108"/>
       <c r="O351" s="108"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="108"/>
       <c r="B352" s="108" t="s">
         <v>935</v>
@@ -15183,7 +15183,7 @@
       <c r="N352" s="108"/>
       <c r="O352" s="108"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="108"/>
       <c r="B353" s="108" t="s">
         <v>936</v>
@@ -15212,7 +15212,7 @@
       <c r="N353" s="108"/>
       <c r="O353" s="108"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="108"/>
       <c r="B354" s="108" t="s">
         <v>937</v>
@@ -15241,7 +15241,7 @@
       <c r="N354" s="108"/>
       <c r="O354" s="108"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="108"/>
       <c r="B355" s="108" t="s">
         <v>938</v>
@@ -15266,7 +15266,7 @@
       <c r="N355" s="108"/>
       <c r="O355" s="108"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="28"/>
       <c r="B356" s="28"/>
       <c r="C356" s="28"/>
@@ -15285,7 +15285,7 @@
       <c r="N356" s="108"/>
       <c r="O356" s="108"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="108" t="s">
         <v>947</v>
       </c>
@@ -15312,7 +15312,7 @@
       <c r="N357" s="28"/>
       <c r="O357" s="28"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="108"/>
       <c r="B358" s="108" t="s">
         <v>949</v>
@@ -15343,7 +15343,7 @@
       <c r="N358" s="108"/>
       <c r="O358" s="108"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="108"/>
       <c r="B359" s="108" t="s">
         <v>950</v>
@@ -15372,7 +15372,7 @@
       <c r="N359" s="108"/>
       <c r="O359" s="108"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="108"/>
       <c r="B360" s="108" t="s">
         <v>947</v>
@@ -15401,7 +15401,7 @@
       <c r="N360" s="108"/>
       <c r="O360" s="108"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="108"/>
       <c r="B361" s="108" t="s">
         <v>951</v>
@@ -15430,7 +15430,7 @@
       <c r="N361" s="108"/>
       <c r="O361" s="108"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="28"/>
       <c r="B362" s="28"/>
       <c r="C362" s="28"/>
@@ -15453,7 +15453,7 @@
       <c r="N362" s="108"/>
       <c r="O362" s="108"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B363" s="108"/>
       <c r="C363" s="108"/>
       <c r="D363" s="108"/>
@@ -15475,7 +15475,7 @@
       <c r="N363" s="108"/>
       <c r="O363" s="108"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="108" t="s">
         <v>981</v>
       </c>
@@ -15500,7 +15500,7 @@
       <c r="N364" s="28"/>
       <c r="O364" s="28"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="108" t="s">
         <v>982</v>
       </c>
@@ -15533,7 +15533,7 @@
       <c r="N365" s="108"/>
       <c r="O365" s="108"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="108"/>
       <c r="B366" s="108" t="s">
         <v>985</v>
@@ -15560,7 +15560,7 @@
       <c r="N366" s="108"/>
       <c r="O366" s="108"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="108"/>
       <c r="B367" s="108" t="s">
         <v>986</v>
@@ -15583,7 +15583,7 @@
       <c r="N367" s="28"/>
       <c r="O367" s="28"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="108"/>
       <c r="B368" s="108" t="s">
         <v>987</v>
@@ -15616,7 +15616,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="108"/>
       <c r="B369" s="108" t="s">
         <v>988</v>
@@ -15645,7 +15645,7 @@
       <c r="N369" s="108"/>
       <c r="O369" s="108"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="108"/>
       <c r="B370" s="108" t="s">
         <v>989</v>
@@ -15674,7 +15674,7 @@
       <c r="N370" s="108"/>
       <c r="O370" s="108"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="108"/>
       <c r="B371" s="108" t="s">
         <v>990</v>
@@ -15703,7 +15703,7 @@
       <c r="N371" s="108"/>
       <c r="O371" s="108"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="28"/>
       <c r="B372" s="28"/>
       <c r="C372" s="28"/>
@@ -15726,7 +15726,7 @@
       <c r="N372" s="108"/>
       <c r="O372" s="108"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="108" t="s">
         <v>991</v>
       </c>
@@ -15757,7 +15757,7 @@
       <c r="N373" s="108"/>
       <c r="O373" s="108"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="108" t="s">
         <v>992</v>
       </c>
@@ -15784,7 +15784,7 @@
       <c r="N374" s="108"/>
       <c r="O374" s="108"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="108"/>
       <c r="B375" s="108" t="s">
         <v>995</v>
@@ -15807,7 +15807,7 @@
       <c r="N375" s="28"/>
       <c r="O375" s="28"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="108"/>
       <c r="B376" s="108" t="s">
         <v>996</v>
@@ -15832,7 +15832,7 @@
       <c r="N376" s="108"/>
       <c r="O376" s="108"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="108"/>
       <c r="B377" s="108" t="s">
         <v>997</v>
@@ -15863,7 +15863,7 @@
       <c r="N377" s="108"/>
       <c r="O377" s="108"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="28"/>
       <c r="B378" s="28"/>
       <c r="C378" s="28"/>
@@ -15886,7 +15886,7 @@
       <c r="N378" s="108"/>
       <c r="O378" s="108"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="108" t="s">
         <v>916</v>
       </c>
@@ -15911,7 +15911,7 @@
       <c r="N379" s="108"/>
       <c r="O379" s="108"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="108" t="s">
         <v>998</v>
       </c>
@@ -15942,7 +15942,7 @@
       <c r="N380" s="37"/>
       <c r="O380" s="37"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="37"/>
       <c r="B381" s="108" t="s">
         <v>1000</v>
@@ -15957,7 +15957,7 @@
       <c r="F381" s="37"/>
       <c r="G381" s="37"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I382" s="59" t="s">
         <v>974</v>
       </c>
@@ -15974,7 +15974,7 @@
       <c r="N382" s="59"/>
       <c r="O382" s="59"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="59" t="s">
         <v>1106</v>
       </c>
@@ -15999,7 +15999,7 @@
       <c r="N383" s="59"/>
       <c r="O383" s="59"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="59" t="s">
         <v>1001</v>
       </c>
@@ -16030,7 +16030,7 @@
       <c r="N384" s="59"/>
       <c r="O384" s="59"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="59"/>
       <c r="B385" s="59" t="s">
         <v>1002</v>
@@ -16059,7 +16059,7 @@
       <c r="N385" s="59"/>
       <c r="O385" s="59"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="59" t="s">
         <v>823</v>
       </c>
@@ -16084,7 +16084,7 @@
       <c r="N386" s="59"/>
       <c r="O386" s="59"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="59" t="s">
         <v>1005</v>
       </c>
@@ -16111,7 +16111,7 @@
       <c r="N387" s="59"/>
       <c r="O387" s="59"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B388" s="59" t="s">
         <v>1006</v>
       </c>
@@ -16139,7 +16139,7 @@
       <c r="N388" s="59"/>
       <c r="O388" s="59"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="59"/>
       <c r="B389" s="59" t="s">
         <v>1007</v>
@@ -16166,7 +16166,7 @@
       <c r="N389" s="59"/>
       <c r="O389" s="59"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="59"/>
       <c r="B390" s="59" t="s">
         <v>1005</v>
@@ -16189,7 +16189,7 @@
       <c r="N390" s="115"/>
       <c r="O390" s="115"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="59"/>
       <c r="B391" s="59" t="s">
         <v>1008</v>
@@ -16222,7 +16222,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="59"/>
       <c r="B392" s="59" t="s">
         <v>1009</v>
@@ -16253,7 +16253,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="59"/>
       <c r="B393" s="59" t="s">
         <v>1010</v>
@@ -16284,7 +16284,7 @@
         <v>4727</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="115"/>
       <c r="B394" s="115"/>
       <c r="C394" s="115"/>
@@ -16307,7 +16307,7 @@
       <c r="N394" s="59"/>
       <c r="O394" s="59"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="59" t="s">
         <v>1027</v>
       </c>
@@ -16332,7 +16332,7 @@
       <c r="N395" s="115"/>
       <c r="O395" s="115"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="59" t="s">
         <v>1028</v>
       </c>
@@ -16359,7 +16359,7 @@
       <c r="N396" s="59"/>
       <c r="O396" s="59"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="115"/>
       <c r="B397" s="115"/>
       <c r="C397" s="115"/>
@@ -16384,7 +16384,7 @@
       <c r="N397" s="59"/>
       <c r="O397" s="59"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="59" t="s">
         <v>1031</v>
       </c>
@@ -16417,7 +16417,7 @@
       <c r="N398" s="59"/>
       <c r="O398" s="59"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="59"/>
       <c r="B399" s="59" t="s">
         <v>1033</v>
@@ -16446,7 +16446,7 @@
       <c r="N399" s="59"/>
       <c r="O399" s="59"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="59"/>
       <c r="B400" s="59" t="s">
         <v>1034</v>
@@ -16475,7 +16475,7 @@
       <c r="N400" s="59"/>
       <c r="O400" s="59"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="59"/>
       <c r="B401" s="59" t="s">
         <v>1035</v>
@@ -16504,7 +16504,7 @@
       <c r="N401" s="59"/>
       <c r="O401" s="59"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="59"/>
       <c r="B402" s="59" t="s">
         <v>1036</v>
@@ -16533,7 +16533,7 @@
       <c r="N402" s="59"/>
       <c r="O402" s="59"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="59"/>
       <c r="B403" s="59" t="s">
         <v>1037</v>
@@ -16562,7 +16562,7 @@
       <c r="N403" s="59"/>
       <c r="O403" s="59"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="59"/>
       <c r="B404" s="59" t="s">
         <v>1038</v>
@@ -16591,7 +16591,7 @@
       <c r="N404" s="59"/>
       <c r="O404" s="59"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="59"/>
       <c r="B405" s="59" t="s">
         <v>1039</v>
@@ -16620,7 +16620,7 @@
       <c r="N405" s="59"/>
       <c r="O405" s="59"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="115"/>
       <c r="C406" s="115"/>
       <c r="D406" s="115"/>
@@ -16642,7 +16642,7 @@
       <c r="N406" s="59"/>
       <c r="O406" s="59"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="59" t="s">
         <v>1040</v>
       </c>
@@ -16673,7 +16673,7 @@
       <c r="N407" s="59"/>
       <c r="O407" s="59"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="59" t="s">
         <v>1041</v>
       </c>
@@ -16704,7 +16704,7 @@
       <c r="N408" s="59"/>
       <c r="O408" s="59"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="59"/>
       <c r="B409" s="59" t="s">
         <v>1045</v>
@@ -16733,7 +16733,7 @@
       <c r="N409" s="59"/>
       <c r="O409" s="59"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="59"/>
       <c r="B410" s="59" t="s">
         <v>1046</v>
@@ -16754,7 +16754,7 @@
       <c r="N410" s="115"/>
       <c r="O410" s="115"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="59"/>
       <c r="B411" s="59" t="s">
         <v>1047</v>
@@ -16785,7 +16785,7 @@
       <c r="N411" s="59"/>
       <c r="O411" s="59"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="59"/>
       <c r="B412" s="59" t="s">
         <v>1048</v>
@@ -16814,7 +16814,7 @@
       <c r="N412" s="59"/>
       <c r="O412" s="59"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" s="59"/>
       <c r="B413" s="59" t="s">
         <v>1049</v>
@@ -16843,7 +16843,7 @@
       <c r="N413" s="59"/>
       <c r="O413" s="59"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="59"/>
       <c r="B414" s="59" t="s">
         <v>1050</v>
@@ -16872,7 +16872,7 @@
       <c r="N414" s="59"/>
       <c r="O414" s="59"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="59"/>
       <c r="B415" s="59" t="s">
         <v>1051</v>
@@ -16901,7 +16901,7 @@
       <c r="N415" s="59"/>
       <c r="O415" s="59"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="59"/>
       <c r="B416" s="59" t="s">
         <v>1052</v>
@@ -16930,7 +16930,7 @@
       <c r="N416" s="59"/>
       <c r="O416" s="59"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="59"/>
       <c r="B417" s="59" t="s">
         <v>1053</v>
@@ -16959,7 +16959,7 @@
       <c r="N417" s="59"/>
       <c r="O417" s="59"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="59"/>
       <c r="B418" s="59" t="s">
         <v>1054</v>
@@ -16988,7 +16988,7 @@
       <c r="N418" s="59"/>
       <c r="O418" s="59"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="59"/>
       <c r="B419" s="59" t="s">
         <v>1055</v>
@@ -17017,7 +17017,7 @@
       <c r="N419" s="59"/>
       <c r="O419" s="59"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="59"/>
       <c r="B420" s="59" t="s">
         <v>1056</v>
@@ -17046,7 +17046,7 @@
       <c r="N420" s="59"/>
       <c r="O420" s="59"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="115"/>
       <c r="B421" s="115"/>
       <c r="C421" s="115"/>
@@ -17069,7 +17069,7 @@
       <c r="N421" s="59"/>
       <c r="O421" s="59"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="59" t="s">
         <v>1069</v>
       </c>
@@ -17094,7 +17094,7 @@
       <c r="N422" s="59"/>
       <c r="O422" s="59"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="59" t="s">
         <v>288</v>
       </c>
@@ -17125,7 +17125,7 @@
       <c r="N423" s="59"/>
       <c r="O423" s="59"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="115"/>
       <c r="B424" s="115"/>
       <c r="C424" s="115"/>
@@ -17142,7 +17142,7 @@
       <c r="N424" s="115"/>
       <c r="O424" s="115"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="59" t="s">
         <v>863</v>
       </c>
@@ -17177,7 +17177,7 @@
       <c r="N425" s="59"/>
       <c r="O425" s="59"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="59"/>
       <c r="B426" s="59" t="s">
         <v>1072</v>
@@ -17208,7 +17208,7 @@
       <c r="N426" s="59"/>
       <c r="O426" s="59"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="59"/>
       <c r="B427" s="59" t="s">
         <v>1073</v>
@@ -17239,7 +17239,7 @@
       <c r="N427" s="59"/>
       <c r="O427" s="59"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="59" t="s">
         <v>610</v>
       </c>
@@ -17272,7 +17272,7 @@
       <c r="N428" s="59"/>
       <c r="O428" s="59"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="59"/>
       <c r="B429" s="59" t="s">
         <v>1074</v>
@@ -17303,7 +17303,7 @@
       <c r="N429" s="59"/>
       <c r="O429" s="59"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" s="59"/>
       <c r="B430" s="59" t="s">
         <v>1075</v>
@@ -17334,7 +17334,7 @@
       <c r="N430" s="59"/>
       <c r="O430" s="59"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" s="59"/>
       <c r="B431" s="59" t="s">
         <v>1076</v>
@@ -17363,7 +17363,7 @@
       <c r="N431" s="59"/>
       <c r="O431" s="59"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" s="59"/>
       <c r="B432" s="59" t="s">
         <v>1077</v>
@@ -17388,7 +17388,7 @@
       <c r="N432" s="115"/>
       <c r="O432" s="115"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" s="115"/>
       <c r="B433" s="115"/>
       <c r="C433" s="115"/>
@@ -17407,7 +17407,7 @@
       <c r="N433" s="59"/>
       <c r="O433" s="59"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B434" s="59"/>
       <c r="C434" s="59"/>
       <c r="D434" s="59"/>
@@ -17431,7 +17431,7 @@
       <c r="N434" s="59"/>
       <c r="O434" s="59"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435" s="59" t="s">
         <v>1086</v>
       </c>
@@ -17460,7 +17460,7 @@
       <c r="N435" s="59"/>
       <c r="O435" s="59"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436" s="59" t="s">
         <v>1087</v>
       </c>
@@ -17491,7 +17491,7 @@
       <c r="N436" s="59"/>
       <c r="O436" s="59"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" s="59"/>
       <c r="B437" s="59" t="s">
         <v>1090</v>
@@ -17520,7 +17520,7 @@
       <c r="N437" s="59"/>
       <c r="O437" s="59"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" s="59"/>
       <c r="B438" s="59" t="s">
         <v>1091</v>
@@ -17543,7 +17543,7 @@
       <c r="N438" s="59"/>
       <c r="O438" s="59"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H439" s="115"/>
       <c r="I439" s="59"/>
       <c r="J439" s="59" t="s">
@@ -17559,7 +17559,7 @@
       <c r="N439" s="59"/>
       <c r="O439" s="59"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" s="59" t="s">
         <v>1092</v>
       </c>
@@ -17584,7 +17584,7 @@
       <c r="N440" s="59"/>
       <c r="O440" s="59"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" s="59" t="s">
         <v>1093</v>
       </c>
@@ -17615,7 +17615,7 @@
       <c r="N441" s="59"/>
       <c r="O441" s="59"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B442" s="59" t="s">
         <v>1095</v>
       </c>
@@ -17643,7 +17643,7 @@
       <c r="N442" s="59"/>
       <c r="O442" s="59"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443" s="59"/>
       <c r="B443" s="59" t="s">
         <v>1096</v>
@@ -17666,7 +17666,7 @@
       <c r="N443" s="115"/>
       <c r="O443" s="115"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444" s="59"/>
       <c r="B444" s="59">
         <v>552</v>
@@ -17691,7 +17691,7 @@
       <c r="N444" s="59"/>
       <c r="O444" s="59"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445" s="59"/>
       <c r="B445" s="59">
         <v>553</v>
@@ -17722,7 +17722,7 @@
       <c r="N445" s="59"/>
       <c r="O445" s="59"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446" s="59"/>
       <c r="B446" s="59">
         <v>554</v>
@@ -17751,7 +17751,7 @@
       <c r="N446" s="59"/>
       <c r="O446" s="59"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447" s="59"/>
       <c r="B447" s="59">
         <v>555</v>
@@ -17780,7 +17780,7 @@
       <c r="N447" s="59"/>
       <c r="O447" s="59"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" s="59"/>
       <c r="B448" s="59">
         <v>556</v>
@@ -17809,7 +17809,7 @@
       <c r="N448" s="59"/>
       <c r="O448" s="59"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449" s="115"/>
       <c r="B449" s="115"/>
       <c r="C449" s="115"/>
@@ -17832,7 +17832,7 @@
       <c r="N449" s="59"/>
       <c r="O449" s="59"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450" s="59" t="s">
         <v>1101</v>
       </c>
@@ -17863,7 +17863,7 @@
       <c r="N450" s="59"/>
       <c r="O450" s="59"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451" s="59"/>
       <c r="B451" s="59">
         <v>676</v>
@@ -17886,7 +17886,7 @@
       <c r="N451" s="115"/>
       <c r="O451" s="115"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452" s="59"/>
       <c r="B452" s="59">
         <v>677</v>
@@ -17917,7 +17917,7 @@
       <c r="N452" s="59"/>
       <c r="O452" s="59"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453" s="59"/>
       <c r="B453" s="59">
         <v>497</v>
@@ -17948,7 +17948,7 @@
       <c r="N453" s="59"/>
       <c r="O453" s="59"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454" s="59"/>
       <c r="B454" s="59">
         <v>678</v>
@@ -17977,7 +17977,7 @@
       <c r="N454" s="59"/>
       <c r="O454" s="59"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455" s="115"/>
       <c r="B455" s="115"/>
       <c r="C455" s="115"/>
@@ -18000,7 +18000,7 @@
       <c r="N455" s="59"/>
       <c r="O455" s="59"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456" s="115"/>
       <c r="B456" s="115"/>
       <c r="C456" s="115"/>
@@ -18023,7 +18023,7 @@
       <c r="N456" s="59"/>
       <c r="O456" s="59"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457" s="115"/>
       <c r="B457" s="115"/>
       <c r="C457" s="115"/>
@@ -18046,7 +18046,7 @@
       <c r="N457" s="59"/>
       <c r="O457" s="59"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458" s="115"/>
       <c r="B458" s="115"/>
       <c r="C458" s="115"/>
@@ -18069,7 +18069,7 @@
       <c r="N458" s="59"/>
       <c r="O458" s="59"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459" s="115"/>
       <c r="B459" s="115"/>
       <c r="C459" s="115"/>
@@ -18086,7 +18086,7 @@
       <c r="N459" s="115"/>
       <c r="O459" s="115"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460" s="115"/>
       <c r="B460" s="115"/>
       <c r="C460" s="115"/>
@@ -18103,7 +18103,7 @@
       <c r="N460" s="115"/>
       <c r="O460" s="115"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461" s="115"/>
       <c r="B461" s="115"/>
       <c r="C461" s="115"/>
@@ -18120,7 +18120,7 @@
       <c r="N461" s="115"/>
       <c r="O461" s="115"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462" s="115"/>
       <c r="B462" s="115"/>
       <c r="C462" s="115"/>
@@ -18137,7 +18137,7 @@
       <c r="N462" s="115"/>
       <c r="O462" s="115"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463" s="115"/>
       <c r="B463" s="115"/>
       <c r="C463" s="115"/>
@@ -18154,7 +18154,7 @@
       <c r="N463" s="115"/>
       <c r="O463" s="115"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464" s="115"/>
       <c r="B464" s="115"/>
       <c r="C464" s="115"/>
@@ -18171,7 +18171,7 @@
       <c r="N464" s="115"/>
       <c r="O464" s="115"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465" s="115"/>
       <c r="B465" s="115"/>
       <c r="C465" s="115"/>
@@ -18188,7 +18188,7 @@
       <c r="N465" s="115"/>
       <c r="O465" s="115"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466" s="115"/>
       <c r="B466" s="115"/>
       <c r="C466" s="115"/>
@@ -18205,7 +18205,7 @@
       <c r="N466" s="115"/>
       <c r="O466" s="115"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467" s="115"/>
       <c r="B467" s="115"/>
       <c r="C467" s="115"/>
@@ -18222,7 +18222,7 @@
       <c r="N467" s="115"/>
       <c r="O467" s="115"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468" s="115"/>
       <c r="B468" s="115"/>
       <c r="C468" s="115"/>
@@ -18239,7 +18239,7 @@
       <c r="N468" s="115"/>
       <c r="O468" s="115"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469" s="115"/>
       <c r="B469" s="115"/>
       <c r="C469" s="115"/>
@@ -18256,7 +18256,7 @@
       <c r="N469" s="115"/>
       <c r="O469" s="115"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470" s="115"/>
       <c r="B470" s="115"/>
       <c r="C470" s="115"/>
@@ -18273,7 +18273,7 @@
       <c r="N470" s="115"/>
       <c r="O470" s="115"/>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471" s="115"/>
       <c r="B471" s="115"/>
       <c r="C471" s="115"/>
@@ -18290,7 +18290,7 @@
       <c r="N471" s="115"/>
       <c r="O471" s="115"/>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472" s="115"/>
       <c r="B472" s="115"/>
       <c r="C472" s="115"/>
@@ -18307,7 +18307,7 @@
       <c r="N472" s="115"/>
       <c r="O472" s="115"/>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A473" s="115"/>
       <c r="B473" s="115"/>
       <c r="C473" s="115"/>
@@ -18324,7 +18324,7 @@
       <c r="N473" s="115"/>
       <c r="O473" s="115"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A474" s="115"/>
       <c r="B474" s="115"/>
       <c r="C474" s="115"/>
@@ -18341,7 +18341,7 @@
       <c r="N474" s="115"/>
       <c r="O474" s="115"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A475" s="115"/>
       <c r="B475" s="115"/>
       <c r="C475" s="115"/>
@@ -18358,7 +18358,7 @@
       <c r="N475" s="115"/>
       <c r="O475" s="115"/>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A476" s="115"/>
       <c r="B476" s="115"/>
       <c r="C476" s="115"/>
@@ -18375,7 +18375,7 @@
       <c r="N476" s="115"/>
       <c r="O476" s="115"/>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A477" s="115"/>
       <c r="B477" s="115"/>
       <c r="C477" s="115"/>
@@ -18392,7 +18392,7 @@
       <c r="N477" s="115"/>
       <c r="O477" s="115"/>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A478" s="115"/>
       <c r="B478" s="115"/>
       <c r="C478" s="115"/>
@@ -18409,7 +18409,7 @@
       <c r="N478" s="115"/>
       <c r="O478" s="115"/>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479" s="115"/>
       <c r="B479" s="115"/>
       <c r="C479" s="115"/>
@@ -18426,7 +18426,7 @@
       <c r="N479" s="115"/>
       <c r="O479" s="115"/>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A480" s="115"/>
       <c r="B480" s="115"/>
       <c r="C480" s="115"/>
@@ -18443,7 +18443,7 @@
       <c r="N480" s="115"/>
       <c r="O480" s="115"/>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481" s="115"/>
       <c r="B481" s="115"/>
       <c r="C481" s="115"/>
@@ -18460,7 +18460,7 @@
       <c r="N481" s="115"/>
       <c r="O481" s="115"/>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482" s="115"/>
       <c r="B482" s="115"/>
       <c r="C482" s="115"/>
@@ -18477,7 +18477,7 @@
       <c r="N482" s="115"/>
       <c r="O482" s="115"/>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483" s="115"/>
       <c r="B483" s="115"/>
       <c r="C483" s="115"/>
@@ -18494,7 +18494,7 @@
       <c r="N483" s="115"/>
       <c r="O483" s="115"/>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484" s="115"/>
       <c r="B484" s="115"/>
       <c r="C484" s="115"/>
@@ -18511,7 +18511,7 @@
       <c r="N484" s="115"/>
       <c r="O484" s="115"/>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485" s="115"/>
       <c r="B485" s="115"/>
       <c r="C485" s="115"/>
@@ -18528,7 +18528,7 @@
       <c r="N485" s="115"/>
       <c r="O485" s="115"/>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486" s="115"/>
       <c r="B486" s="115"/>
       <c r="C486" s="115"/>
@@ -18545,7 +18545,7 @@
       <c r="N486" s="115"/>
       <c r="O486" s="115"/>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487" s="115"/>
       <c r="B487" s="115"/>
       <c r="C487" s="115"/>
@@ -18562,7 +18562,7 @@
       <c r="N487" s="115"/>
       <c r="O487" s="115"/>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A488" s="115"/>
       <c r="B488" s="115"/>
       <c r="C488" s="115"/>
@@ -18579,7 +18579,7 @@
       <c r="N488" s="115"/>
       <c r="O488" s="115"/>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489" s="115"/>
       <c r="B489" s="115"/>
       <c r="C489" s="115"/>
@@ -18596,7 +18596,7 @@
       <c r="N489" s="115"/>
       <c r="O489" s="115"/>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A490" s="115"/>
       <c r="B490" s="115"/>
       <c r="C490" s="115"/>
@@ -18613,7 +18613,7 @@
       <c r="N490" s="115"/>
       <c r="O490" s="115"/>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491" s="115"/>
       <c r="B491" s="115"/>
       <c r="C491" s="115"/>
@@ -18630,7 +18630,7 @@
       <c r="N491" s="115"/>
       <c r="O491" s="115"/>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A492" s="115"/>
       <c r="B492" s="115"/>
       <c r="C492" s="115"/>
@@ -18647,7 +18647,7 @@
       <c r="N492" s="115"/>
       <c r="O492" s="115"/>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493" s="115"/>
       <c r="B493" s="115"/>
       <c r="C493" s="115"/>
@@ -18664,7 +18664,7 @@
       <c r="N493" s="115"/>
       <c r="O493" s="115"/>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A494" s="115"/>
       <c r="B494" s="115"/>
       <c r="C494" s="115"/>
@@ -18681,7 +18681,7 @@
       <c r="N494" s="115"/>
       <c r="O494" s="115"/>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495" s="115"/>
       <c r="B495" s="115"/>
       <c r="C495" s="115"/>
@@ -18698,7 +18698,7 @@
       <c r="N495" s="115"/>
       <c r="O495" s="115"/>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496" s="115"/>
       <c r="B496" s="115"/>
       <c r="C496" s="115"/>
@@ -18715,7 +18715,7 @@
       <c r="N496" s="115"/>
       <c r="O496" s="115"/>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497" s="115"/>
       <c r="B497" s="115"/>
       <c r="C497" s="115"/>
@@ -18732,7 +18732,7 @@
       <c r="N497" s="115"/>
       <c r="O497" s="115"/>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498" s="115"/>
       <c r="B498" s="115"/>
       <c r="C498" s="115"/>
@@ -18749,7 +18749,7 @@
       <c r="N498" s="115"/>
       <c r="O498" s="115"/>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499" s="115"/>
       <c r="B499" s="115"/>
       <c r="C499" s="115"/>
@@ -18766,7 +18766,7 @@
       <c r="N499" s="115"/>
       <c r="O499" s="115"/>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500" s="115"/>
       <c r="B500" s="115"/>
       <c r="C500" s="115"/>
